--- a/Jogos_da_Semana_FlashScore_2025-05-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-04.xlsx
@@ -668,19 +668,19 @@
         <v>4.33</v>
       </c>
       <c r="N2" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
         <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
         <v>2.05</v>
@@ -790,22 +790,22 @@
         <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="O3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
         <v>3.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -912,19 +912,19 @@
         <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O4" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q4" t="n">
         <v>3.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>2.5</v>
@@ -1034,19 +1034,19 @@
         <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="O5" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="P5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
         <v>3.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>2.5</v>
@@ -1156,22 +1156,22 @@
         <v>3.2</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="P6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T6" t="n">
         <v>6.5</v>
@@ -1278,19 +1278,19 @@
         <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q7" t="n">
         <v>3.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
         <v>2.1</v>
@@ -1400,22 +1400,22 @@
         <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
         <v>3.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T8" t="n">
         <v>8.5</v>
@@ -1522,19 +1522,19 @@
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="P9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
         <v>3.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>2.2</v>
@@ -1644,10 +1644,10 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
@@ -1766,10 +1766,10 @@
         <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O11" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="P11" t="n">
         <v>1.33</v>
@@ -1802,7 +1802,7 @@
         <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>7.5</v>
@@ -2016,7 +2016,7 @@
         <v>2.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q13" t="n">
         <v>3.5</v>
@@ -2028,10 +2028,10 @@
         <v>2.5</v>
       </c>
       <c r="T13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V13" t="n">
         <v>9.5</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
         <v>1.06</v>
@@ -2138,7 +2138,7 @@
         <v>1.85</v>
       </c>
       <c r="P14" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q14" t="n">
         <v>2.75</v>
@@ -2162,7 +2162,7 @@
         <v>51</v>
       </c>
       <c r="X14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
         <v>41</v>
@@ -2171,10 +2171,10 @@
         <v>9.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
         <v>51</v>
@@ -2186,7 +2186,7 @@
         <v>7</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
         <v>8.5</v>
@@ -2260,7 +2260,7 @@
         <v>2.63</v>
       </c>
       <c r="P15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
         <v>3.75</v>
@@ -2382,7 +2382,7 @@
         <v>1.87</v>
       </c>
       <c r="P16" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" t="n">
         <v>2.75</v>
@@ -2504,7 +2504,7 @@
         <v>1.62</v>
       </c>
       <c r="P17" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q17" t="n">
         <v>2.5</v>
@@ -2602,46 +2602,46 @@
         <v>2.25</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
         <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O18" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P18" t="n">
         <v>1.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
@@ -2653,13 +2653,13 @@
         <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB18" t="n">
         <v>13</v>
@@ -2668,10 +2668,10 @@
         <v>41</v>
       </c>
       <c r="AD18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
         <v>17</v>
@@ -2748,7 +2748,7 @@
         <v>2.3</v>
       </c>
       <c r="P19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q19" t="n">
         <v>3.5</v>
@@ -2849,7 +2849,7 @@
         <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J20" t="n">
         <v>1.04</v>
@@ -2870,7 +2870,7 @@
         <v>2.1</v>
       </c>
       <c r="P20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q20" t="n">
         <v>3.25</v>
@@ -2992,7 +2992,7 @@
         <v>3.2</v>
       </c>
       <c r="P21" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Q21" t="n">
         <v>4.33</v>
@@ -3114,10 +3114,10 @@
         <v>1.53</v>
       </c>
       <c r="P22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R22" t="n">
         <v>2.25</v>
@@ -3234,10 +3234,10 @@
         <v>1.67</v>
       </c>
       <c r="P23" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R23" t="n">
         <v>1.91</v>
@@ -3356,10 +3356,10 @@
         <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R24" t="n">
         <v>2.1</v>
@@ -3451,13 +3451,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
         <v>1.14</v>
@@ -3478,7 +3478,7 @@
         <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q25" t="n">
         <v>2.1</v>
@@ -3600,7 +3600,7 @@
         <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q26" t="n">
         <v>2.25</v>
@@ -3731,7 +3731,7 @@
         <v>2.05</v>
       </c>
       <c r="S27" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T27" t="n">
         <v>7.5</v>
@@ -3850,10 +3850,10 @@
         <v>2.63</v>
       </c>
       <c r="R28" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T28" t="n">
         <v>5</v>
@@ -3975,7 +3975,7 @@
         <v>2.5</v>
       </c>
       <c r="S29" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T29" t="n">
         <v>5</v>
@@ -4094,10 +4094,10 @@
         <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S30" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T30" t="n">
         <v>5.5</v>
@@ -4216,10 +4216,10 @@
         <v>2.05</v>
       </c>
       <c r="R31" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S31" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T31" t="n">
         <v>6</v>
@@ -4341,7 +4341,7 @@
         <v>2.75</v>
       </c>
       <c r="S32" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T32" t="n">
         <v>4.5</v>
@@ -4460,10 +4460,10 @@
         <v>2.1</v>
       </c>
       <c r="R33" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S33" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T33" t="n">
         <v>5</v>
@@ -4558,10 +4558,10 @@
         <v>3.9</v>
       </c>
       <c r="J34" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.67</v>
@@ -5528,10 +5528,10 @@
         <v>1.75</v>
       </c>
       <c r="H42" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I42" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J42" t="n">
         <v>1.04</v>
@@ -5558,13 +5558,13 @@
         <v>3.25</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U42" t="n">
         <v>9</v>
@@ -5582,7 +5582,7 @@
         <v>23</v>
       </c>
       <c r="Z42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA42" t="n">
         <v>7</v>
@@ -5594,10 +5594,10 @@
         <v>41</v>
       </c>
       <c r="AD42" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF42" t="n">
         <v>23</v>
@@ -5665,7 +5665,7 @@
         <v>1.24</v>
       </c>
       <c r="M43" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N43" t="n">
         <v>1.72</v>
@@ -5677,19 +5677,19 @@
         <v>1.36</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R43" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S43" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U43" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V43" t="n">
         <v>8.25</v>
@@ -5713,7 +5713,7 @@
         <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD43" t="n">
         <v>450</v>
@@ -5728,7 +5728,7 @@
         <v>14</v>
       </c>
       <c r="AH43" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI43" t="n">
         <v>37</v>
@@ -6270,13 +6270,13 @@
         <v>1.7</v>
       </c>
       <c r="J50" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K50" t="n">
         <v>17</v>
       </c>
       <c r="L50" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -6392,13 +6392,13 @@
         <v>1.83</v>
       </c>
       <c r="J51" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K51" t="n">
         <v>12</v>
       </c>
       <c r="L51" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M51" t="n">
         <v>3.75</v>
@@ -6514,22 +6514,22 @@
         <v>5.5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K52" t="n">
         <v>15</v>
       </c>
       <c r="L52" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M52" t="n">
         <v>4.5</v>
       </c>
       <c r="N52" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O52" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P52" t="n">
         <v>1.29</v>
@@ -6876,10 +6876,10 @@
         <v>2.75</v>
       </c>
       <c r="N55" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O55" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -6998,10 +6998,10 @@
         <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O56" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P56" t="n">
         <v>1.44</v>
@@ -7120,10 +7120,10 @@
         <v>3</v>
       </c>
       <c r="N57" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O57" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P57" t="n">
         <v>1.5</v>
@@ -7227,7 +7227,7 @@
         <v>2.77</v>
       </c>
       <c r="I58" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J58" t="n">
         <v>1.13</v>
@@ -7254,25 +7254,25 @@
         <v>2.25</v>
       </c>
       <c r="R58" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S58" t="n">
         <v>1.65</v>
       </c>
       <c r="T58" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="U58" t="n">
         <v>14</v>
       </c>
       <c r="V58" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W58" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X58" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y58" t="n">
         <v>55</v>
@@ -7293,19 +7293,19 @@
         <v>101</v>
       </c>
       <c r="AE58" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AF58" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AG58" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH58" t="n">
         <v>28</v>
       </c>
       <c r="AI58" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ58" t="n">
         <v>45</v>
@@ -7733,7 +7733,7 @@
         <v>2.6</v>
       </c>
       <c r="O62" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P62" t="n">
         <v>1.57</v>
@@ -7745,7 +7745,7 @@
         <v>2.25</v>
       </c>
       <c r="S62" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T62" t="n">
         <v>5.5</v>
@@ -7852,10 +7852,10 @@
         <v>3.5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O63" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P63" t="n">
         <v>1.36</v>
@@ -7864,10 +7864,10 @@
         <v>3</v>
       </c>
       <c r="R63" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S63" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -8080,19 +8080,19 @@
         <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K65" t="n">
         <v>12</v>
       </c>
       <c r="L65" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O65" t="n">
         <v>2</v>
@@ -8202,13 +8202,13 @@
         <v>4.75</v>
       </c>
       <c r="J66" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K66" t="n">
         <v>10</v>
       </c>
       <c r="L66" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M66" t="n">
         <v>3.4</v>
@@ -8324,13 +8324,13 @@
         <v>3.7</v>
       </c>
       <c r="J67" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K67" t="n">
         <v>7.5</v>
       </c>
       <c r="L67" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M67" t="n">
         <v>2.75</v>
@@ -8339,7 +8339,7 @@
         <v>2.3</v>
       </c>
       <c r="O67" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P67" t="n">
         <v>1.5</v>
@@ -8562,91 +8562,91 @@
         <v>1.65</v>
       </c>
       <c r="H69" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I69" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K69" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="L69" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="M69" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="N69" t="n">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="O69" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="P69" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="R69" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S69" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T69" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="U69" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="V69" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W69" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X69" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Z69" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AA69" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AB69" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AC69" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD69" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AE69" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AF69" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH69" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI69" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AJ69" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
@@ -8681,70 +8681,70 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H70" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I70" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="J70" t="n">
         <v>1.08</v>
       </c>
       <c r="K70" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="L70" t="n">
         <v>1.38</v>
       </c>
       <c r="M70" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="N70" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P70" t="n">
         <v>1.44</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R70" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S70" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="T70" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="U70" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="V70" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W70" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="X70" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y70" t="n">
         <v>37</v>
       </c>
       <c r="Z70" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB70" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC70" t="n">
         <v>100</v>
@@ -8753,22 +8753,22 @@
         <v>1000</v>
       </c>
       <c r="AE70" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AF70" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG70" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH70" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AI70" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AJ70" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
@@ -8802,36 +8802,92 @@
           <t>Shaanxi Union</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5.4</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
-      <c r="AC71" t="inlineStr"/>
-      <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr"/>
-      <c r="AG71" t="inlineStr"/>
-      <c r="AH71" t="inlineStr"/>
-      <c r="AI71" t="inlineStr"/>
-      <c r="AJ71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T71" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U71" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="V71" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W71" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X71" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9051,7 +9107,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>3.2</v>
@@ -9060,10 +9116,10 @@
         <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L75" t="n">
         <v>1.5</v>
@@ -9072,10 +9128,10 @@
         <v>2.5</v>
       </c>
       <c r="N75" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O75" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P75" t="n">
         <v>1.53</v>
@@ -9087,7 +9143,7 @@
         <v>2.2</v>
       </c>
       <c r="S75" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T75" t="n">
         <v>5.5</v>
@@ -9173,13 +9229,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H76" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I76" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J76" t="n">
         <v>1.08</v>
@@ -9206,10 +9262,10 @@
         <v>2.63</v>
       </c>
       <c r="R76" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S76" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T76" t="n">
         <v>8.5</v>
@@ -9295,13 +9351,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H77" t="n">
         <v>3.25</v>
       </c>
       <c r="I77" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J77" t="n">
         <v>1.08</v>
@@ -9310,10 +9366,10 @@
         <v>7.5</v>
       </c>
       <c r="L77" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M77" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N77" t="n">
         <v>2.35</v>
@@ -9331,7 +9387,7 @@
         <v>2</v>
       </c>
       <c r="S77" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T77" t="n">
         <v>7.5</v>
@@ -9382,7 +9438,7 @@
         <v>23</v>
       </c>
       <c r="AJ77" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
@@ -9417,46 +9473,46 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H78" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="I78" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J78" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K78" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L78" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M78" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N78" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="O78" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="P78" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S78" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q78" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R78" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1.58</v>
-      </c>
       <c r="T78" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U78" t="n">
         <v>9</v>
@@ -9468,28 +9524,28 @@
         <v>21</v>
       </c>
       <c r="X78" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y78" t="n">
         <v>41</v>
       </c>
       <c r="Z78" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA78" t="n">
         <v>6</v>
       </c>
       <c r="AB78" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC78" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD78" t="n">
         <v>101</v>
       </c>
       <c r="AE78" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF78" t="n">
         <v>17</v>
@@ -9667,7 +9723,7 @@
         <v>3.9</v>
       </c>
       <c r="I80" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J80" t="n">
         <v>1.06</v>
@@ -9697,7 +9753,7 @@
         <v>2</v>
       </c>
       <c r="S80" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -9792,13 +9848,13 @@
         <v>12</v>
       </c>
       <c r="J81" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K81" t="n">
         <v>11</v>
       </c>
       <c r="L81" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
@@ -9914,22 +9970,22 @@
         <v>3.5</v>
       </c>
       <c r="J82" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L82" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M82" t="n">
         <v>3.5</v>
       </c>
       <c r="N82" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O82" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P82" t="n">
         <v>1.4</v>
@@ -10036,13 +10092,13 @@
         <v>7</v>
       </c>
       <c r="J83" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K83" t="n">
         <v>8</v>
       </c>
       <c r="L83" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M83" t="n">
         <v>2.75</v>
@@ -10158,13 +10214,13 @@
         <v>1.8</v>
       </c>
       <c r="J84" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K84" t="n">
         <v>9</v>
       </c>
       <c r="L84" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M84" t="n">
         <v>3.25</v>
@@ -10274,28 +10330,28 @@
         <v>2.1</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="I85" t="n">
         <v>3.3</v>
       </c>
       <c r="J85" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="K85" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L85" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M85" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N85" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O85" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P85" t="n">
         <v>1.53</v>
@@ -10310,10 +10366,10 @@
         <v>1.67</v>
       </c>
       <c r="T85" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U85" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V85" t="n">
         <v>10</v>
@@ -10328,35 +10384,35 @@
         <v>41</v>
       </c>
       <c r="Z85" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA85" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC85" t="n">
         <v>67</v>
       </c>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AF85" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG85" t="n">
         <v>15</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>13</v>
       </c>
       <c r="AH85" t="n">
         <v>41</v>
       </c>
       <c r="AI85" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ85" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86">
@@ -10766,22 +10822,22 @@
         <v>2.4</v>
       </c>
       <c r="J89" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K89" t="n">
         <v>10</v>
       </c>
       <c r="L89" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M89" t="n">
         <v>3.4</v>
       </c>
       <c r="N89" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O89" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="P89" t="n">
         <v>1.4</v>
@@ -10888,19 +10944,19 @@
         <v>7.5</v>
       </c>
       <c r="J90" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K90" t="n">
         <v>12</v>
       </c>
       <c r="L90" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M90" t="n">
         <v>3.75</v>
       </c>
       <c r="N90" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O90" t="n">
         <v>2.05</v>
@@ -11010,19 +11066,19 @@
         <v>3.3</v>
       </c>
       <c r="J91" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K91" t="n">
         <v>12</v>
       </c>
       <c r="L91" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O91" t="n">
         <v>2.05</v>
@@ -11132,22 +11188,22 @@
         <v>5.75</v>
       </c>
       <c r="J92" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K92" t="n">
         <v>11</v>
       </c>
       <c r="L92" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M92" t="n">
         <v>3.75</v>
       </c>
       <c r="N92" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O92" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="P92" t="n">
         <v>1.36</v>
@@ -11245,28 +11301,28 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I93" t="n">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="J93" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L93" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O93" t="n">
         <v>1.67</v>
@@ -11284,25 +11340,25 @@
         <v>1.83</v>
       </c>
       <c r="T93" t="n">
+        <v>7</v>
+      </c>
+      <c r="U93" t="n">
+        <v>10</v>
+      </c>
+      <c r="V93" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W93" t="n">
+        <v>21</v>
+      </c>
+      <c r="X93" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z93" t="n">
         <v>8.5</v>
-      </c>
-      <c r="U93" t="n">
-        <v>15</v>
-      </c>
-      <c r="V93" t="n">
-        <v>12</v>
-      </c>
-      <c r="W93" t="n">
-        <v>34</v>
-      </c>
-      <c r="X93" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>9</v>
       </c>
       <c r="AA93" t="n">
         <v>6.5</v>
@@ -11317,22 +11373,22 @@
         <v>351</v>
       </c>
       <c r="AE93" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AF93" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AG93" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH93" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AI93" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AJ93" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94">
@@ -11388,10 +11444,10 @@
         <v>3.5</v>
       </c>
       <c r="N94" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O94" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="P94" t="n">
         <v>1.36</v>
@@ -11400,10 +11456,10 @@
         <v>3</v>
       </c>
       <c r="R94" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S94" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -11510,10 +11566,10 @@
         <v>3.75</v>
       </c>
       <c r="N95" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O95" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="P95" t="n">
         <v>1.36</v>
@@ -11522,7 +11578,7 @@
         <v>3</v>
       </c>
       <c r="R95" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S95" t="n">
         <v>2</v>
@@ -11739,40 +11795,40 @@
         <v>3.5</v>
       </c>
       <c r="I97" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J97" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L97" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M97" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N97" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O97" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P97" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q97" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R97" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S97" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T97" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U97" t="n">
         <v>10</v>
@@ -11781,7 +11837,7 @@
         <v>8.5</v>
       </c>
       <c r="W97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X97" t="n">
         <v>13</v>
@@ -11790,7 +11846,7 @@
         <v>21</v>
       </c>
       <c r="Z97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA97" t="n">
         <v>7</v>
@@ -11802,7 +11858,7 @@
         <v>41</v>
       </c>
       <c r="AD97" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE97" t="n">
         <v>15</v>
@@ -11811,7 +11867,7 @@
         <v>23</v>
       </c>
       <c r="AG97" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH97" t="n">
         <v>41</v>
@@ -11820,7 +11876,7 @@
         <v>29</v>
       </c>
       <c r="AJ97" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
@@ -12364,10 +12420,10 @@
         <v>3.25</v>
       </c>
       <c r="N102" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O102" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P102" t="n">
         <v>1.4</v>
@@ -13294,49 +13350,49 @@
         <v>2.3</v>
       </c>
       <c r="H110" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I110" t="n">
         <v>2.8</v>
       </c>
       <c r="J110" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K110" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L110" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M110" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N110" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O110" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P110" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q110" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R110" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S110" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U110" t="n">
         <v>15</v>
       </c>
       <c r="V110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W110" t="n">
         <v>23</v>
@@ -13348,25 +13404,25 @@
         <v>21</v>
       </c>
       <c r="Z110" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA110" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB110" t="n">
         <v>11</v>
       </c>
       <c r="AC110" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD110" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE110" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF110" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG110" t="n">
         <v>11</v>
@@ -13375,10 +13431,10 @@
         <v>29</v>
       </c>
       <c r="AI110" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ110" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ110" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="111">
@@ -13428,16 +13484,16 @@
         <v>15</v>
       </c>
       <c r="L111" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M111" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N111" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O111" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P111" t="n">
         <v>1.29</v>
@@ -13556,10 +13612,10 @@
         <v>4.33</v>
       </c>
       <c r="N112" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O112" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P112" t="n">
         <v>1.3</v>
@@ -14035,7 +14091,7 @@
         <v>1.06</v>
       </c>
       <c r="K116" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L116" t="n">
         <v>1.33</v>
@@ -14839,7 +14895,7 @@
         <v>1.03</v>
       </c>
       <c r="K123" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L123" t="n">
         <v>1.17</v>
@@ -14949,13 +15005,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="H124" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I124" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -14966,10 +15022,10 @@
         <v>4.2</v>
       </c>
       <c r="N124" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="O124" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="P124" t="n">
         <v>1.3</v>
@@ -14981,16 +15037,16 @@
         <v>1.57</v>
       </c>
       <c r="S124" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="T124" t="n">
         <v>8.6</v>
       </c>
       <c r="U124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V124" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="W124" t="n">
         <v>19</v>
@@ -15005,7 +15061,7 @@
         <v>12</v>
       </c>
       <c r="AA124" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB124" t="n">
         <v>10</v>
@@ -15023,7 +15079,7 @@
         <v>14</v>
       </c>
       <c r="AG124" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AH124" t="n">
         <v>30</v>
@@ -15032,7 +15088,7 @@
         <v>19</v>
       </c>
       <c r="AJ124" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125">
@@ -15189,41 +15245,91 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
-      <c r="AA126" t="inlineStr"/>
-      <c r="AB126" t="inlineStr"/>
-      <c r="AC126" t="inlineStr"/>
-      <c r="AD126" t="inlineStr"/>
-      <c r="AE126" t="inlineStr"/>
-      <c r="AF126" t="inlineStr"/>
-      <c r="AG126" t="inlineStr"/>
-      <c r="AH126" t="inlineStr"/>
-      <c r="AI126" t="inlineStr"/>
-      <c r="AJ126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M126" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O126" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="P126" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S126" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T126" t="n">
+        <v>14</v>
+      </c>
+      <c r="U126" t="n">
+        <v>18</v>
+      </c>
+      <c r="V126" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="W126" t="n">
+        <v>35</v>
+      </c>
+      <c r="X126" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15489,7 +15595,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>4</v>
@@ -15611,13 +15717,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H130" t="n">
         <v>3.1</v>
       </c>
       <c r="I130" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J130" t="n">
         <v>1.08</v>
@@ -15653,13 +15759,13 @@
         <v>9</v>
       </c>
       <c r="U130" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V130" t="n">
         <v>13</v>
       </c>
       <c r="W130" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X130" t="n">
         <v>29</v>
@@ -15683,7 +15789,7 @@
         <v>351</v>
       </c>
       <c r="AE130" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF130" t="n">
         <v>10</v>
@@ -15733,19 +15839,19 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H131" t="n">
         <v>3</v>
       </c>
       <c r="I131" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="J131" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K131" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L131" t="n">
         <v>1.44</v>
@@ -15775,7 +15881,7 @@
         <v>7.5</v>
       </c>
       <c r="U131" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V131" t="n">
         <v>11</v>
@@ -15805,7 +15911,7 @@
         <v>401</v>
       </c>
       <c r="AE131" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF131" t="n">
         <v>12</v>
@@ -15814,10 +15920,10 @@
         <v>11</v>
       </c>
       <c r="AH131" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI131" t="n">
         <v>26</v>
-      </c>
-      <c r="AI131" t="n">
-        <v>23</v>
       </c>
       <c r="AJ131" t="n">
         <v>41</v>
@@ -15855,7 +15961,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H132" t="n">
         <v>3.1</v>
@@ -15977,7 +16083,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H133" t="n">
         <v>3.5</v>
@@ -15986,22 +16092,22 @@
         <v>3.4</v>
       </c>
       <c r="J133" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K133" t="n">
         <v>13</v>
       </c>
       <c r="L133" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M133" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N133" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O133" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P133" t="n">
         <v>1.33</v>
@@ -16099,7 +16205,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H134" t="n">
         <v>3.1</v>
@@ -16108,13 +16214,13 @@
         <v>3.3</v>
       </c>
       <c r="J134" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K134" t="n">
         <v>9</v>
       </c>
       <c r="L134" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M134" t="n">
         <v>3</v>
@@ -16224,7 +16330,7 @@
         <v>2.15</v>
       </c>
       <c r="H135" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="I135" t="n">
         <v>4</v>
@@ -16233,31 +16339,31 @@
         <v>1.08</v>
       </c>
       <c r="K135" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L135" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M135" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="N135" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q135" t="n">
         <v>2.5</v>
       </c>
-      <c r="O135" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P135" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R135" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S135" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T135" t="n">
         <v>6.5</v>
@@ -16266,34 +16372,34 @@
         <v>9.5</v>
       </c>
       <c r="V135" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W135" t="n">
         <v>19</v>
       </c>
       <c r="X135" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y135" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z135" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA135" t="n">
         <v>5.5</v>
       </c>
       <c r="AB135" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC135" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD135" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE135" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF135" t="n">
         <v>19</v>
@@ -16346,19 +16452,19 @@
         <v>3.5</v>
       </c>
       <c r="H136" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I136" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J136" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K136" t="n">
         <v>7</v>
       </c>
       <c r="L136" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M136" t="n">
         <v>2.75</v>
@@ -16465,16 +16571,16 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I137" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J137" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K137" t="n">
         <v>10</v>
@@ -16483,28 +16589,28 @@
         <v>1.25</v>
       </c>
       <c r="M137" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N137" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="O137" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="P137" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R137" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S137" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T137" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U137" t="n">
         <v>11</v>
@@ -16513,37 +16619,37 @@
         <v>9</v>
       </c>
       <c r="W137" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X137" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y137" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z137" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA137" t="n">
         <v>6</v>
       </c>
       <c r="AB137" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC137" t="n">
         <v>41</v>
       </c>
       <c r="AD137" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE137" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF137" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG137" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH137" t="n">
         <v>41</v>
@@ -16587,7 +16693,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H138" t="n">
         <v>3.4</v>
@@ -16596,22 +16702,22 @@
         <v>4.75</v>
       </c>
       <c r="J138" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K138" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L138" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M138" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N138" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O138" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P138" t="n">
         <v>1.44</v>
@@ -16709,31 +16815,31 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="H139" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I139" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J139" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K139" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L139" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M139" t="n">
         <v>3.75</v>
       </c>
       <c r="N139" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O139" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P139" t="n">
         <v>1.36</v>
@@ -16781,7 +16887,7 @@
         <v>151</v>
       </c>
       <c r="AE139" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF139" t="n">
         <v>15</v>
@@ -16790,7 +16896,7 @@
         <v>11</v>
       </c>
       <c r="AH139" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI139" t="n">
         <v>21</v>
@@ -17197,13 +17303,13 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H143" t="n">
         <v>3.5</v>
       </c>
       <c r="I143" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J143" t="n">
         <v>1.07</v>
@@ -17218,7 +17324,7 @@
         <v>3.05</v>
       </c>
       <c r="N143" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O143" t="n">
         <v>1.75</v>
@@ -17236,10 +17342,10 @@
         <v>1.78</v>
       </c>
       <c r="T143" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U143" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="V143" t="n">
         <v>8.25</v>
@@ -17257,10 +17363,10 @@
         <v>7</v>
       </c>
       <c r="AA143" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB143" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC143" t="n">
         <v>90</v>
@@ -17269,16 +17375,16 @@
         <v>800</v>
       </c>
       <c r="AE143" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF143" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AG143" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH143" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI143" t="n">
         <v>50</v>
@@ -17346,7 +17452,7 @@
         <v>1.72</v>
       </c>
       <c r="P144" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q144" t="n">
         <v>2.57</v>
@@ -17358,28 +17464,28 @@
         <v>1.8</v>
       </c>
       <c r="T144" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U144" t="n">
         <v>7.8</v>
       </c>
       <c r="V144" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W144" t="n">
         <v>14</v>
       </c>
       <c r="X144" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y144" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z144" t="n">
         <v>6.9</v>
       </c>
       <c r="AA144" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB144" t="n">
         <v>16.5</v>
@@ -17388,10 +17494,10 @@
         <v>90</v>
       </c>
       <c r="AD144" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE144" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF144" t="n">
         <v>24</v>
@@ -17602,22 +17708,22 @@
         <v>1.85</v>
       </c>
       <c r="T146" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="U146" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="V146" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W146" t="n">
         <v>23</v>
       </c>
       <c r="X146" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y146" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z146" t="n">
         <v>6.3</v>
@@ -17626,31 +17732,31 @@
         <v>5.9</v>
       </c>
       <c r="AB146" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC146" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD146" t="n">
         <v>700</v>
       </c>
       <c r="AE146" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF146" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG146" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH146" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI146" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ146" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147">
@@ -17685,7 +17791,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="H147" t="n">
         <v>3.05</v>
@@ -17724,13 +17830,13 @@
         <v>1.93</v>
       </c>
       <c r="T147" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U147" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V147" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W147" t="n">
         <v>30</v>
@@ -17751,13 +17857,13 @@
         <v>14</v>
       </c>
       <c r="AC147" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD147" t="n">
         <v>600</v>
       </c>
       <c r="AE147" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF147" t="n">
         <v>12.5</v>
@@ -17769,7 +17875,7 @@
         <v>29</v>
       </c>
       <c r="AI147" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ147" t="n">
         <v>32</v>
@@ -18279,7 +18385,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H152" t="n">
         <v>3.5</v>
@@ -18430,16 +18536,16 @@
         <v>2.52</v>
       </c>
       <c r="R153" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S153" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T153" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U153" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="V153" t="n">
         <v>9</v>
@@ -18448,10 +18554,10 @@
         <v>23</v>
       </c>
       <c r="X153" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y153" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z153" t="n">
         <v>9.75</v>
@@ -18469,7 +18575,7 @@
         <v>450</v>
       </c>
       <c r="AE153" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF153" t="n">
         <v>15.5</v>
@@ -18481,7 +18587,7 @@
         <v>37</v>
       </c>
       <c r="AI153" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ153" t="n">
         <v>32</v>
@@ -18956,7 +19062,7 @@
         <v>1.22</v>
       </c>
       <c r="H161" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I161" t="n">
         <v>13</v>
@@ -18965,7 +19071,7 @@
         <v>1.03</v>
       </c>
       <c r="K161" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L161" t="n">
         <v>1.14</v>
@@ -18974,7 +19080,7 @@
         <v>5.5</v>
       </c>
       <c r="N161" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O161" t="n">
         <v>2.4</v>
@@ -18998,7 +19104,7 @@
         <v>6.5</v>
       </c>
       <c r="V161" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W161" t="n">
         <v>7.5</v>
@@ -19007,7 +19113,7 @@
         <v>11</v>
       </c>
       <c r="Y161" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z161" t="n">
         <v>15</v>
@@ -19087,7 +19193,7 @@
         <v>1.03</v>
       </c>
       <c r="K162" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L162" t="n">
         <v>1.18</v>
@@ -19096,7 +19202,7 @@
         <v>4.5</v>
       </c>
       <c r="N162" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O162" t="n">
         <v>2.3</v>
@@ -19218,7 +19324,7 @@
         <v>4</v>
       </c>
       <c r="N163" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O163" t="n">
         <v>2.05</v>
@@ -19340,7 +19446,7 @@
         <v>6</v>
       </c>
       <c r="N164" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="O164" t="n">
         <v>2.7</v>
@@ -19450,13 +19556,13 @@
         <v>9.5</v>
       </c>
       <c r="J165" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K165" t="n">
         <v>17</v>
       </c>
       <c r="L165" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M165" t="n">
         <v>5.5</v>
@@ -19572,13 +19678,13 @@
         <v>6</v>
       </c>
       <c r="J166" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K166" t="n">
         <v>19</v>
       </c>
       <c r="L166" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M166" t="n">
         <v>5</v>
@@ -19694,13 +19800,13 @@
         <v>4.75</v>
       </c>
       <c r="J167" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K167" t="n">
         <v>13</v>
       </c>
       <c r="L167" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M167" t="n">
         <v>4.33</v>
@@ -19816,13 +19922,13 @@
         <v>4.33</v>
       </c>
       <c r="J168" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K168" t="n">
         <v>6</v>
       </c>
       <c r="L168" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M168" t="n">
         <v>2.5</v>
@@ -19843,7 +19949,7 @@
         <v>2.2</v>
       </c>
       <c r="S168" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T168" t="n">
         <v>5.5</v>
@@ -19938,16 +20044,16 @@
         <v>5.25</v>
       </c>
       <c r="J169" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K169" t="n">
         <v>7.5</v>
       </c>
       <c r="L169" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M169" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N169" t="n">
         <v>2.35</v>
@@ -19962,10 +20068,10 @@
         <v>2.5</v>
       </c>
       <c r="R169" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S169" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T169" t="n">
         <v>5</v>
@@ -20238,13 +20344,13 @@
         <v>4.5</v>
       </c>
       <c r="J172" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K172" t="n">
         <v>13</v>
       </c>
       <c r="L172" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M172" t="n">
         <v>4</v>
@@ -20262,7 +20368,7 @@
         <v>3.25</v>
       </c>
       <c r="R172" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S172" t="n">
         <v>2</v>
@@ -20360,13 +20466,13 @@
         <v>3.6</v>
       </c>
       <c r="J173" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K173" t="n">
         <v>11</v>
       </c>
       <c r="L173" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M173" t="n">
         <v>3.5</v>
@@ -20384,10 +20490,10 @@
         <v>2.75</v>
       </c>
       <c r="R173" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S173" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T173" t="n">
         <v>7.5</v>
@@ -20482,13 +20588,13 @@
         <v>3.5</v>
       </c>
       <c r="J174" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K174" t="n">
         <v>11</v>
       </c>
       <c r="L174" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M174" t="n">
         <v>3.75</v>
@@ -20506,7 +20612,7 @@
         <v>3</v>
       </c>
       <c r="R174" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S174" t="n">
         <v>2</v>
@@ -20622,7 +20728,7 @@
         <v>1.57</v>
       </c>
       <c r="P175" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q175" t="n">
         <v>2.5</v>
@@ -20726,10 +20832,10 @@
         <v>3.3</v>
       </c>
       <c r="J176" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K176" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L176" t="n">
         <v>1.2</v>
@@ -20744,7 +20850,7 @@
         <v>2.15</v>
       </c>
       <c r="P176" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q176" t="n">
         <v>3.4</v>
@@ -20866,7 +20972,7 @@
         <v>2.2</v>
       </c>
       <c r="P177" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q177" t="n">
         <v>3.4</v>
@@ -20988,7 +21094,7 @@
         <v>1.98</v>
       </c>
       <c r="P178" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q178" t="n">
         <v>3</v>
@@ -21110,7 +21216,7 @@
         <v>1.93</v>
       </c>
       <c r="P179" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q179" t="n">
         <v>3</v>
@@ -21232,7 +21338,7 @@
         <v>2.08</v>
       </c>
       <c r="P180" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q180" t="n">
         <v>3.25</v>
@@ -21339,7 +21445,7 @@
         <v>1.06</v>
       </c>
       <c r="K181" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L181" t="n">
         <v>1.33</v>
@@ -21348,16 +21454,16 @@
         <v>3.25</v>
       </c>
       <c r="N181" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O181" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P181" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q181" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R181" t="n">
         <v>1.8</v>
@@ -21366,7 +21472,7 @@
         <v>1.95</v>
       </c>
       <c r="T181" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U181" t="n">
         <v>11</v>
@@ -21378,13 +21484,13 @@
         <v>23</v>
       </c>
       <c r="X181" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y181" t="n">
         <v>29</v>
       </c>
       <c r="Z181" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA181" t="n">
         <v>6.5</v>
@@ -21396,7 +21502,7 @@
         <v>51</v>
       </c>
       <c r="AD181" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE181" t="n">
         <v>9</v>
@@ -21408,10 +21514,10 @@
         <v>11</v>
       </c>
       <c r="AH181" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI181" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ181" t="n">
         <v>34</v>
@@ -21458,16 +21564,16 @@
         <v>3.6</v>
       </c>
       <c r="J182" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K182" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L182" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M182" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N182" t="n">
         <v>2.1</v>
@@ -23157,7 +23263,7 @@
         <v>2.5</v>
       </c>
       <c r="O197" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P197" t="n">
         <v>1.53</v>
@@ -23255,31 +23361,31 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="H198" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I198" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I198" t="n">
-        <v>3.75</v>
       </c>
       <c r="J198" t="n">
         <v>1.1</v>
       </c>
       <c r="K198" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="L198" t="n">
         <v>1.47</v>
       </c>
       <c r="M198" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="N198" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O198" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P198" t="n">
         <v>1.55</v>
@@ -23288,61 +23394,61 @@
         <v>2.35</v>
       </c>
       <c r="R198" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S198" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T198" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="U198" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="V198" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="W198" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="X198" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y198" t="n">
         <v>45</v>
       </c>
       <c r="Z198" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA198" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB198" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AC198" t="n">
         <v>120</v>
       </c>
       <c r="AD198" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AE198" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AF198" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AG198" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH198" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AI198" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AJ198" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199">
@@ -23882,13 +23988,13 @@
         <v>1.9</v>
       </c>
       <c r="J207" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K207" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L207" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M207" t="n">
         <v>5.5</v>
@@ -23906,10 +24012,10 @@
         <v>3.75</v>
       </c>
       <c r="R207" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S207" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T207" t="n">
         <v>17</v>
@@ -23998,43 +24104,43 @@
         <v>2.15</v>
       </c>
       <c r="H208" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I208" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J208" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K208" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="L208" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M208" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="N208" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O208" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P208" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R208" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S208" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T208" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="U208" t="n">
         <v>10.25</v>
@@ -24052,16 +24158,16 @@
         <v>29</v>
       </c>
       <c r="Z208" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AA208" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB208" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC208" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD208" t="n">
         <v>600</v>
@@ -24070,19 +24176,19 @@
         <v>9.25</v>
       </c>
       <c r="AF208" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG208" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH208" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI208" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ208" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="209">
@@ -24117,25 +24223,25 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H209" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I209" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J209" t="n">
         <v>1.08</v>
       </c>
       <c r="K209" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="L209" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M209" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="N209" t="n">
         <v>2.1</v>
@@ -24147,40 +24253,40 @@
         <v>1.44</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R209" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S209" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T209" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="U209" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V209" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="W209" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="X209" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y209" t="n">
         <v>60</v>
       </c>
       <c r="Z209" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA209" t="n">
         <v>6.9</v>
       </c>
       <c r="AB209" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC209" t="n">
         <v>110</v>
@@ -24189,16 +24295,16 @@
         <v>800</v>
       </c>
       <c r="AE209" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AF209" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG209" t="n">
         <v>8.5</v>
       </c>
       <c r="AH209" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI209" t="n">
         <v>15.5</v>
@@ -24239,13 +24345,13 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="H210" t="n">
         <v>3.5</v>
       </c>
       <c r="I210" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="J210" t="n">
         <v>1.05</v>
@@ -24254,46 +24360,46 @@
         <v>8</v>
       </c>
       <c r="L210" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M210" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="N210" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O210" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P210" t="n">
         <v>1.36</v>
       </c>
       <c r="Q210" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="R210" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S210" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T210" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="U210" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V210" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W210" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="X210" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y210" t="n">
         <v>32</v>
-      </c>
-      <c r="Y210" t="n">
-        <v>35</v>
       </c>
       <c r="Z210" t="n">
         <v>8</v>
@@ -24302,31 +24408,31 @@
         <v>7</v>
       </c>
       <c r="AB210" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC210" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD210" t="n">
         <v>350</v>
       </c>
       <c r="AE210" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AF210" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG210" t="n">
         <v>8.25</v>
       </c>
       <c r="AH210" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI210" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ210" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211">
@@ -24364,91 +24470,91 @@
         <v>1.7</v>
       </c>
       <c r="H211" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I211" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="J211" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K211" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="L211" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M211" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="N211" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O211" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="P211" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q211" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="R211" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S211" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T211" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="U211" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="V211" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W211" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X211" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y211" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z211" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AA211" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB211" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC211" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD211" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AE211" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF211" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG211" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH211" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI211" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ211" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="212">
@@ -24605,7 +24711,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H213" t="n">
         <v>3.3</v>
@@ -24617,25 +24723,25 @@
         <v>1.06</v>
       </c>
       <c r="K213" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="L213" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M213" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="N213" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O213" t="n">
         <v>1.85</v>
-      </c>
-      <c r="O213" t="n">
-        <v>1.88</v>
       </c>
       <c r="P213" t="n">
         <v>1.42</v>
       </c>
       <c r="Q213" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="R213" t="n">
         <v>1.65</v>
@@ -24662,13 +24768,13 @@
         <v>32</v>
       </c>
       <c r="Z213" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AA213" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB213" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC213" t="n">
         <v>60</v>
@@ -24686,13 +24792,13 @@
         <v>9.75</v>
       </c>
       <c r="AH213" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI213" t="n">
         <v>21</v>
       </c>
       <c r="AJ213" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214">
@@ -24727,19 +24833,19 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="H214" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I214" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="J214" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K214" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="L214" t="n">
         <v>1.23</v>
@@ -24760,61 +24866,61 @@
         <v>3</v>
       </c>
       <c r="R214" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S214" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="T214" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="U214" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="V214" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W214" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X214" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y214" t="n">
         <v>24</v>
       </c>
       <c r="Z214" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA214" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AB214" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC214" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD214" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AE214" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF214" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AG214" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH214" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI214" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ214" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="215">
@@ -25236,10 +25342,10 @@
         <v>3.5</v>
       </c>
       <c r="N218" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O218" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P218" t="n">
         <v>1.4</v>
@@ -25468,22 +25574,22 @@
         <v>1.7</v>
       </c>
       <c r="J220" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K220" t="n">
         <v>11</v>
       </c>
       <c r="L220" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="M220" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N220" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O220" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P220" t="n">
         <v>1.36</v>
@@ -25590,13 +25696,13 @@
         <v>4.1</v>
       </c>
       <c r="J221" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K221" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L221" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M221" t="n">
         <v>3</v>
@@ -25712,13 +25818,13 @@
         <v>3</v>
       </c>
       <c r="J222" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K222" t="n">
         <v>8.5</v>
       </c>
       <c r="L222" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M222" t="n">
         <v>3</v>
@@ -25834,13 +25940,13 @@
         <v>3.3</v>
       </c>
       <c r="J223" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K223" t="n">
         <v>10</v>
       </c>
       <c r="L223" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M223" t="n">
         <v>3.5</v>
@@ -25956,13 +26062,13 @@
         <v>5</v>
       </c>
       <c r="J224" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K224" t="n">
         <v>10</v>
       </c>
       <c r="L224" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M224" t="n">
         <v>3.5</v>
@@ -26069,25 +26175,25 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H225" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I225" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J225" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="K225" t="n">
         <v>8</v>
       </c>
       <c r="L225" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M225" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N225" t="n">
         <v>2.35</v>
@@ -26102,16 +26208,16 @@
         <v>2.5</v>
       </c>
       <c r="R225" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S225" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T225" t="n">
         <v>8.5</v>
       </c>
       <c r="U225" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V225" t="n">
         <v>13</v>
@@ -26120,13 +26226,13 @@
         <v>41</v>
       </c>
       <c r="X225" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y225" t="n">
         <v>41</v>
       </c>
       <c r="Z225" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA225" t="n">
         <v>7</v>
@@ -26135,22 +26241,22 @@
         <v>21</v>
       </c>
       <c r="AC225" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD225" t="n">
         <v>301</v>
       </c>
       <c r="AE225" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF225" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG225" t="n">
         <v>9.5</v>
       </c>
       <c r="AH225" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI225" t="n">
         <v>19</v>
@@ -26200,13 +26306,13 @@
         <v>6.5</v>
       </c>
       <c r="J226" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K226" t="n">
         <v>13</v>
       </c>
       <c r="L226" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="M226" t="n">
         <v>4</v>
@@ -26346,10 +26452,10 @@
         <v>3.4</v>
       </c>
       <c r="R227" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S227" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T227" t="n">
         <v>17</v>
@@ -26468,10 +26574,10 @@
         <v>2.75</v>
       </c>
       <c r="R228" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S228" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T228" t="n">
         <v>7.5</v>
@@ -26590,10 +26696,10 @@
         <v>2.75</v>
       </c>
       <c r="R229" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S229" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T229" t="n">
         <v>7.5</v>
@@ -26679,19 +26785,19 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H230" t="n">
         <v>3.1</v>
       </c>
       <c r="I230" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J230" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K230" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L230" t="n">
         <v>1.4</v>
@@ -26715,7 +26821,7 @@
         <v>2</v>
       </c>
       <c r="S230" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T230" t="n">
         <v>6</v>
@@ -26742,7 +26848,7 @@
         <v>6.5</v>
       </c>
       <c r="AB230" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC230" t="n">
         <v>67</v>
@@ -26751,13 +26857,13 @@
         <v>900</v>
       </c>
       <c r="AE230" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF230" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG230" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH230" t="n">
         <v>41</v>
@@ -26837,7 +26943,7 @@
         <v>2</v>
       </c>
       <c r="S231" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T231" t="n">
         <v>6.5</v>
@@ -26956,10 +27062,10 @@
         <v>3.25</v>
       </c>
       <c r="R232" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S232" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T232" t="n">
         <v>7.5</v>
@@ -27045,7 +27151,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="H233" t="n">
         <v>3.5</v>
@@ -27054,13 +27160,13 @@
         <v>5.25</v>
       </c>
       <c r="J233" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K233" t="n">
         <v>8</v>
       </c>
       <c r="L233" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M233" t="n">
         <v>3</v>
@@ -27072,10 +27178,10 @@
         <v>1.67</v>
       </c>
       <c r="P233" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q233" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R233" t="n">
         <v>2.2</v>
@@ -27176,13 +27282,13 @@
         <v>2.25</v>
       </c>
       <c r="J234" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K234" t="n">
         <v>7</v>
       </c>
       <c r="L234" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M234" t="n">
         <v>2.75</v>
@@ -27194,7 +27300,7 @@
         <v>1.6</v>
       </c>
       <c r="P234" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q234" t="n">
         <v>2.5</v>
@@ -27295,16 +27401,16 @@
         <v>3.25</v>
       </c>
       <c r="I235" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J235" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K235" t="n">
         <v>7.5</v>
       </c>
       <c r="L235" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M235" t="n">
         <v>2.75</v>
@@ -27316,10 +27422,10 @@
         <v>1.65</v>
       </c>
       <c r="P235" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q235" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R235" t="n">
         <v>2.1</v>
@@ -27411,7 +27517,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H236" t="n">
         <v>3.5</v>
@@ -27420,13 +27526,13 @@
         <v>4.8</v>
       </c>
       <c r="J236" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K236" t="n">
         <v>8</v>
       </c>
       <c r="L236" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M236" t="n">
         <v>3.25</v>
@@ -27438,7 +27544,7 @@
         <v>1.75</v>
       </c>
       <c r="P236" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q236" t="n">
         <v>2.75</v>
@@ -27533,7 +27639,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H237" t="n">
         <v>3.1</v>
@@ -27542,13 +27648,13 @@
         <v>3.5</v>
       </c>
       <c r="J237" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K237" t="n">
         <v>7.5</v>
       </c>
       <c r="L237" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M237" t="n">
         <v>3</v>
@@ -27560,10 +27666,10 @@
         <v>1.67</v>
       </c>
       <c r="P237" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q237" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R237" t="n">
         <v>2</v>
@@ -27661,7 +27767,7 @@
         <v>3.1</v>
       </c>
       <c r="I238" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J238" t="n">
         <v>1.1</v>
@@ -27706,7 +27812,7 @@
         <v>29</v>
       </c>
       <c r="X238" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y238" t="n">
         <v>41</v>
@@ -27730,7 +27836,7 @@
         <v>6.5</v>
       </c>
       <c r="AF238" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG238" t="n">
         <v>11</v>
@@ -27786,10 +27892,10 @@
         <v>2.45</v>
       </c>
       <c r="J239" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K239" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L239" t="n">
         <v>1.17</v>
@@ -27798,10 +27904,10 @@
         <v>5</v>
       </c>
       <c r="N239" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O239" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P239" t="n">
         <v>1.29</v>
@@ -28036,16 +28142,16 @@
         <v>13</v>
       </c>
       <c r="L241" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M241" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N241" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O241" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P241" t="n">
         <v>1.33</v>
@@ -28268,43 +28374,43 @@
         <v>2.55</v>
       </c>
       <c r="H243" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I243" t="n">
         <v>2.63</v>
       </c>
       <c r="J243" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K243" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L243" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M243" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="N243" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="O243" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="P243" t="n">
         <v>1.33</v>
       </c>
       <c r="Q243" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R243" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S243" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T243" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U243" t="n">
         <v>13</v>
@@ -28316,13 +28422,13 @@
         <v>26</v>
       </c>
       <c r="X243" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y243" t="n">
         <v>26</v>
       </c>
       <c r="Z243" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA243" t="n">
         <v>6.5</v>
@@ -28337,10 +28443,10 @@
         <v>151</v>
       </c>
       <c r="AE243" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF243" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG243" t="n">
         <v>10</v>
@@ -28352,7 +28458,7 @@
         <v>21</v>
       </c>
       <c r="AJ243" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="244">
@@ -28390,43 +28496,43 @@
         <v>3</v>
       </c>
       <c r="H244" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I244" t="n">
         <v>2.15</v>
       </c>
       <c r="J244" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K244" t="n">
+        <v>15</v>
+      </c>
+      <c r="L244" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M244" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N244" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P244" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R244" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S244" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T244" t="n">
         <v>13</v>
-      </c>
-      <c r="L244" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M244" t="n">
-        <v>4</v>
-      </c>
-      <c r="N244" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O244" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P244" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q244" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R244" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S244" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T244" t="n">
-        <v>12</v>
       </c>
       <c r="U244" t="n">
         <v>17</v>
@@ -28438,31 +28544,31 @@
         <v>34</v>
       </c>
       <c r="X244" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y244" t="n">
         <v>26</v>
       </c>
       <c r="Z244" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF244" t="n">
         <v>13</v>
-      </c>
-      <c r="AA244" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB244" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC244" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD244" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE244" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF244" t="n">
-        <v>12</v>
       </c>
       <c r="AG244" t="n">
         <v>9</v>
@@ -28471,10 +28577,10 @@
         <v>21</v>
       </c>
       <c r="AI244" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ244" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="245">
@@ -28512,10 +28618,10 @@
         <v>1.8</v>
       </c>
       <c r="H245" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I245" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J245" t="n">
         <v>1.02</v>
@@ -28536,7 +28642,7 @@
         <v>2.5</v>
       </c>
       <c r="P245" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q245" t="n">
         <v>3.75</v>
@@ -28557,7 +28663,7 @@
         <v>8.5</v>
       </c>
       <c r="W245" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X245" t="n">
         <v>13</v>
@@ -28596,7 +28702,7 @@
         <v>26</v>
       </c>
       <c r="AJ245" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="246">
@@ -28753,13 +28859,13 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="H247" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I247" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="J247" t="n">
         <v>1.04</v>
@@ -28771,13 +28877,13 @@
         <v>1.24</v>
       </c>
       <c r="M247" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="N247" t="n">
         <v>1.72</v>
       </c>
       <c r="O247" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="P247" t="n">
         <v>1.36</v>
@@ -28789,58 +28895,58 @@
         <v>1.7</v>
       </c>
       <c r="S247" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T247" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U247" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V247" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W247" t="n">
+        <v>16</v>
+      </c>
+      <c r="X247" t="n">
         <v>14</v>
       </c>
-      <c r="X247" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Y247" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z247" t="n">
         <v>8.25</v>
       </c>
       <c r="AA247" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AB247" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC247" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD247" t="n">
         <v>400</v>
       </c>
       <c r="AE247" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AF247" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AG247" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH247" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AI247" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ247" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="248">
@@ -28902,10 +29008,10 @@
         <v>1.7</v>
       </c>
       <c r="P248" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q248" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R248" t="n">
         <v>1.83</v>
@@ -29024,7 +29130,7 @@
         <v>2.5</v>
       </c>
       <c r="P249" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q249" t="n">
         <v>3.75</v>
@@ -29122,16 +29228,16 @@
         <v>1.53</v>
       </c>
       <c r="H250" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I250" t="n">
         <v>5.25</v>
       </c>
       <c r="J250" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K250" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L250" t="n">
         <v>1.14</v>
@@ -29146,22 +29252,22 @@
         <v>2.5</v>
       </c>
       <c r="P250" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q250" t="n">
         <v>3.75</v>
       </c>
       <c r="R250" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S250" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T250" t="n">
+        <v>10</v>
+      </c>
+      <c r="U250" t="n">
         <v>9</v>
-      </c>
-      <c r="U250" t="n">
-        <v>8.5</v>
       </c>
       <c r="V250" t="n">
         <v>8.5</v>
@@ -29170,16 +29276,16 @@
         <v>12</v>
       </c>
       <c r="X250" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y250" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z250" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA250" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB250" t="n">
         <v>15</v>
@@ -29188,13 +29294,13 @@
         <v>41</v>
       </c>
       <c r="AD250" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE250" t="n">
         <v>19</v>
       </c>
       <c r="AF250" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG250" t="n">
         <v>17</v>
@@ -29206,7 +29312,7 @@
         <v>41</v>
       </c>
       <c r="AJ250" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="251">
@@ -29268,7 +29374,7 @@
         <v>4.2</v>
       </c>
       <c r="P251" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Q251" t="n">
         <v>5.5</v>
@@ -29452,7 +29558,7 @@
         <v>2.1</v>
       </c>
       <c r="P253" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q253" t="n">
         <v>3.25</v>
@@ -30401,90 +30507,90 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="H261" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="I261" t="n">
-        <v>2.95</v>
+        <v>3.55</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M261" t="n">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="N261" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="O261" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="P261" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q261" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="R261" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S261" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T261" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="U261" t="n">
-        <v>9.199999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="V261" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="W261" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X261" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y261" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z261" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA261" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB261" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AC261" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD261" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AE261" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AF261" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AG261" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AH261" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AI261" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AJ261" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="262">
@@ -30519,13 +30625,13 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H262" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I262" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J262" t="n">
         <v>1.11</v>
@@ -30534,79 +30640,79 @@
         <v>5.8</v>
       </c>
       <c r="L262" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M262" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="N262" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="O262" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="P262" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q262" t="n">
-        <v>2.28</v>
+        <v>2.15</v>
       </c>
       <c r="R262" t="n">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="S262" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="T262" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="U262" t="n">
-        <v>8.4</v>
+        <v>9.5</v>
       </c>
       <c r="V262" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="W262" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X262" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y262" t="n">
         <v>45</v>
       </c>
       <c r="Z262" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AA262" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB262" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC262" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AD262" t="n">
         <v>101</v>
       </c>
       <c r="AE262" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="AF262" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AG262" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH262" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI262" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ262" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263">
@@ -30641,90 +30747,90 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H263" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="I263" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M263" t="n">
-        <v>2.65</v>
+        <v>2.27</v>
       </c>
       <c r="N263" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="O263" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="P263" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q263" t="n">
-        <v>2.39</v>
+        <v>2.2</v>
       </c>
       <c r="R263" t="n">
         <v>2.02</v>
       </c>
       <c r="S263" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="T263" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="U263" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V263" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="W263" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="X263" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y263" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z263" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AA263" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="AB263" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AC263" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AD263" t="n">
         <v>101</v>
       </c>
       <c r="AE263" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AF263" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG263" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AH263" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI263" t="n">
         <v>26</v>
       </c>
-      <c r="AI263" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ263" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264">
@@ -30758,36 +30864,88 @@
           <t>Al Sharjah</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
+      <c r="G264" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H264" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I264" t="n">
+        <v>3.35</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="inlineStr"/>
-      <c r="N264" t="inlineStr"/>
-      <c r="O264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M264" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N264" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1.95</v>
+      </c>
       <c r="P264" t="inlineStr"/>
       <c r="Q264" t="inlineStr"/>
-      <c r="R264" t="inlineStr"/>
-      <c r="S264" t="inlineStr"/>
-      <c r="T264" t="inlineStr"/>
-      <c r="U264" t="inlineStr"/>
-      <c r="V264" t="inlineStr"/>
-      <c r="W264" t="inlineStr"/>
-      <c r="X264" t="inlineStr"/>
-      <c r="Y264" t="inlineStr"/>
-      <c r="Z264" t="inlineStr"/>
-      <c r="AA264" t="inlineStr"/>
-      <c r="AB264" t="inlineStr"/>
-      <c r="AC264" t="inlineStr"/>
-      <c r="AD264" t="inlineStr"/>
-      <c r="AE264" t="inlineStr"/>
-      <c r="AF264" t="inlineStr"/>
-      <c r="AG264" t="inlineStr"/>
-      <c r="AH264" t="inlineStr"/>
-      <c r="AI264" t="inlineStr"/>
-      <c r="AJ264" t="inlineStr"/>
+      <c r="R264" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S264" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T264" t="n">
+        <v>7</v>
+      </c>
+      <c r="U264" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="V264" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W264" t="n">
+        <v>16</v>
+      </c>
+      <c r="X264" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -30820,36 +30978,88 @@
           <t>Al Jazira</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
+      <c r="G265" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H265" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I265" t="n">
+        <v>3.85</v>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="inlineStr"/>
-      <c r="N265" t="inlineStr"/>
-      <c r="O265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M265" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="N265" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O265" t="n">
+        <v>2.75</v>
+      </c>
       <c r="P265" t="inlineStr"/>
       <c r="Q265" t="inlineStr"/>
-      <c r="R265" t="inlineStr"/>
-      <c r="S265" t="inlineStr"/>
-      <c r="T265" t="inlineStr"/>
-      <c r="U265" t="inlineStr"/>
-      <c r="V265" t="inlineStr"/>
-      <c r="W265" t="inlineStr"/>
-      <c r="X265" t="inlineStr"/>
-      <c r="Y265" t="inlineStr"/>
-      <c r="Z265" t="inlineStr"/>
-      <c r="AA265" t="inlineStr"/>
-      <c r="AB265" t="inlineStr"/>
-      <c r="AC265" t="inlineStr"/>
-      <c r="AD265" t="inlineStr"/>
-      <c r="AE265" t="inlineStr"/>
-      <c r="AF265" t="inlineStr"/>
-      <c r="AG265" t="inlineStr"/>
-      <c r="AH265" t="inlineStr"/>
-      <c r="AI265" t="inlineStr"/>
-      <c r="AJ265" t="inlineStr"/>
+      <c r="R265" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S265" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T265" t="n">
+        <v>11</v>
+      </c>
+      <c r="U265" t="n">
+        <v>10</v>
+      </c>
+      <c r="V265" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W265" t="n">
+        <v>14</v>
+      </c>
+      <c r="X265" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -31520,7 +31730,7 @@
         <v>2.2</v>
       </c>
       <c r="P271" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q271" t="n">
         <v>3.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-04.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -716,7 +716,7 @@
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1522,10 +1522,10 @@
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P9" t="n">
         <v>1.25</v>
@@ -1564,7 +1564,7 @@
         <v>8.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
@@ -1644,10 +1644,10 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O10" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H13" t="n">
         <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
         <v>1.03</v>
@@ -2034,7 +2034,7 @@
         <v>15</v>
       </c>
       <c r="V13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W13" t="n">
         <v>23</v>
@@ -2073,7 +2073,7 @@
         <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
         <v>23</v>
@@ -2126,16 +2126,16 @@
         <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N14" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O14" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P14" t="n">
         <v>1.4</v>
@@ -2355,19 +2355,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J16" t="n">
         <v>1.06</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.3</v>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H21" t="n">
         <v>5.75</v>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
@@ -3582,10 +3582,10 @@
         <v>3.4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.53</v>
@@ -3716,10 +3716,10 @@
         <v>2.5</v>
       </c>
       <c r="N27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P27" t="n">
         <v>1.53</v>
@@ -4183,19 +4183,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
         <v>2.75</v>
       </c>
       <c r="I31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J31" t="n">
         <v>1.17</v>
       </c>
       <c r="K31" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
         <v>1.73</v>
@@ -4228,10 +4228,10 @@
         <v>13</v>
       </c>
       <c r="V31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X31" t="n">
         <v>41</v>
@@ -4255,19 +4255,19 @@
         <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ31" t="n">
         <v>51</v>
@@ -5037,19 +5037,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H38" t="n">
         <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K38" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L38" t="n">
         <v>1.1</v>
@@ -5058,10 +5058,10 @@
         <v>7</v>
       </c>
       <c r="N38" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="O38" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P38" t="n">
         <v>1.18</v>
@@ -5070,10 +5070,10 @@
         <v>4.5</v>
       </c>
       <c r="R38" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S38" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T38" t="n">
         <v>13</v>
@@ -5085,7 +5085,7 @@
         <v>9</v>
       </c>
       <c r="W38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X38" t="n">
         <v>11</v>
@@ -5097,7 +5097,7 @@
         <v>26</v>
       </c>
       <c r="AA38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB38" t="n">
         <v>13</v>
@@ -5106,7 +5106,7 @@
         <v>34</v>
       </c>
       <c r="AD38" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="n">
         <v>26</v>
@@ -5118,13 +5118,13 @@
         <v>19</v>
       </c>
       <c r="AH38" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -5159,19 +5159,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H39" t="n">
         <v>3.2</v>
       </c>
       <c r="I39" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J39" t="n">
         <v>1.06</v>
       </c>
       <c r="K39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.3</v>
@@ -5207,7 +5207,7 @@
         <v>10</v>
       </c>
       <c r="W39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X39" t="n">
         <v>21</v>
@@ -5534,28 +5534,28 @@
         <v>4.2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L42" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N42" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="O42" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="P42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R42" t="n">
         <v>1.67</v>
@@ -5567,7 +5567,7 @@
         <v>8.5</v>
       </c>
       <c r="U42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
@@ -5579,13 +5579,13 @@
         <v>13</v>
       </c>
       <c r="Y42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA42" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB42" t="n">
         <v>13</v>
@@ -5603,7 +5603,7 @@
         <v>23</v>
       </c>
       <c r="AG42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH42" t="n">
         <v>41</v>
@@ -5768,36 +5768,84 @@
           <t>Sumqayit</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>20</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="N44" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2.4</v>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T44" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U44" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>13</v>
+      </c>
+      <c r="W44" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X44" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>400</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5830,36 +5878,92 @@
           <t>Kapaz</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.55</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="inlineStr"/>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T45" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U45" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="V45" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6505,13 +6609,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="H52" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
         <v>1.03</v>
@@ -6520,22 +6624,22 @@
         <v>15</v>
       </c>
       <c r="L52" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M52" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N52" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P52" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q52" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R52" t="n">
         <v>1.73</v>
@@ -6544,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="T52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U52" t="n">
         <v>8</v>
@@ -6553,40 +6657,40 @@
         <v>8.5</v>
       </c>
       <c r="W52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X52" t="n">
         <v>12</v>
       </c>
       <c r="Y52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z52" t="n">
         <v>15</v>
       </c>
       <c r="AA52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC52" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD52" t="n">
         <v>201</v>
       </c>
       <c r="AE52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI52" t="n">
         <v>41</v>
@@ -6998,10 +7102,10 @@
         <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O56" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P56" t="n">
         <v>1.44</v>
@@ -7587,19 +7691,19 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="H61" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
       <c r="J61" t="n">
         <v>1.11</v>
       </c>
       <c r="K61" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L61" t="n">
         <v>1.5</v>
@@ -7614,67 +7718,67 @@
         <v>1.5</v>
       </c>
       <c r="P61" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R61" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="S61" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T61" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="U61" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="V61" t="n">
         <v>9</v>
       </c>
       <c r="W61" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="X61" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB61" t="n">
         <v>19</v>
       </c>
-      <c r="Y61" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>20</v>
-      </c>
       <c r="AC61" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD61" t="n">
         <v>101</v>
       </c>
       <c r="AE61" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AF61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG61" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH61" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI61" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ61" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62">
@@ -7852,10 +7956,10 @@
         <v>3.5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O63" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P63" t="n">
         <v>1.36</v>
@@ -8982,36 +9086,92 @@
           <t>Qingdao Red Lions</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.72</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="inlineStr"/>
-      <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T73" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U73" t="n">
+        <v>13</v>
+      </c>
+      <c r="V73" t="n">
+        <v>10</v>
+      </c>
+      <c r="W73" t="n">
+        <v>32</v>
+      </c>
+      <c r="X73" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9044,36 +9204,92 @@
           <t>Guangdong GZ-Power</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.52</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
-      <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="inlineStr"/>
-      <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="inlineStr"/>
-      <c r="AH74" t="inlineStr"/>
-      <c r="AI74" t="inlineStr"/>
-      <c r="AJ74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T74" t="n">
+        <v>7</v>
+      </c>
+      <c r="U74" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W74" t="n">
+        <v>32</v>
+      </c>
+      <c r="X74" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9363,7 +9579,7 @@
         <v>1.08</v>
       </c>
       <c r="K77" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L77" t="n">
         <v>1.4</v>
@@ -9726,10 +9942,10 @@
         <v>1.48</v>
       </c>
       <c r="J80" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L80" t="n">
         <v>1.29</v>
@@ -10205,37 +10421,37 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="H84" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I84" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="J84" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L84" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M84" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N84" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O84" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P84" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R84" t="n">
         <v>1.91</v>
@@ -10244,25 +10460,25 @@
         <v>1.8</v>
       </c>
       <c r="T84" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="U84" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V84" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W84" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X84" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y84" t="n">
         <v>41</v>
       </c>
       <c r="Z84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA84" t="n">
         <v>6.5</v>
@@ -10274,25 +10490,25 @@
         <v>51</v>
       </c>
       <c r="AD84" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="AE84" t="n">
         <v>7</v>
       </c>
       <c r="AF84" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG84" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ84" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
@@ -11301,13 +11517,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H93" t="n">
         <v>3.2</v>
       </c>
       <c r="I93" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J93" t="n">
         <v>1.07</v>
@@ -11340,16 +11556,16 @@
         <v>1.83</v>
       </c>
       <c r="T93" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U93" t="n">
+        <v>11</v>
+      </c>
+      <c r="V93" t="n">
         <v>10</v>
       </c>
-      <c r="V93" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X93" t="n">
         <v>21</v>
@@ -11370,25 +11586,25 @@
         <v>51</v>
       </c>
       <c r="AD93" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE93" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG93" t="n">
         <v>11</v>
       </c>
       <c r="AH93" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ93" t="n">
         <v>34</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="94">
@@ -11566,10 +11782,10 @@
         <v>3.75</v>
       </c>
       <c r="N95" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O95" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P95" t="n">
         <v>1.36</v>
@@ -12033,10 +12249,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I99" t="n">
         <v>4.2</v>
@@ -12045,37 +12261,37 @@
         <v>1.03</v>
       </c>
       <c r="K99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L99" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M99" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N99" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R99" t="n">
         <v>1.67</v>
       </c>
-      <c r="O99" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P99" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R99" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S99" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T99" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U99" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V99" t="n">
         <v>8.5</v>
@@ -12102,10 +12318,10 @@
         <v>41</v>
       </c>
       <c r="AD99" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE99" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF99" t="n">
         <v>23</v>
@@ -12643,91 +12859,91 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="H104" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I104" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="J104" t="n">
         <v>1.08</v>
       </c>
       <c r="K104" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="L104" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M104" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="N104" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O104" t="n">
         <v>1.65</v>
       </c>
       <c r="P104" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="R104" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="S104" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T104" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U104" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V104" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="W104" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="X104" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y104" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Z104" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AA104" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AB104" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC104" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD104" t="n">
         <v>101</v>
       </c>
       <c r="AE104" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AF104" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AG104" t="n">
         <v>8.25</v>
       </c>
       <c r="AH104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI104" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ104" t="n">
         <v>35</v>
@@ -12765,37 +12981,37 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="H105" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I105" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="J105" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K105" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="L105" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M105" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N105" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O105" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="P105" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="R105" t="n">
         <v>2.42</v>
@@ -12804,49 +13020,49 @@
         <v>1.5</v>
       </c>
       <c r="T105" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="U105" t="n">
         <v>5.2</v>
       </c>
       <c r="V105" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W105" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="X105" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y105" t="n">
         <v>40</v>
       </c>
       <c r="Z105" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AA105" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AB105" t="n">
         <v>30</v>
       </c>
       <c r="AC105" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AD105" t="n">
         <v>101</v>
       </c>
       <c r="AE105" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AF105" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG105" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH105" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AI105" t="n">
         <v>200</v>
@@ -12887,86 +13103,86 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="H106" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I106" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M106" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="N106" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="O106" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S106" t="n">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="T106" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="U106" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V106" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="W106" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X106" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y106" t="n">
         <v>28</v>
       </c>
       <c r="Z106" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA106" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="AB106" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC106" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD106" t="n">
         <v>200</v>
       </c>
       <c r="AE106" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AF106" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AG106" t="n">
         <v>6.9</v>
       </c>
       <c r="AH106" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI106" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AJ106" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="107">
@@ -13014,7 +13230,7 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="O107" t="n">
         <v>2.46</v>
@@ -13022,10 +13238,10 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S107" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -13111,65 +13327,65 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H108" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I108" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M108" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N108" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O108" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S108" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T108" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="U108" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="V108" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="W108" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="X108" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Y108" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Z108" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA108" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB108" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC108" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD108" t="n">
         <v>350</v>
@@ -13178,16 +13394,16 @@
         <v>8.25</v>
       </c>
       <c r="AF108" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG108" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH108" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI108" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>12</v>
       </c>
       <c r="AJ108" t="n">
         <v>22</v>
@@ -13347,13 +13563,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H110" t="n">
         <v>3.6</v>
       </c>
       <c r="I110" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J110" t="n">
         <v>1.02</v>
@@ -13422,7 +13638,7 @@
         <v>15</v>
       </c>
       <c r="AF110" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG110" t="n">
         <v>11</v>
@@ -13472,10 +13688,10 @@
         <v>3.9</v>
       </c>
       <c r="H111" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I111" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J111" t="n">
         <v>1.03</v>
@@ -13502,16 +13718,16 @@
         <v>3.5</v>
       </c>
       <c r="R111" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S111" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
       </c>
       <c r="U111" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V111" t="n">
         <v>13</v>
@@ -13520,7 +13736,7 @@
         <v>41</v>
       </c>
       <c r="X111" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y111" t="n">
         <v>29</v>
@@ -13529,13 +13745,13 @@
         <v>15</v>
       </c>
       <c r="AA111" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB111" t="n">
         <v>12</v>
       </c>
       <c r="AC111" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD111" t="n">
         <v>126</v>
@@ -14761,13 +14977,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H122" t="n">
         <v>3.5</v>
       </c>
       <c r="I122" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J122" t="n">
         <v>1.05</v>
@@ -14803,10 +15019,10 @@
         <v>7.5</v>
       </c>
       <c r="U122" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V122" t="n">
         <v>9</v>
-      </c>
-      <c r="V122" t="n">
-        <v>8.5</v>
       </c>
       <c r="W122" t="n">
         <v>17</v>
@@ -14821,7 +15037,7 @@
         <v>11</v>
       </c>
       <c r="AA122" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB122" t="n">
         <v>15</v>
@@ -14833,10 +15049,10 @@
         <v>201</v>
       </c>
       <c r="AE122" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF122" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG122" t="n">
         <v>13</v>
@@ -14848,7 +15064,7 @@
         <v>29</v>
       </c>
       <c r="AJ122" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
@@ -15005,90 +15221,94 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="H124" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I124" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>2.92</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K124" t="n">
+        <v>8.25</v>
+      </c>
       <c r="L124" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M124" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="N124" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="O124" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="P124" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Q124" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R124" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S124" t="n">
         <v>2.32</v>
       </c>
       <c r="T124" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="U124" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="V124" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="W124" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X124" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y124" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z124" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="AA124" t="n">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB124" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="AC124" t="n">
         <v>40</v>
       </c>
       <c r="AD124" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AE124" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="AF124" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG124" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AH124" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AI124" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ124" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
@@ -15123,94 +15343,94 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="H125" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I125" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="J125" t="n">
         <v>1.03</v>
       </c>
       <c r="K125" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="L125" t="n">
         <v>1.14</v>
       </c>
       <c r="M125" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="N125" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="O125" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="P125" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q125" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="R125" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S125" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="T125" t="n">
         <v>13</v>
       </c>
       <c r="U125" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="V125" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W125" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="X125" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y125" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Z125" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA125" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AB125" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC125" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AD125" t="n">
         <v>150</v>
       </c>
       <c r="AE125" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF125" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AG125" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH125" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AI125" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ125" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="126">
@@ -15245,90 +15465,94 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H126" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I126" t="n">
         <v>2.05</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K126" t="n">
+        <v>10</v>
+      </c>
       <c r="L126" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="M126" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="N126" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="O126" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P126" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q126" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="R126" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S126" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="T126" t="n">
+        <v>16</v>
+      </c>
+      <c r="U126" t="n">
+        <v>21</v>
+      </c>
+      <c r="V126" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W126" t="n">
+        <v>40</v>
+      </c>
+      <c r="X126" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE126" t="n">
         <v>14</v>
       </c>
-      <c r="U126" t="n">
-        <v>18</v>
-      </c>
-      <c r="V126" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="W126" t="n">
-        <v>35</v>
-      </c>
-      <c r="X126" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y126" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z126" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA126" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC126" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD126" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE126" t="n">
-        <v>12</v>
-      </c>
       <c r="AF126" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AG126" t="n">
-        <v>7.8</v>
+        <v>9.25</v>
       </c>
       <c r="AH126" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI126" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127">
@@ -15481,59 +15705,59 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="H128" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I128" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M128" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N128" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O128" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S128" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="T128" t="n">
         <v>8.25</v>
       </c>
       <c r="U128" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="V128" t="n">
         <v>8.25</v>
       </c>
       <c r="W128" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="X128" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y128" t="n">
         <v>22</v>
       </c>
       <c r="Z128" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA128" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AB128" t="n">
         <v>13</v>
@@ -15545,13 +15769,13 @@
         <v>350</v>
       </c>
       <c r="AE128" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF128" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG128" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH128" t="n">
         <v>60</v>
@@ -15717,19 +15941,19 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H130" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I130" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J130" t="n">
         <v>1.08</v>
       </c>
       <c r="K130" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L130" t="n">
         <v>1.4</v>
@@ -15738,10 +15962,10 @@
         <v>2.75</v>
       </c>
       <c r="N130" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O130" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P130" t="n">
         <v>1.5</v>
@@ -15756,13 +15980,13 @@
         <v>1.8</v>
       </c>
       <c r="T130" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U130" t="n">
         <v>15</v>
       </c>
       <c r="V130" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W130" t="n">
         <v>34</v>
@@ -15848,10 +16072,10 @@
         <v>2.7</v>
       </c>
       <c r="J131" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K131" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L131" t="n">
         <v>1.44</v>
@@ -16452,10 +16676,10 @@
         <v>3.5</v>
       </c>
       <c r="H136" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I136" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J136" t="n">
         <v>1.1</v>
@@ -16488,7 +16712,7 @@
         <v>1.8</v>
       </c>
       <c r="T136" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U136" t="n">
         <v>15</v>
@@ -16518,13 +16742,13 @@
         <v>51</v>
       </c>
       <c r="AD136" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE136" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG136" t="n">
         <v>10</v>
@@ -16577,13 +16801,13 @@
         <v>3.1</v>
       </c>
       <c r="I137" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J137" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K137" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L137" t="n">
         <v>1.25</v>
@@ -16592,10 +16816,10 @@
         <v>3.75</v>
       </c>
       <c r="N137" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O137" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P137" t="n">
         <v>1.36</v>
@@ -16604,10 +16828,10 @@
         <v>3</v>
       </c>
       <c r="R137" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S137" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T137" t="n">
         <v>8.5</v>
@@ -16702,10 +16926,10 @@
         <v>4.75</v>
       </c>
       <c r="J138" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K138" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L138" t="n">
         <v>1.36</v>
@@ -16726,10 +16950,10 @@
         <v>2.63</v>
       </c>
       <c r="R138" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S138" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T138" t="n">
         <v>6</v>
@@ -16821,25 +17045,25 @@
         <v>2.88</v>
       </c>
       <c r="I139" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J139" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K139" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L139" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M139" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N139" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O139" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="P139" t="n">
         <v>1.36</v>
@@ -16896,7 +17120,7 @@
         <v>11</v>
       </c>
       <c r="AH139" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI139" t="n">
         <v>21</v>
@@ -17229,7 +17453,7 @@
         <v>9.25</v>
       </c>
       <c r="W142" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X142" t="n">
         <v>19</v>
@@ -17247,13 +17471,13 @@
         <v>20</v>
       </c>
       <c r="AC142" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD142" t="n">
         <v>1000</v>
       </c>
       <c r="AE142" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF142" t="n">
         <v>18.5</v>
@@ -17309,7 +17533,7 @@
         <v>3.5</v>
       </c>
       <c r="I143" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="J143" t="n">
         <v>1.07</v>
@@ -17333,7 +17557,7 @@
         <v>1.44</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R143" t="n">
         <v>1.93</v>
@@ -17342,10 +17566,10 @@
         <v>1.78</v>
       </c>
       <c r="T143" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U143" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="V143" t="n">
         <v>8.25</v>
@@ -17357,7 +17581,7 @@
         <v>14</v>
       </c>
       <c r="Y143" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z143" t="n">
         <v>7</v>
@@ -17366,7 +17590,7 @@
         <v>6.9</v>
       </c>
       <c r="AB143" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC143" t="n">
         <v>90</v>
@@ -17375,10 +17599,10 @@
         <v>800</v>
       </c>
       <c r="AE143" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF143" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG143" t="n">
         <v>16</v>
@@ -17387,10 +17611,10 @@
         <v>90</v>
       </c>
       <c r="AI143" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ143" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144">
@@ -17452,7 +17676,7 @@
         <v>1.72</v>
       </c>
       <c r="P144" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q144" t="n">
         <v>2.57</v>
@@ -17464,10 +17688,10 @@
         <v>1.8</v>
       </c>
       <c r="T144" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U144" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="V144" t="n">
         <v>8.25</v>
@@ -17476,10 +17700,10 @@
         <v>14</v>
       </c>
       <c r="X144" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y144" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z144" t="n">
         <v>6.9</v>
@@ -17491,13 +17715,13 @@
         <v>16.5</v>
       </c>
       <c r="AC144" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD144" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE144" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF144" t="n">
         <v>24</v>
@@ -17681,7 +17905,7 @@
         <v>1.09</v>
       </c>
       <c r="K146" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="L146" t="n">
         <v>1.39</v>
@@ -17708,55 +17932,55 @@
         <v>1.85</v>
       </c>
       <c r="T146" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="U146" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="V146" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W146" t="n">
         <v>23</v>
       </c>
       <c r="X146" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y146" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z146" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AA146" t="n">
         <v>5.9</v>
       </c>
       <c r="AB146" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC146" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD146" t="n">
         <v>700</v>
       </c>
       <c r="AE146" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF146" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG146" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH146" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ146" t="n">
         <v>45</v>
-      </c>
-      <c r="AI146" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ146" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="147">
@@ -17791,19 +18015,19 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H147" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I147" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="J147" t="n">
         <v>1.08</v>
       </c>
       <c r="K147" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L147" t="n">
         <v>1.35</v>
@@ -17833,34 +18057,34 @@
         <v>8.25</v>
       </c>
       <c r="U147" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V147" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W147" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X147" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y147" t="n">
         <v>32</v>
       </c>
       <c r="Z147" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA147" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB147" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC147" t="n">
         <v>65</v>
       </c>
       <c r="AD147" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE147" t="n">
         <v>7.8</v>
@@ -17869,13 +18093,13 @@
         <v>12.5</v>
       </c>
       <c r="AG147" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH147" t="n">
         <v>29</v>
       </c>
       <c r="AI147" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ147" t="n">
         <v>32</v>
@@ -17934,10 +18158,10 @@
         <v>2.6</v>
       </c>
       <c r="N148" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="O148" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P148" t="n">
         <v>1.53</v>
@@ -17946,13 +18170,13 @@
         <v>2.35</v>
       </c>
       <c r="R148" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S148" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T148" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U148" t="n">
         <v>9.75</v>
@@ -17964,7 +18188,7 @@
         <v>21</v>
       </c>
       <c r="X148" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y148" t="n">
         <v>37</v>
@@ -17985,10 +18209,10 @@
         <v>800</v>
       </c>
       <c r="AE148" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF148" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG148" t="n">
         <v>11.75</v>
@@ -18000,7 +18224,7 @@
         <v>32</v>
       </c>
       <c r="AJ148" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149">
@@ -18035,86 +18259,86 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="H149" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I149" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M149" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="N149" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="O149" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S149" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="T149" t="n">
         <v>9</v>
       </c>
       <c r="U149" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="V149" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="W149" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="X149" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y149" t="n">
         <v>22</v>
       </c>
-      <c r="Y149" t="n">
-        <v>27</v>
-      </c>
       <c r="Z149" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AA149" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="AB149" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC149" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AD149" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AE149" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AF149" t="n">
-        <v>8.199999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="AG149" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AH149" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AI149" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AJ149" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150">
@@ -18149,90 +18373,90 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H150" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I150" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M150" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N150" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="O150" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P150" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="R150" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="S150" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T150" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="U150" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V150" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W150" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="X150" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y150" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z150" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="AA150" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB150" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC150" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD150" t="n">
         <v>500</v>
       </c>
       <c r="AE150" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF150" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AG150" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH150" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI150" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ150" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151">
@@ -18542,7 +18766,7 @@
         <v>1.98</v>
       </c>
       <c r="T153" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U153" t="n">
         <v>11.5</v>
@@ -18575,10 +18799,10 @@
         <v>450</v>
       </c>
       <c r="AE153" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF153" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG153" t="n">
         <v>10.5</v>
@@ -18587,10 +18811,10 @@
         <v>37</v>
       </c>
       <c r="AI153" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ153" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154">
@@ -19184,34 +19408,34 @@
         <v>1.65</v>
       </c>
       <c r="H162" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I162" t="n">
         <v>4.5</v>
       </c>
       <c r="J162" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K162" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L162" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="M162" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N162" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="O162" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P162" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q162" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R162" t="n">
         <v>1.62</v>
@@ -19220,10 +19444,10 @@
         <v>2.2</v>
       </c>
       <c r="T162" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U162" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V162" t="n">
         <v>8.5</v>
@@ -19684,16 +19908,16 @@
         <v>19</v>
       </c>
       <c r="L166" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M166" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N166" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O166" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P166" t="n">
         <v>1.25</v>
@@ -19922,13 +20146,13 @@
         <v>4.33</v>
       </c>
       <c r="J168" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K168" t="n">
         <v>6</v>
       </c>
       <c r="L168" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M168" t="n">
         <v>2.5</v>
@@ -20044,16 +20268,16 @@
         <v>5.25</v>
       </c>
       <c r="J169" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K169" t="n">
         <v>7.5</v>
       </c>
       <c r="L169" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M169" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N169" t="n">
         <v>2.35</v>
@@ -20216,7 +20440,7 @@
         <v>6</v>
       </c>
       <c r="AB170" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC170" t="n">
         <v>120</v>
@@ -20226,10 +20450,10 @@
         <v>7</v>
       </c>
       <c r="AF170" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG170" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH170" t="n">
         <v>40</v>
@@ -20272,36 +20496,92 @@
           <t>Tacuary</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H171" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I171" t="n">
+        <v>2.33</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr"/>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="inlineStr"/>
-      <c r="T171" t="inlineStr"/>
-      <c r="U171" t="inlineStr"/>
-      <c r="V171" t="inlineStr"/>
-      <c r="W171" t="inlineStr"/>
-      <c r="X171" t="inlineStr"/>
-      <c r="Y171" t="inlineStr"/>
-      <c r="Z171" t="inlineStr"/>
-      <c r="AA171" t="inlineStr"/>
-      <c r="AB171" t="inlineStr"/>
-      <c r="AC171" t="inlineStr"/>
-      <c r="AD171" t="inlineStr"/>
-      <c r="AE171" t="inlineStr"/>
-      <c r="AF171" t="inlineStr"/>
-      <c r="AG171" t="inlineStr"/>
-      <c r="AH171" t="inlineStr"/>
-      <c r="AI171" t="inlineStr"/>
-      <c r="AJ171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N171" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P171" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S171" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T171" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U171" t="n">
+        <v>11</v>
+      </c>
+      <c r="V171" t="n">
+        <v>9</v>
+      </c>
+      <c r="W171" t="n">
+        <v>30</v>
+      </c>
+      <c r="X171" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -20701,19 +20981,19 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I175" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J175" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K175" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L175" t="n">
         <v>1.44</v>
@@ -20722,16 +21002,16 @@
         <v>2.63</v>
       </c>
       <c r="N175" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O175" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P175" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q175" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R175" t="n">
         <v>2.05</v>
@@ -20743,25 +21023,25 @@
         <v>6</v>
       </c>
       <c r="U175" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V175" t="n">
         <v>9.5</v>
       </c>
       <c r="W175" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X175" t="n">
         <v>21</v>
       </c>
       <c r="Y175" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z175" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA175" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB175" t="n">
         <v>17</v>
@@ -20770,7 +21050,7 @@
         <v>67</v>
       </c>
       <c r="AD175" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE175" t="n">
         <v>8.5</v>
@@ -21445,13 +21725,13 @@
         <v>1.06</v>
       </c>
       <c r="K181" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L181" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M181" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N181" t="n">
         <v>2.05</v>
@@ -21576,10 +21856,10 @@
         <v>3.25</v>
       </c>
       <c r="N182" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O182" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P182" t="n">
         <v>1.44</v>
@@ -23361,94 +23641,94 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H198" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I198" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="J198" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K198" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L198" t="n">
         <v>1.47</v>
       </c>
       <c r="M198" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="N198" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O198" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P198" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Q198" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="R198" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S198" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T198" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U198" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V198" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="W198" t="n">
         <v>25</v>
       </c>
       <c r="X198" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y198" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z198" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AA198" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB198" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC198" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD198" t="n">
         <v>900</v>
       </c>
       <c r="AE198" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AF198" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AG198" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH198" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI198" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ198" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199">
@@ -24107,7 +24387,7 @@
         <v>3</v>
       </c>
       <c r="I208" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J208" t="n">
         <v>1.08</v>
@@ -24164,7 +24444,7 @@
         <v>5.9</v>
       </c>
       <c r="AB208" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC208" t="n">
         <v>65</v>
@@ -24176,7 +24456,7 @@
         <v>9.25</v>
       </c>
       <c r="AF208" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG208" t="n">
         <v>11.5</v>
@@ -24589,13 +24869,13 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="H212" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I212" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J212" t="n">
         <v>1.01</v>
@@ -24604,46 +24884,46 @@
         <v>34</v>
       </c>
       <c r="L212" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="M212" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N212" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="O212" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P212" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Q212" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="R212" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="S212" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="T212" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U212" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V212" t="n">
         <v>11</v>
       </c>
       <c r="W212" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X212" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y212" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z212" t="n">
         <v>34</v>
@@ -24652,13 +24932,13 @@
         <v>17</v>
       </c>
       <c r="AB212" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC212" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AD212" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE212" t="n">
         <v>41</v>
@@ -24670,13 +24950,13 @@
         <v>23</v>
       </c>
       <c r="AH212" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI212" t="n">
         <v>41</v>
       </c>
       <c r="AJ212" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213">
@@ -25321,19 +25601,19 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H218" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I218" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J218" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K218" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L218" t="n">
         <v>1.29</v>
@@ -25342,16 +25622,16 @@
         <v>3.5</v>
       </c>
       <c r="N218" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O218" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P218" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q218" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R218" t="n">
         <v>1.8</v>
@@ -25363,7 +25643,7 @@
         <v>11</v>
       </c>
       <c r="U218" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V218" t="n">
         <v>13</v>
@@ -25372,7 +25652,7 @@
         <v>41</v>
       </c>
       <c r="X218" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y218" t="n">
         <v>41</v>
@@ -25381,7 +25661,7 @@
         <v>10</v>
       </c>
       <c r="AA218" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB218" t="n">
         <v>15</v>
@@ -25396,16 +25676,16 @@
         <v>7.5</v>
       </c>
       <c r="AF218" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG218" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH218" t="n">
         <v>17</v>
       </c>
       <c r="AI218" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ218" t="n">
         <v>26</v>
@@ -26175,19 +26455,19 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H225" t="n">
         <v>3.4</v>
       </c>
       <c r="I225" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J225" t="n">
         <v>1.08</v>
       </c>
       <c r="K225" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L225" t="n">
         <v>1.44</v>
@@ -26196,10 +26476,10 @@
         <v>2.63</v>
       </c>
       <c r="N225" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O225" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P225" t="n">
         <v>1.5</v>
@@ -26214,7 +26494,7 @@
         <v>1.67</v>
       </c>
       <c r="T225" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U225" t="n">
         <v>17</v>
@@ -26232,13 +26512,13 @@
         <v>41</v>
       </c>
       <c r="Z225" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA225" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB225" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC225" t="n">
         <v>67</v>
@@ -26256,10 +26536,10 @@
         <v>9.5</v>
       </c>
       <c r="AH225" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI225" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ225" t="n">
         <v>34</v>
@@ -26541,31 +26821,31 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H228" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I228" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J228" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K228" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L228" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M228" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N228" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="O228" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="P228" t="n">
         <v>1.4</v>
@@ -26583,25 +26863,25 @@
         <v>7.5</v>
       </c>
       <c r="U228" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V228" t="n">
         <v>9</v>
       </c>
       <c r="W228" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X228" t="n">
         <v>17</v>
       </c>
       <c r="Y228" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z228" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA228" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB228" t="n">
         <v>15</v>
@@ -26610,13 +26890,13 @@
         <v>51</v>
       </c>
       <c r="AD228" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE228" t="n">
         <v>11</v>
       </c>
       <c r="AF228" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG228" t="n">
         <v>13</v>
@@ -26628,7 +26908,7 @@
         <v>29</v>
       </c>
       <c r="AJ228" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="229">
@@ -27166,16 +27446,16 @@
         <v>8</v>
       </c>
       <c r="L233" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M233" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N233" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="O233" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P233" t="n">
         <v>1.44</v>
@@ -27892,10 +28172,10 @@
         <v>2.45</v>
       </c>
       <c r="J239" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K239" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L239" t="n">
         <v>1.17</v>
@@ -28136,22 +28416,22 @@
         <v>1.6</v>
       </c>
       <c r="J241" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K241" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L241" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M241" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N241" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O241" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="P241" t="n">
         <v>1.33</v>
@@ -28371,13 +28651,13 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H243" t="n">
         <v>3.4</v>
       </c>
       <c r="I243" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J243" t="n">
         <v>1.04</v>
@@ -28404,10 +28684,10 @@
         <v>3.25</v>
       </c>
       <c r="R243" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S243" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T243" t="n">
         <v>10</v>
@@ -28419,31 +28699,31 @@
         <v>10</v>
       </c>
       <c r="W243" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X243" t="n">
         <v>19</v>
       </c>
       <c r="Y243" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z243" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB243" t="n">
         <v>12</v>
-      </c>
-      <c r="AA243" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB243" t="n">
-        <v>13</v>
       </c>
       <c r="AC243" t="n">
         <v>41</v>
       </c>
       <c r="AD243" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE243" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF243" t="n">
         <v>15</v>
@@ -28452,7 +28732,7 @@
         <v>10</v>
       </c>
       <c r="AH243" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI243" t="n">
         <v>21</v>
@@ -28493,10 +28773,10 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H244" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I244" t="n">
         <v>2.15</v>
@@ -28505,37 +28785,37 @@
         <v>1.03</v>
       </c>
       <c r="K244" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L244" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M244" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N244" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O244" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="P244" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q244" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R244" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S244" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T244" t="n">
         <v>13</v>
       </c>
       <c r="U244" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V244" t="n">
         <v>11</v>
@@ -28547,10 +28827,10 @@
         <v>21</v>
       </c>
       <c r="Y244" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z244" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA244" t="n">
         <v>7.5</v>
@@ -28562,7 +28842,7 @@
         <v>34</v>
       </c>
       <c r="AD244" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE244" t="n">
         <v>11</v>
@@ -28571,7 +28851,7 @@
         <v>13</v>
       </c>
       <c r="AG244" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH244" t="n">
         <v>21</v>
@@ -29775,13 +30055,13 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H255" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I255" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J255" t="n">
         <v>1.04</v>
@@ -29796,10 +30076,10 @@
         <v>3.75</v>
       </c>
       <c r="N255" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O255" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P255" t="n">
         <v>1.36</v>
@@ -29808,13 +30088,13 @@
         <v>3</v>
       </c>
       <c r="R255" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S255" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T255" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U255" t="n">
         <v>8</v>
@@ -29844,10 +30124,10 @@
         <v>51</v>
       </c>
       <c r="AD255" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE255" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF255" t="n">
         <v>23</v>
@@ -30141,19 +30421,19 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H258" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I258" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J258" t="n">
         <v>1.03</v>
       </c>
       <c r="K258" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L258" t="n">
         <v>1.17</v>
@@ -30174,19 +30454,19 @@
         <v>3.5</v>
       </c>
       <c r="R258" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S258" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T258" t="n">
         <v>21</v>
       </c>
       <c r="U258" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V258" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W258" t="n">
         <v>67</v>
@@ -30207,7 +30487,7 @@
         <v>17</v>
       </c>
       <c r="AC258" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD258" t="n">
         <v>201</v>
@@ -30216,7 +30496,7 @@
         <v>8.5</v>
       </c>
       <c r="AF258" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG258" t="n">
         <v>8.5</v>
@@ -30228,7 +30508,7 @@
         <v>11</v>
       </c>
       <c r="AJ258" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="259">
@@ -30507,90 +30787,90 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H261" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I261" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M261" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="N261" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="O261" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P261" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q261" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="R261" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S261" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T261" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="U261" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="V261" t="n">
         <v>8.75</v>
       </c>
       <c r="W261" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X261" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB261" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y261" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z261" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AA261" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB261" t="n">
-        <v>16</v>
-      </c>
       <c r="AC261" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AD261" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AE261" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF261" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG261" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH261" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ261" t="n">
         <v>55</v>
-      </c>
-      <c r="AI261" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ261" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="262">
@@ -30634,7 +30914,7 @@
         <v>3.35</v>
       </c>
       <c r="J262" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K262" t="n">
         <v>5.8</v>
@@ -30747,16 +31027,20 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="H263" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="I263" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>2.52</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K263" t="n">
+        <v>6</v>
+      </c>
       <c r="L263" t="n">
         <v>1.5</v>
       </c>
@@ -30776,61 +31060,61 @@
         <v>2.2</v>
       </c>
       <c r="R263" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S263" t="n">
         <v>1.62</v>
       </c>
       <c r="T263" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="U263" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="V263" t="n">
         <v>11.25</v>
       </c>
       <c r="W263" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X263" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y263" t="n">
         <v>50</v>
       </c>
       <c r="Z263" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA263" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AB263" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC263" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD263" t="n">
         <v>101</v>
       </c>
       <c r="AE263" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AF263" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AG263" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG263" t="n">
-        <v>10.25</v>
       </c>
       <c r="AH263" t="n">
         <v>27</v>
       </c>
       <c r="AI263" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ263" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="264">
@@ -30865,86 +31149,94 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="H264" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="I264" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>2.8</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K264" t="n">
+        <v>7.5</v>
+      </c>
       <c r="L264" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M264" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N264" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O264" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P264" t="inlineStr"/>
-      <c r="Q264" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="P264" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>2.75</v>
+      </c>
       <c r="R264" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="S264" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="T264" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="U264" t="n">
-        <v>8.6</v>
+        <v>11.25</v>
       </c>
       <c r="V264" t="n">
-        <v>7.2</v>
+        <v>9.25</v>
       </c>
       <c r="W264" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="X264" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="Y264" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Z264" t="n">
-        <v>8.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="AA264" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB264" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="AC264" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AD264" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AE264" t="n">
-        <v>9.199999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="AF264" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG264" t="n">
-        <v>9.4</v>
+        <v>10.25</v>
       </c>
       <c r="AH264" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI264" t="n">
         <v>23</v>
       </c>
       <c r="AJ264" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="265">
@@ -30979,86 +31271,94 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="H265" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I265" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>4.05</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K265" t="n">
+        <v>9.5</v>
+      </c>
       <c r="L265" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M265" t="n">
-        <v>5.8</v>
+        <v>4.85</v>
       </c>
       <c r="N265" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="O265" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="P265" t="inlineStr"/>
-      <c r="Q265" t="inlineStr"/>
+        <v>2.55</v>
+      </c>
+      <c r="P265" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>3.5</v>
+      </c>
       <c r="R265" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="S265" t="n">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="T265" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="U265" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="V265" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="W265" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X265" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="Y265" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="Z265" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AA265" t="n">
-        <v>6.4</v>
+        <v>8.75</v>
       </c>
       <c r="AB265" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AC265" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="AD265" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AE265" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF265" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AG265" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH265" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AI265" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AJ265" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="266">
@@ -31099,13 +31399,13 @@
         <v>3.4</v>
       </c>
       <c r="I266" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J266" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K266" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L266" t="n">
         <v>1.29</v>
@@ -31114,10 +31414,10 @@
         <v>3.5</v>
       </c>
       <c r="N266" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O266" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P266" t="n">
         <v>1.4</v>
@@ -31168,10 +31468,10 @@
         <v>13</v>
       </c>
       <c r="AF266" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG266" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH266" t="n">
         <v>51</v>
@@ -31587,37 +31887,37 @@
         <v>3.3</v>
       </c>
       <c r="I270" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J270" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K270" t="n">
+        <v>13</v>
+      </c>
+      <c r="L270" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M270" t="n">
+        <v>4</v>
+      </c>
+      <c r="N270" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O270" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P270" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q270" t="n">
         <v>3.25</v>
       </c>
-      <c r="J270" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K270" t="n">
-        <v>11</v>
-      </c>
-      <c r="L270" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M270" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N270" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O270" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="P270" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q270" t="n">
-        <v>3</v>
-      </c>
       <c r="R270" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S270" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T270" t="n">
         <v>9</v>
@@ -31638,7 +31938,7 @@
         <v>23</v>
       </c>
       <c r="Z270" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA270" t="n">
         <v>6.5</v>
@@ -31653,7 +31953,7 @@
         <v>151</v>
       </c>
       <c r="AE270" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF270" t="n">
         <v>17</v>
@@ -31846,10 +32146,10 @@
         <v>3</v>
       </c>
       <c r="N272" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O272" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P272" t="n">
         <v>1.47</v>
@@ -31876,10 +32176,10 @@
         <v>14</v>
       </c>
       <c r="X272" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y272" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z272" t="n">
         <v>6.7</v>
@@ -31888,7 +32188,7 @@
         <v>6.5</v>
       </c>
       <c r="AB272" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC272" t="n">
         <v>80</v>
@@ -31900,10 +32200,10 @@
         <v>11.5</v>
       </c>
       <c r="AF272" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG272" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH272" t="n">
         <v>90</v>
@@ -31986,7 +32286,7 @@
         <v>1.85</v>
       </c>
       <c r="T273" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U273" t="n">
         <v>17</v>
@@ -32028,10 +32328,10 @@
         <v>8.75</v>
       </c>
       <c r="AH273" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI273" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ273" t="n">
         <v>30</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-04.xlsx
@@ -650,46 +650,46 @@
         <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="O2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S2" t="n">
         <v>2.1</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.05</v>
-      </c>
       <c r="T2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
@@ -698,22 +698,22 @@
         <v>15</v>
       </c>
       <c r="X2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="n">
         <v>15</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>8.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="n">
         <v>201</v>
@@ -1150,10 +1150,10 @@
         <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N6" t="n">
         <v>2.1</v>
@@ -1400,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P8" t="n">
         <v>1.25</v>
@@ -1504,10 +1504,10 @@
         <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1564,7 +1564,7 @@
         <v>8.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>1.05</v>
@@ -1644,10 +1644,10 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1668,22 +1668,22 @@
         <v>12</v>
       </c>
       <c r="V10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W10" t="n">
         <v>21</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
         <v>11</v>
       </c>
       <c r="AA10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
@@ -1912,7 +1912,7 @@
         <v>17</v>
       </c>
       <c r="V12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W12" t="n">
         <v>34</v>
@@ -1924,7 +1924,7 @@
         <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
         <v>6.5</v>
@@ -1992,28 +1992,28 @@
         <v>2.45</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
         <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O13" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P13" t="n">
         <v>1.29</v>
@@ -2073,7 +2073,7 @@
         <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
         <v>23</v>
@@ -2111,43 +2111,43 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
         <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N14" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O14" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="P14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T14" t="n">
         <v>12</v>
@@ -2159,7 +2159,7 @@
         <v>15</v>
       </c>
       <c r="W14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X14" t="n">
         <v>34</v>
@@ -2168,25 +2168,25 @@
         <v>41</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA14" t="n">
         <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
         <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG14" t="n">
         <v>8.5</v>
@@ -2198,7 +2198,7 @@
         <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
         <v>3.75</v>
@@ -2492,10 +2492,10 @@
         <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>2.3</v>
@@ -2620,10 +2620,10 @@
         <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
         <v>1.33</v>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H21" t="n">
         <v>5.75</v>
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J22" t="n">
         <v>1.1</v>
@@ -3126,7 +3126,7 @@
         <v>1.57</v>
       </c>
       <c r="T22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U22" t="n">
         <v>7</v>
@@ -3150,7 +3150,7 @@
         <v>7</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
         <v>81</v>
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
@@ -3362,16 +3362,16 @@
         <v>2.38</v>
       </c>
       <c r="R24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T24" t="n">
         <v>6.5</v>
       </c>
       <c r="U24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V24" t="n">
         <v>10</v>
@@ -3404,7 +3404,7 @@
         <v>7.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
         <v>12</v>
@@ -4671,46 +4671,46 @@
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M35" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M35" t="n">
-        <v>2.1</v>
-      </c>
       <c r="N35" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U35" t="n">
         <v>8</v>
@@ -4722,28 +4722,28 @@
         <v>19</v>
       </c>
       <c r="X35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y35" t="n">
         <v>51</v>
       </c>
       <c r="Z35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA35" t="n">
         <v>6.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC35" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD35" t="n">
         <v>101</v>
       </c>
       <c r="AE35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF35" t="n">
         <v>19</v>
@@ -4755,10 +4755,10 @@
         <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36">
@@ -4793,43 +4793,43 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M36" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N36" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P36" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S36" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T36" t="n">
         <v>6</v>
@@ -4844,13 +4844,13 @@
         <v>23</v>
       </c>
       <c r="X36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y36" t="n">
         <v>41</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA36" t="n">
         <v>6.5</v>
@@ -4865,7 +4865,7 @@
         <v>101</v>
       </c>
       <c r="AE36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF36" t="n">
         <v>13</v>
@@ -4877,7 +4877,7 @@
         <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ36" t="n">
         <v>41</v>
@@ -4927,19 +4927,19 @@
         <v>1.03</v>
       </c>
       <c r="K37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L37" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N37" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O37" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="P37" t="n">
         <v>1.29</v>
@@ -5037,31 +5037,31 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I38" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J38" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L38" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="M38" t="n">
         <v>7</v>
       </c>
       <c r="N38" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O38" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P38" t="n">
         <v>1.18</v>
@@ -5109,13 +5109,13 @@
         <v>81</v>
       </c>
       <c r="AE38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH38" t="n">
         <v>51</v>
@@ -5168,22 +5168,22 @@
         <v>2.75</v>
       </c>
       <c r="J39" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L39" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M39" t="n">
         <v>3.4</v>
       </c>
       <c r="N39" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="O39" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="P39" t="n">
         <v>1.4</v>
@@ -5290,22 +5290,22 @@
         <v>1.95</v>
       </c>
       <c r="J40" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K40" t="n">
         <v>13</v>
       </c>
       <c r="L40" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M40" t="n">
         <v>3.75</v>
       </c>
       <c r="N40" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O40" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="P40" t="n">
         <v>1.36</v>
@@ -5412,22 +5412,22 @@
         <v>3.4</v>
       </c>
       <c r="J41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K41" t="n">
         <v>13</v>
       </c>
       <c r="L41" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O41" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P41" t="n">
         <v>1.33</v>
@@ -5546,10 +5546,10 @@
         <v>4.33</v>
       </c>
       <c r="N42" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O42" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P42" t="n">
         <v>1.3</v>
@@ -5653,13 +5653,13 @@
         <v>3.85</v>
       </c>
       <c r="I43" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="J43" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K43" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L43" t="n">
         <v>1.24</v>
@@ -5704,7 +5704,7 @@
         <v>24</v>
       </c>
       <c r="Z43" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA43" t="n">
         <v>7.5</v>
@@ -5882,75 +5882,75 @@
         <v>1.75</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I45" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M45" t="n">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="N45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R45" t="n">
         <v>1.93</v>
       </c>
-      <c r="O45" t="n">
+      <c r="S45" t="n">
         <v>1.7</v>
       </c>
-      <c r="P45" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.75</v>
-      </c>
       <c r="T45" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="U45" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="V45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>14</v>
+      </c>
+      <c r="X45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z45" t="n">
         <v>8.25</v>
-      </c>
-      <c r="W45" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X45" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>8.75</v>
       </c>
       <c r="AA45" t="n">
         <v>6.6</v>
       </c>
       <c r="AB45" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AD45" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AE45" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF45" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG45" t="n">
         <v>15</v>
@@ -6386,10 +6386,10 @@
         <v>5</v>
       </c>
       <c r="N50" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O50" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P50" t="n">
         <v>1.25</v>
@@ -6609,13 +6609,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J52" t="n">
         <v>1.03</v>
@@ -6624,22 +6624,22 @@
         <v>15</v>
       </c>
       <c r="L52" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M52" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N52" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O52" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P52" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q52" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R52" t="n">
         <v>1.73</v>
@@ -6657,7 +6657,7 @@
         <v>8.5</v>
       </c>
       <c r="W52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X52" t="n">
         <v>12</v>
@@ -6669,13 +6669,13 @@
         <v>15</v>
       </c>
       <c r="AA52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD52" t="n">
         <v>201</v>
@@ -6684,13 +6684,13 @@
         <v>17</v>
       </c>
       <c r="AF52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG52" t="n">
         <v>17</v>
       </c>
       <c r="AH52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI52" t="n">
         <v>41</v>
@@ -7367,7 +7367,7 @@
         <v>6.9</v>
       </c>
       <c r="U58" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V58" t="n">
         <v>11.75</v>
@@ -7397,7 +7397,7 @@
         <v>101</v>
       </c>
       <c r="AE58" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AF58" t="n">
         <v>10.75</v>
@@ -7412,7 +7412,7 @@
         <v>27</v>
       </c>
       <c r="AJ58" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
@@ -7569,19 +7569,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="H60" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="I60" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="J60" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K60" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L60" t="n">
         <v>1.5</v>
@@ -7590,73 +7590,73 @@
         <v>2.42</v>
       </c>
       <c r="N60" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="O60" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P60" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R60" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S60" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="T60" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="U60" t="n">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="V60" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W60" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="X60" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y60" t="n">
         <v>37</v>
       </c>
       <c r="Z60" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AA60" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AB60" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC60" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD60" t="n">
         <v>800</v>
       </c>
       <c r="AE60" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AF60" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AG60" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AI60" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ60" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61">
@@ -7822,10 +7822,10 @@
         <v>4.33</v>
       </c>
       <c r="J62" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K62" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L62" t="n">
         <v>1.5</v>
@@ -7935,19 +7935,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H63" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I63" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J63" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L63" t="n">
         <v>1.29</v>
@@ -7956,10 +7956,10 @@
         <v>3.5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O63" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P63" t="n">
         <v>1.36</v>
@@ -7992,10 +7992,10 @@
         <v>26</v>
       </c>
       <c r="Z63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA63" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB63" t="n">
         <v>17</v>
@@ -8004,7 +8004,7 @@
         <v>51</v>
       </c>
       <c r="AD63" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE63" t="n">
         <v>13</v>
@@ -8223,7 +8223,7 @@
         <v>9.5</v>
       </c>
       <c r="W65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X65" t="n">
         <v>17</v>
@@ -8259,7 +8259,7 @@
         <v>29</v>
       </c>
       <c r="AI65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ65" t="n">
         <v>29</v>
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>3.7</v>
@@ -8309,7 +8309,7 @@
         <v>1.06</v>
       </c>
       <c r="K66" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L66" t="n">
         <v>1.3</v>
@@ -8339,7 +8339,7 @@
         <v>6.5</v>
       </c>
       <c r="U66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V66" t="n">
         <v>8.5</v>
@@ -8354,7 +8354,7 @@
         <v>29</v>
       </c>
       <c r="Z66" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA66" t="n">
         <v>7</v>
@@ -9024,36 +9024,96 @@
           <t>Yanbian Longding</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
-      <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
-      <c r="AF72" t="inlineStr"/>
-      <c r="AG72" t="inlineStr"/>
-      <c r="AH72" t="inlineStr"/>
-      <c r="AI72" t="inlineStr"/>
-      <c r="AJ72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T72" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U72" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V72" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W72" t="n">
+        <v>24</v>
+      </c>
+      <c r="X72" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9811,13 +9871,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H79" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I79" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="J79" t="n">
         <v>1.1</v>
@@ -9826,22 +9886,22 @@
         <v>6.2</v>
       </c>
       <c r="L79" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M79" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N79" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="O79" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P79" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R79" t="n">
         <v>2.27</v>
@@ -9853,28 +9913,28 @@
         <v>4.75</v>
       </c>
       <c r="U79" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="V79" t="n">
         <v>9</v>
       </c>
       <c r="W79" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="X79" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y79" t="n">
         <v>45</v>
       </c>
       <c r="Z79" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA79" t="n">
         <v>6.8</v>
       </c>
-      <c r="AA79" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AB79" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC79" t="n">
         <v>175</v>
@@ -9883,22 +9943,22 @@
         <v>101</v>
       </c>
       <c r="AE79" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AF79" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG79" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH79" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI79" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ79" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80">
@@ -10198,10 +10258,10 @@
         <v>3.5</v>
       </c>
       <c r="N82" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O82" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P82" t="n">
         <v>1.4</v>
@@ -10430,13 +10490,13 @@
         <v>2.05</v>
       </c>
       <c r="J84" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K84" t="n">
         <v>8.5</v>
       </c>
       <c r="L84" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
@@ -10552,16 +10612,16 @@
         <v>3.3</v>
       </c>
       <c r="J85" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K85" t="n">
         <v>6</v>
       </c>
       <c r="L85" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M85" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N85" t="n">
         <v>2.5</v>
@@ -11038,13 +11098,13 @@
         <v>2.4</v>
       </c>
       <c r="J89" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K89" t="n">
         <v>10</v>
       </c>
       <c r="L89" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M89" t="n">
         <v>3.4</v>
@@ -12011,7 +12071,7 @@
         <v>3.5</v>
       </c>
       <c r="I97" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J97" t="n">
         <v>1.03</v>
@@ -12020,16 +12080,16 @@
         <v>15</v>
       </c>
       <c r="L97" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M97" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N97" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O97" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P97" t="n">
         <v>1.29</v>
@@ -12044,10 +12104,10 @@
         <v>2.25</v>
       </c>
       <c r="T97" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V97" t="n">
         <v>8.5</v>
@@ -12071,7 +12131,7 @@
         <v>12</v>
       </c>
       <c r="AC97" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD97" t="n">
         <v>126</v>
@@ -12371,46 +12431,46 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L100" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M100" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N100" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O100" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="P100" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q100" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R100" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S100" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T100" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U100" t="n">
         <v>12</v>
@@ -12428,13 +12488,13 @@
         <v>23</v>
       </c>
       <c r="Z100" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB100" t="n">
         <v>12</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>13</v>
       </c>
       <c r="AC100" t="n">
         <v>41</v>
@@ -12443,7 +12503,7 @@
         <v>151</v>
       </c>
       <c r="AE100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF100" t="n">
         <v>17</v>
@@ -12455,10 +12515,10 @@
         <v>34</v>
       </c>
       <c r="AI100" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ100" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
@@ -12758,10 +12818,10 @@
         <v>3.4</v>
       </c>
       <c r="N103" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="O103" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P103" t="n">
         <v>1.36</v>
@@ -12981,37 +13041,37 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H105" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="I105" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="J105" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K105" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="L105" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M105" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N105" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O105" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P105" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="R105" t="n">
         <v>2.42</v>
@@ -13020,7 +13080,7 @@
         <v>1.5</v>
       </c>
       <c r="T105" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="U105" t="n">
         <v>5.2</v>
@@ -13032,28 +13092,28 @@
         <v>7</v>
       </c>
       <c r="X105" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y105" t="n">
         <v>40</v>
       </c>
       <c r="Z105" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AA105" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB105" t="n">
         <v>30</v>
       </c>
       <c r="AC105" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD105" t="n">
         <v>101</v>
       </c>
       <c r="AE105" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF105" t="n">
         <v>90</v>
@@ -13068,7 +13128,7 @@
         <v>200</v>
       </c>
       <c r="AJ105" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
@@ -13230,7 +13290,7 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="O107" t="n">
         <v>2.46</v>
@@ -13238,10 +13298,10 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="S107" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -13441,10 +13501,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="H109" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I109" t="n">
         <v>3.8</v>
@@ -13453,19 +13513,19 @@
         <v>1.03</v>
       </c>
       <c r="K109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L109" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M109" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N109" t="n">
         <v>1.57</v>
       </c>
       <c r="O109" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P109" t="n">
         <v>1.29</v>
@@ -13474,7 +13534,7 @@
         <v>3.5</v>
       </c>
       <c r="R109" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S109" t="n">
         <v>2.25</v>
@@ -13498,10 +13558,10 @@
         <v>21</v>
       </c>
       <c r="Z109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA109" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB109" t="n">
         <v>13</v>
@@ -13563,13 +13623,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H110" t="n">
         <v>3.6</v>
       </c>
       <c r="I110" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J110" t="n">
         <v>1.02</v>
@@ -13584,7 +13644,7 @@
         <v>5.5</v>
       </c>
       <c r="N110" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O110" t="n">
         <v>2.5</v>
@@ -13596,10 +13656,10 @@
         <v>3.75</v>
       </c>
       <c r="R110" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S110" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T110" t="n">
         <v>13</v>
@@ -13638,7 +13698,7 @@
         <v>15</v>
       </c>
       <c r="AF110" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG110" t="n">
         <v>11</v>
@@ -13691,7 +13751,7 @@
         <v>3.7</v>
       </c>
       <c r="I111" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="J111" t="n">
         <v>1.03</v>
@@ -13706,10 +13766,10 @@
         <v>5</v>
       </c>
       <c r="N111" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="O111" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P111" t="n">
         <v>1.29</v>
@@ -13718,16 +13778,16 @@
         <v>3.5</v>
       </c>
       <c r="R111" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S111" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
       </c>
       <c r="U111" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V111" t="n">
         <v>13</v>
@@ -13736,7 +13796,7 @@
         <v>41</v>
       </c>
       <c r="X111" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y111" t="n">
         <v>29</v>
@@ -13807,7 +13867,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H112" t="n">
         <v>3.4</v>
@@ -13828,7 +13888,7 @@
         <v>4.33</v>
       </c>
       <c r="N112" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O112" t="n">
         <v>2.1</v>
@@ -13840,7 +13900,7 @@
         <v>3.4</v>
       </c>
       <c r="R112" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S112" t="n">
         <v>2.25</v>
@@ -13950,10 +14010,10 @@
         <v>4.33</v>
       </c>
       <c r="N113" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O113" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P113" t="n">
         <v>1.3</v>
@@ -14977,13 +15037,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I122" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I122" t="n">
-        <v>3.75</v>
       </c>
       <c r="J122" t="n">
         <v>1.05</v>
@@ -14998,10 +15058,10 @@
         <v>3.5</v>
       </c>
       <c r="N122" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O122" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P122" t="n">
         <v>1.36</v>
@@ -15016,19 +15076,19 @@
         <v>2</v>
       </c>
       <c r="T122" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U122" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V122" t="n">
         <v>9</v>
       </c>
       <c r="W122" t="n">
+        <v>19</v>
+      </c>
+      <c r="X122" t="n">
         <v>17</v>
-      </c>
-      <c r="X122" t="n">
-        <v>15</v>
       </c>
       <c r="Y122" t="n">
         <v>26</v>
@@ -15037,13 +15097,13 @@
         <v>11</v>
       </c>
       <c r="AA122" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB122" t="n">
         <v>15</v>
       </c>
       <c r="AC122" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD122" t="n">
         <v>201</v>
@@ -15055,7 +15115,7 @@
         <v>19</v>
       </c>
       <c r="AG122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH122" t="n">
         <v>41</v>
@@ -15221,37 +15281,37 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="H124" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I124" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="J124" t="n">
         <v>1.04</v>
       </c>
       <c r="K124" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L124" t="n">
         <v>1.21</v>
       </c>
       <c r="M124" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N124" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O124" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="P124" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q124" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R124" t="n">
         <v>1.55</v>
@@ -15260,28 +15320,28 @@
         <v>2.32</v>
       </c>
       <c r="T124" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U124" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="V124" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W124" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="X124" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y124" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z124" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA124" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AB124" t="n">
         <v>11.75</v>
@@ -15293,19 +15353,19 @@
         <v>250</v>
       </c>
       <c r="AE124" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AF124" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AG124" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AH124" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI124" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ124" t="n">
         <v>25</v>
@@ -15705,27 +15765,27 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="H128" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I128" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M128" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="N128" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O128" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
@@ -15739,46 +15799,46 @@
         <v>8.25</v>
       </c>
       <c r="U128" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V128" t="n">
         <v>8.25</v>
       </c>
       <c r="W128" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="X128" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y128" t="n">
         <v>22</v>
       </c>
       <c r="Z128" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA128" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AB128" t="n">
         <v>13</v>
       </c>
       <c r="AC128" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD128" t="n">
         <v>350</v>
       </c>
       <c r="AE128" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF128" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG128" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH128" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI128" t="n">
         <v>32</v>
@@ -15953,7 +16013,7 @@
         <v>1.08</v>
       </c>
       <c r="K130" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L130" t="n">
         <v>1.4</v>
@@ -16307,13 +16367,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I133" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J133" t="n">
         <v>1.04</v>
@@ -16346,7 +16406,7 @@
         <v>2.2</v>
       </c>
       <c r="T133" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U133" t="n">
         <v>11</v>
@@ -16355,19 +16415,19 @@
         <v>9</v>
       </c>
       <c r="W133" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X133" t="n">
         <v>15</v>
       </c>
       <c r="Y133" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z133" t="n">
         <v>13</v>
       </c>
       <c r="AA133" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB133" t="n">
         <v>12</v>
@@ -16379,7 +16439,7 @@
         <v>151</v>
       </c>
       <c r="AE133" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF133" t="n">
         <v>19</v>
@@ -16388,10 +16448,10 @@
         <v>12</v>
       </c>
       <c r="AH133" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI133" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ133" t="n">
         <v>29</v>
@@ -16444,16 +16504,16 @@
         <v>9</v>
       </c>
       <c r="L134" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M134" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N134" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O134" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P134" t="n">
         <v>1.44</v>
@@ -16673,13 +16733,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H136" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I136" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J136" t="n">
         <v>1.1</v>
@@ -16712,13 +16772,13 @@
         <v>1.8</v>
       </c>
       <c r="T136" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U136" t="n">
         <v>15</v>
       </c>
       <c r="V136" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W136" t="n">
         <v>34</v>
@@ -17182,7 +17242,7 @@
         <v>2.57</v>
       </c>
       <c r="N140" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O140" t="n">
         <v>1.55</v>
@@ -17200,22 +17260,22 @@
         <v>1.7</v>
       </c>
       <c r="T140" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="U140" t="n">
         <v>9.25</v>
       </c>
       <c r="V140" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W140" t="n">
         <v>20</v>
       </c>
       <c r="X140" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y140" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z140" t="n">
         <v>6</v>
@@ -17233,7 +17293,7 @@
         <v>1000</v>
       </c>
       <c r="AE140" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF140" t="n">
         <v>15.5</v>
@@ -17322,7 +17382,7 @@
         <v>1.65</v>
       </c>
       <c r="T141" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U141" t="n">
         <v>10.5</v>
@@ -17334,7 +17394,7 @@
         <v>26</v>
       </c>
       <c r="X141" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y141" t="n">
         <v>45</v>
@@ -17349,19 +17409,19 @@
         <v>18</v>
       </c>
       <c r="AC141" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD141" t="n">
         <v>900</v>
       </c>
       <c r="AE141" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AF141" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG141" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH141" t="n">
         <v>37</v>
@@ -17530,76 +17590,76 @@
         <v>1.65</v>
       </c>
       <c r="H143" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I143" t="n">
         <v>4.75</v>
       </c>
       <c r="J143" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K143" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="L143" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M143" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="N143" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O143" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P143" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="R143" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S143" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="T143" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="U143" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="V143" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W143" t="n">
         <v>12.5</v>
       </c>
       <c r="X143" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y143" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z143" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA143" t="n">
         <v>7</v>
       </c>
-      <c r="AA143" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AB143" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC143" t="n">
         <v>90</v>
       </c>
       <c r="AD143" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE143" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF143" t="n">
         <v>27</v>
@@ -17614,7 +17674,7 @@
         <v>55</v>
       </c>
       <c r="AJ143" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144">
@@ -18027,7 +18087,7 @@
         <v>1.08</v>
       </c>
       <c r="K147" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L147" t="n">
         <v>1.35</v>
@@ -18054,10 +18114,10 @@
         <v>1.93</v>
       </c>
       <c r="T147" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U147" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V147" t="n">
         <v>10</v>
@@ -18066,13 +18126,13 @@
         <v>32</v>
       </c>
       <c r="X147" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y147" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z147" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA147" t="n">
         <v>5.9</v>
@@ -18087,7 +18147,7 @@
         <v>500</v>
       </c>
       <c r="AE147" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AF147" t="n">
         <v>12.5</v>
@@ -18102,7 +18162,7 @@
         <v>22</v>
       </c>
       <c r="AJ147" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148">
@@ -18270,10 +18330,10 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M149" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="N149" t="n">
         <v>1.7</v>
@@ -18284,10 +18344,10 @@
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S149" t="n">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="T149" t="n">
         <v>9</v>
@@ -18384,10 +18444,10 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M150" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N150" t="n">
         <v>2.27</v>
@@ -18402,10 +18462,10 @@
         <v>2.22</v>
       </c>
       <c r="R150" t="n">
-        <v>1.94</v>
+        <v>2.01</v>
       </c>
       <c r="S150" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="T150" t="n">
         <v>5.6</v>
@@ -18491,90 +18551,90 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H151" t="n">
         <v>3.6</v>
       </c>
       <c r="I151" t="n">
-        <v>4.35</v>
+        <v>4.85</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M151" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="N151" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O151" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P151" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="R151" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S151" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T151" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="U151" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="V151" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="W151" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="X151" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y151" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z151" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AA151" t="n">
         <v>6.2</v>
       </c>
       <c r="AB151" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC151" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD151" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE151" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF151" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AG151" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH151" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI151" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ151" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152">
@@ -18910,36 +18970,96 @@
           <t>Berkane</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="inlineStr"/>
-      <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
-      <c r="W155" t="inlineStr"/>
-      <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
-      <c r="Z155" t="inlineStr"/>
-      <c r="AA155" t="inlineStr"/>
-      <c r="AB155" t="inlineStr"/>
-      <c r="AC155" t="inlineStr"/>
-      <c r="AD155" t="inlineStr"/>
-      <c r="AE155" t="inlineStr"/>
-      <c r="AF155" t="inlineStr"/>
-      <c r="AG155" t="inlineStr"/>
-      <c r="AH155" t="inlineStr"/>
-      <c r="AI155" t="inlineStr"/>
-      <c r="AJ155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K155" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T155" t="n">
+        <v>11</v>
+      </c>
+      <c r="U155" t="n">
+        <v>26</v>
+      </c>
+      <c r="V155" t="n">
+        <v>19</v>
+      </c>
+      <c r="W155" t="n">
+        <v>67</v>
+      </c>
+      <c r="X155" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -18972,36 +19092,96 @@
           <t>FUS Rabat</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr"/>
-      <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr"/>
-      <c r="V156" t="inlineStr"/>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
-      <c r="Z156" t="inlineStr"/>
-      <c r="AA156" t="inlineStr"/>
-      <c r="AB156" t="inlineStr"/>
-      <c r="AC156" t="inlineStr"/>
-      <c r="AD156" t="inlineStr"/>
-      <c r="AE156" t="inlineStr"/>
-      <c r="AF156" t="inlineStr"/>
-      <c r="AG156" t="inlineStr"/>
-      <c r="AH156" t="inlineStr"/>
-      <c r="AI156" t="inlineStr"/>
-      <c r="AJ156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>7</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2</v>
+      </c>
+      <c r="S156" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T156" t="n">
+        <v>7</v>
+      </c>
+      <c r="U156" t="n">
+        <v>12</v>
+      </c>
+      <c r="V156" t="n">
+        <v>11</v>
+      </c>
+      <c r="W156" t="n">
+        <v>29</v>
+      </c>
+      <c r="X156" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -19034,36 +19214,96 @@
           <t>Olympique de Safi</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr"/>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr"/>
-      <c r="Z157" t="inlineStr"/>
-      <c r="AA157" t="inlineStr"/>
-      <c r="AB157" t="inlineStr"/>
-      <c r="AC157" t="inlineStr"/>
-      <c r="AD157" t="inlineStr"/>
-      <c r="AE157" t="inlineStr"/>
-      <c r="AF157" t="inlineStr"/>
-      <c r="AG157" t="inlineStr"/>
-      <c r="AH157" t="inlineStr"/>
-      <c r="AI157" t="inlineStr"/>
-      <c r="AJ157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>7</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S157" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T157" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U157" t="n">
+        <v>8</v>
+      </c>
+      <c r="V157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W157" t="n">
+        <v>15</v>
+      </c>
+      <c r="X157" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -19096,36 +19336,96 @@
           <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
-      <c r="T158" t="inlineStr"/>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr"/>
-      <c r="Z158" t="inlineStr"/>
-      <c r="AA158" t="inlineStr"/>
-      <c r="AB158" t="inlineStr"/>
-      <c r="AC158" t="inlineStr"/>
-      <c r="AD158" t="inlineStr"/>
-      <c r="AE158" t="inlineStr"/>
-      <c r="AF158" t="inlineStr"/>
-      <c r="AG158" t="inlineStr"/>
-      <c r="AH158" t="inlineStr"/>
-      <c r="AI158" t="inlineStr"/>
-      <c r="AJ158" t="inlineStr"/>
+      <c r="G158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H158" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I158" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K158" t="n">
+        <v>8</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O158" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T158" t="n">
+        <v>5</v>
+      </c>
+      <c r="U158" t="n">
+        <v>6</v>
+      </c>
+      <c r="V158" t="n">
+        <v>9</v>
+      </c>
+      <c r="W158" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X158" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -19158,36 +19458,96 @@
           <t>Renaissance Zemamra</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
-      <c r="T159" t="inlineStr"/>
-      <c r="U159" t="inlineStr"/>
-      <c r="V159" t="inlineStr"/>
-      <c r="W159" t="inlineStr"/>
-      <c r="X159" t="inlineStr"/>
-      <c r="Y159" t="inlineStr"/>
-      <c r="Z159" t="inlineStr"/>
-      <c r="AA159" t="inlineStr"/>
-      <c r="AB159" t="inlineStr"/>
-      <c r="AC159" t="inlineStr"/>
-      <c r="AD159" t="inlineStr"/>
-      <c r="AE159" t="inlineStr"/>
-      <c r="AF159" t="inlineStr"/>
-      <c r="AG159" t="inlineStr"/>
-      <c r="AH159" t="inlineStr"/>
-      <c r="AI159" t="inlineStr"/>
-      <c r="AJ159" t="inlineStr"/>
+      <c r="G159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H159" t="n">
+        <v>3</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K159" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S159" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T159" t="n">
+        <v>6</v>
+      </c>
+      <c r="U159" t="n">
+        <v>10</v>
+      </c>
+      <c r="V159" t="n">
+        <v>11</v>
+      </c>
+      <c r="W159" t="n">
+        <v>23</v>
+      </c>
+      <c r="X159" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -19220,36 +19580,96 @@
           <t>Raja Casablanca</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
-      <c r="T160" t="inlineStr"/>
-      <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr"/>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
-      <c r="Z160" t="inlineStr"/>
-      <c r="AA160" t="inlineStr"/>
-      <c r="AB160" t="inlineStr"/>
-      <c r="AC160" t="inlineStr"/>
-      <c r="AD160" t="inlineStr"/>
-      <c r="AE160" t="inlineStr"/>
-      <c r="AF160" t="inlineStr"/>
-      <c r="AG160" t="inlineStr"/>
-      <c r="AH160" t="inlineStr"/>
-      <c r="AI160" t="inlineStr"/>
-      <c r="AJ160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K160" t="n">
+        <v>6</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P160" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T160" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U160" t="n">
+        <v>15</v>
+      </c>
+      <c r="V160" t="n">
+        <v>13</v>
+      </c>
+      <c r="W160" t="n">
+        <v>41</v>
+      </c>
+      <c r="X160" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -19414,16 +19834,16 @@
         <v>4.5</v>
       </c>
       <c r="J162" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K162" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L162" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M162" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N162" t="n">
         <v>1.53</v>
@@ -19548,10 +19968,10 @@
         <v>4</v>
       </c>
       <c r="N163" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O163" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P163" t="n">
         <v>1.33</v>
@@ -20030,10 +20450,10 @@
         <v>13</v>
       </c>
       <c r="L167" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M167" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N167" t="n">
         <v>1.7</v>
@@ -20146,13 +20566,13 @@
         <v>4.33</v>
       </c>
       <c r="J168" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K168" t="n">
         <v>6</v>
       </c>
       <c r="L168" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M168" t="n">
         <v>2.5</v>
@@ -20268,16 +20688,16 @@
         <v>5.25</v>
       </c>
       <c r="J169" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K169" t="n">
         <v>7.5</v>
       </c>
       <c r="L169" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M169" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N169" t="n">
         <v>2.35</v>
@@ -21002,10 +21422,10 @@
         <v>2.63</v>
       </c>
       <c r="N175" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O175" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P175" t="n">
         <v>1.53</v>
@@ -21103,13 +21523,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H176" t="n">
         <v>3.5</v>
       </c>
       <c r="I176" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J176" t="n">
         <v>1.03</v>
@@ -21142,25 +21562,25 @@
         <v>2.25</v>
       </c>
       <c r="T176" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U176" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V176" t="n">
         <v>9</v>
       </c>
       <c r="W176" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X176" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z176" t="n">
         <v>15</v>
-      </c>
-      <c r="Y176" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z176" t="n">
-        <v>13</v>
       </c>
       <c r="AA176" t="n">
         <v>7</v>
@@ -21172,25 +21592,25 @@
         <v>41</v>
       </c>
       <c r="AD176" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE176" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF176" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG176" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH176" t="n">
         <v>34</v>
       </c>
       <c r="AI176" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ176" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="177">
@@ -21713,19 +22133,19 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H181" t="n">
         <v>3.3</v>
       </c>
       <c r="I181" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J181" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K181" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L181" t="n">
         <v>1.3</v>
@@ -21734,10 +22154,10 @@
         <v>3.4</v>
       </c>
       <c r="N181" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O181" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P181" t="n">
         <v>1.4</v>
@@ -21755,7 +22175,7 @@
         <v>8</v>
       </c>
       <c r="U181" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V181" t="n">
         <v>9.5</v>
@@ -21764,7 +22184,7 @@
         <v>23</v>
       </c>
       <c r="X181" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y181" t="n">
         <v>29</v>
@@ -21788,7 +22208,7 @@
         <v>9</v>
       </c>
       <c r="AF181" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG181" t="n">
         <v>11</v>
@@ -21957,10 +22377,10 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="H183" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I183" t="n">
         <v>21</v>
@@ -21972,37 +22392,37 @@
         <v>19</v>
       </c>
       <c r="L183" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M183" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N183" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O183" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="P183" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q183" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R183" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S183" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T183" t="n">
         <v>8</v>
       </c>
       <c r="U183" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V183" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W183" t="n">
         <v>6</v>
@@ -22020,29 +22440,29 @@
         <v>15</v>
       </c>
       <c r="AB183" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC183" t="n">
         <v>126</v>
       </c>
       <c r="AD183" t="inlineStr"/>
       <c r="AE183" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF183" t="n">
         <v>81</v>
       </c>
       <c r="AG183" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH183" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AI183" t="n">
         <v>151</v>
       </c>
       <c r="AJ183" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="184">
@@ -22077,13 +22497,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H184" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I184" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J184" t="n">
         <v>1.05</v>
@@ -22104,16 +22524,16 @@
         <v>1.88</v>
       </c>
       <c r="P184" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q184" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R184" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S184" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T184" t="n">
         <v>6.5</v>
@@ -22128,13 +22548,13 @@
         <v>12</v>
       </c>
       <c r="X184" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y184" t="n">
         <v>29</v>
       </c>
       <c r="Z184" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA184" t="n">
         <v>7</v>
@@ -22149,10 +22569,10 @@
         <v>301</v>
       </c>
       <c r="AE184" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF184" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG184" t="n">
         <v>17</v>
@@ -22455,7 +22875,7 @@
         <v>1.07</v>
       </c>
       <c r="K187" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L187" t="n">
         <v>1.33</v>
@@ -22686,36 +23106,92 @@
           <t>Varzim</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
+      <c r="G189" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H189" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="inlineStr"/>
-      <c r="T189" t="inlineStr"/>
-      <c r="U189" t="inlineStr"/>
-      <c r="V189" t="inlineStr"/>
-      <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
-      <c r="Y189" t="inlineStr"/>
-      <c r="Z189" t="inlineStr"/>
-      <c r="AA189" t="inlineStr"/>
-      <c r="AB189" t="inlineStr"/>
-      <c r="AC189" t="inlineStr"/>
-      <c r="AD189" t="inlineStr"/>
-      <c r="AE189" t="inlineStr"/>
-      <c r="AF189" t="inlineStr"/>
-      <c r="AG189" t="inlineStr"/>
-      <c r="AH189" t="inlineStr"/>
-      <c r="AI189" t="inlineStr"/>
-      <c r="AJ189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M189" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P189" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S189" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T189" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U189" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V189" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W189" t="n">
+        <v>24</v>
+      </c>
+      <c r="X189" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -23338,36 +23814,92 @@
           <t>Braga B</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H195" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I195" t="n">
+        <v>3.9</v>
+      </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="inlineStr"/>
-      <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr"/>
-      <c r="V195" t="inlineStr"/>
-      <c r="W195" t="inlineStr"/>
-      <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
-      <c r="Z195" t="inlineStr"/>
-      <c r="AA195" t="inlineStr"/>
-      <c r="AB195" t="inlineStr"/>
-      <c r="AC195" t="inlineStr"/>
-      <c r="AD195" t="inlineStr"/>
-      <c r="AE195" t="inlineStr"/>
-      <c r="AF195" t="inlineStr"/>
-      <c r="AG195" t="inlineStr"/>
-      <c r="AH195" t="inlineStr"/>
-      <c r="AI195" t="inlineStr"/>
-      <c r="AJ195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M195" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P195" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R195" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S195" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T195" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U195" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V195" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W195" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X195" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -24381,94 +24913,94 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I208" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J208" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K208" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L208" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="M208" t="n">
-        <v>2.92</v>
+        <v>3.6</v>
       </c>
       <c r="N208" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="O208" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="P208" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="R208" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="S208" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="T208" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="U208" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V208" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="W208" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X208" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y208" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z208" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AA208" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="AB208" t="n">
         <v>13.5</v>
       </c>
       <c r="AC208" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AD208" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="AE208" t="n">
-        <v>9.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF208" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG208" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH208" t="n">
         <v>50</v>
       </c>
       <c r="AI208" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ208" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="209">
@@ -25482,28 +26014,28 @@
         <v>2.3</v>
       </c>
       <c r="H217" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I217" t="n">
         <v>3</v>
       </c>
       <c r="J217" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K217" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L217" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M217" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N217" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O217" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P217" t="n">
         <v>1.4</v>
@@ -25512,13 +26044,13 @@
         <v>2.75</v>
       </c>
       <c r="R217" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S217" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T217" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U217" t="n">
         <v>11</v>
@@ -25536,7 +26068,7 @@
         <v>29</v>
       </c>
       <c r="Z217" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA217" t="n">
         <v>6.5</v>
@@ -25548,10 +26080,10 @@
         <v>51</v>
       </c>
       <c r="AD217" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE217" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF217" t="n">
         <v>15</v>
@@ -25560,10 +26092,10 @@
         <v>11</v>
       </c>
       <c r="AH217" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI217" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ217" t="n">
         <v>34</v>
@@ -25601,19 +26133,19 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H218" t="n">
         <v>3.5</v>
       </c>
       <c r="I218" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J218" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K218" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L218" t="n">
         <v>1.29</v>
@@ -25643,7 +26175,7 @@
         <v>11</v>
       </c>
       <c r="U218" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V218" t="n">
         <v>13</v>
@@ -25652,10 +26184,10 @@
         <v>41</v>
       </c>
       <c r="X218" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y218" t="n">
         <v>34</v>
-      </c>
-      <c r="Y218" t="n">
-        <v>41</v>
       </c>
       <c r="Z218" t="n">
         <v>10</v>
@@ -25676,16 +26208,16 @@
         <v>7.5</v>
       </c>
       <c r="AF218" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG218" t="n">
         <v>9</v>
-      </c>
-      <c r="AG218" t="n">
-        <v>8.5</v>
       </c>
       <c r="AH218" t="n">
         <v>17</v>
       </c>
       <c r="AI218" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ218" t="n">
         <v>26</v>
@@ -25845,13 +26377,13 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H220" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I220" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J220" t="n">
         <v>1.05</v>
@@ -25872,16 +26404,16 @@
         <v>1.83</v>
       </c>
       <c r="P220" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q220" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R220" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S220" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T220" t="n">
         <v>12</v>
@@ -25905,7 +26437,7 @@
         <v>10</v>
       </c>
       <c r="AA220" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB220" t="n">
         <v>17</v>
@@ -25917,7 +26449,7 @@
         <v>301</v>
       </c>
       <c r="AE220" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF220" t="n">
         <v>8</v>
@@ -26342,10 +26874,10 @@
         <v>5</v>
       </c>
       <c r="J224" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K224" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L224" t="n">
         <v>1.29</v>
@@ -26354,10 +26886,10 @@
         <v>3.5</v>
       </c>
       <c r="N224" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O224" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P224" t="n">
         <v>1.4</v>
@@ -26476,10 +27008,10 @@
         <v>2.63</v>
       </c>
       <c r="N225" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O225" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P225" t="n">
         <v>1.5</v>
@@ -26539,7 +27071,7 @@
         <v>19</v>
       </c>
       <c r="AI225" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ225" t="n">
         <v>34</v>
@@ -26592,10 +27124,10 @@
         <v>13</v>
       </c>
       <c r="L226" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M226" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N226" t="n">
         <v>1.7</v>
@@ -26699,13 +27231,13 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H227" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I227" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J227" t="n">
         <v>1.03</v>
@@ -26714,16 +27246,16 @@
         <v>15</v>
       </c>
       <c r="L227" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M227" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N227" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O227" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P227" t="n">
         <v>1.3</v>
@@ -26732,13 +27264,13 @@
         <v>3.4</v>
       </c>
       <c r="R227" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S227" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T227" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U227" t="n">
         <v>34</v>
@@ -26824,10 +27356,10 @@
         <v>2</v>
       </c>
       <c r="H228" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I228" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J228" t="n">
         <v>1.05</v>
@@ -26842,58 +27374,58 @@
         <v>3.75</v>
       </c>
       <c r="N228" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O228" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P228" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q228" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R228" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S228" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T228" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U228" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V228" t="n">
         <v>9</v>
       </c>
       <c r="W228" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X228" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y228" t="n">
         <v>26</v>
       </c>
       <c r="Z228" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA228" t="n">
         <v>6.5</v>
       </c>
       <c r="AB228" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC228" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD228" t="n">
         <v>201</v>
       </c>
       <c r="AE228" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF228" t="n">
         <v>19</v>
@@ -27196,22 +27728,22 @@
         <v>4.1</v>
       </c>
       <c r="J231" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K231" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L231" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M231" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N231" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O231" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P231" t="n">
         <v>1.44</v>
@@ -27681,7 +28213,7 @@
         <v>3.25</v>
       </c>
       <c r="I235" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J235" t="n">
         <v>1.07</v>
@@ -27800,28 +28332,28 @@
         <v>1.62</v>
       </c>
       <c r="H236" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I236" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J236" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K236" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="L236" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M236" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N236" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O236" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P236" t="n">
         <v>1.4</v>
@@ -27845,7 +28377,7 @@
         <v>9</v>
       </c>
       <c r="W236" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X236" t="n">
         <v>15</v>
@@ -27866,7 +28398,7 @@
         <v>51</v>
       </c>
       <c r="AD236" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE236" t="n">
         <v>13</v>
@@ -27919,7 +28451,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H237" t="n">
         <v>3.1</v>
@@ -28041,13 +28573,13 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H238" t="n">
         <v>3.1</v>
       </c>
       <c r="I238" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J238" t="n">
         <v>1.1</v>
@@ -28056,16 +28588,16 @@
         <v>7</v>
       </c>
       <c r="L238" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M238" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N238" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O238" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P238" t="n">
         <v>1.53</v>
@@ -28074,10 +28606,10 @@
         <v>2.38</v>
       </c>
       <c r="R238" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S238" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T238" t="n">
         <v>7</v>
@@ -28092,13 +28624,13 @@
         <v>29</v>
       </c>
       <c r="X238" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y238" t="n">
         <v>41</v>
       </c>
       <c r="Z238" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA238" t="n">
         <v>6</v>
@@ -28113,16 +28645,16 @@
         <v>501</v>
       </c>
       <c r="AE238" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF238" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG238" t="n">
         <v>11</v>
       </c>
       <c r="AH238" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI238" t="n">
         <v>26</v>
@@ -28285,13 +28817,13 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H240" t="n">
         <v>3.6</v>
       </c>
       <c r="I240" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J240" t="n">
         <v>1.05</v>
@@ -28327,7 +28859,7 @@
         <v>7.5</v>
       </c>
       <c r="U240" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V240" t="n">
         <v>8.5</v>
@@ -28360,7 +28892,7 @@
         <v>11</v>
       </c>
       <c r="AF240" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG240" t="n">
         <v>13</v>
@@ -28529,13 +29061,13 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H242" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I242" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J242" t="n">
         <v>1.04</v>
@@ -28544,16 +29076,16 @@
         <v>13</v>
       </c>
       <c r="L242" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M242" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N242" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O242" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P242" t="n">
         <v>1.33</v>
@@ -28577,16 +29109,16 @@
         <v>9</v>
       </c>
       <c r="W242" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X242" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y242" t="n">
         <v>23</v>
       </c>
       <c r="Z242" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA242" t="n">
         <v>7</v>
@@ -28607,13 +29139,13 @@
         <v>17</v>
       </c>
       <c r="AG242" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH242" t="n">
         <v>34</v>
       </c>
       <c r="AI242" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ242" t="n">
         <v>29</v>
@@ -28660,10 +29192,10 @@
         <v>2.7</v>
       </c>
       <c r="J243" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K243" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L243" t="n">
         <v>1.2</v>
@@ -28672,10 +29204,10 @@
         <v>4.33</v>
       </c>
       <c r="N243" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O243" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P243" t="n">
         <v>1.33</v>
@@ -28895,13 +29427,13 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H245" t="n">
         <v>3.9</v>
       </c>
       <c r="I245" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J245" t="n">
         <v>1.02</v>
@@ -28937,13 +29469,13 @@
         <v>11</v>
       </c>
       <c r="U245" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V245" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W245" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X245" t="n">
         <v>13</v>
@@ -28982,7 +29514,7 @@
         <v>26</v>
       </c>
       <c r="AJ245" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="246">
@@ -29514,10 +30046,10 @@
         <v>5.25</v>
       </c>
       <c r="J250" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K250" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L250" t="n">
         <v>1.14</v>
@@ -29526,10 +30058,10 @@
         <v>5.5</v>
       </c>
       <c r="N250" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O250" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P250" t="n">
         <v>1.25</v>
@@ -30064,22 +30596,22 @@
         <v>4.2</v>
       </c>
       <c r="J255" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K255" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L255" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M255" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N255" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O255" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P255" t="n">
         <v>1.36</v>
@@ -30299,10 +30831,10 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H257" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I257" t="n">
         <v>6</v>
@@ -30421,19 +30953,19 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H258" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I258" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="J258" t="n">
         <v>1.03</v>
       </c>
       <c r="K258" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L258" t="n">
         <v>1.17</v>
@@ -30448,10 +30980,10 @@
         <v>2.35</v>
       </c>
       <c r="P258" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q258" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R258" t="n">
         <v>1.73</v>
@@ -30463,13 +30995,13 @@
         <v>21</v>
       </c>
       <c r="U258" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V258" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W258" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X258" t="n">
         <v>41</v>
@@ -30487,7 +31019,7 @@
         <v>17</v>
       </c>
       <c r="AC258" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD258" t="n">
         <v>201</v>
@@ -30496,7 +31028,7 @@
         <v>8.5</v>
       </c>
       <c r="AF258" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG258" t="n">
         <v>8.5</v>
@@ -30508,7 +31040,7 @@
         <v>11</v>
       </c>
       <c r="AJ258" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="259">
@@ -30798,10 +31330,10 @@
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M261" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="N261" t="n">
         <v>2.15</v>
@@ -30810,22 +31342,22 @@
         <v>1.55</v>
       </c>
       <c r="P261" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q261" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R261" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S261" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T261" t="n">
         <v>5.9</v>
       </c>
       <c r="U261" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V261" t="n">
         <v>8.75</v>
@@ -30834,28 +31366,28 @@
         <v>16</v>
       </c>
       <c r="X261" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y261" t="n">
         <v>35</v>
       </c>
       <c r="Z261" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA261" t="n">
         <v>6.3</v>
       </c>
       <c r="AB261" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC261" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD261" t="n">
         <v>1000</v>
       </c>
       <c r="AE261" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF261" t="n">
         <v>20</v>
@@ -30870,7 +31402,7 @@
         <v>45</v>
       </c>
       <c r="AJ261" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262">
@@ -31402,22 +31934,22 @@
         <v>5</v>
       </c>
       <c r="J266" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K266" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L266" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M266" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N266" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O266" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="P266" t="n">
         <v>1.4</v>
@@ -31530,16 +32062,16 @@
         <v>10</v>
       </c>
       <c r="L267" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M267" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N267" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O267" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P267" t="n">
         <v>1.4</v>
@@ -32125,13 +32657,13 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H272" t="n">
         <v>3.25</v>
       </c>
       <c r="I272" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="J272" t="n">
         <v>1.07</v>
@@ -32167,7 +32699,7 @@
         <v>6.4</v>
       </c>
       <c r="U272" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="V272" t="n">
         <v>8</v>
@@ -32176,10 +32708,10 @@
         <v>14</v>
       </c>
       <c r="X272" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y272" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z272" t="n">
         <v>6.7</v>
@@ -32188,7 +32720,7 @@
         <v>6.5</v>
       </c>
       <c r="AB272" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC272" t="n">
         <v>80</v>
@@ -32197,13 +32729,13 @@
         <v>700</v>
       </c>
       <c r="AE272" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF272" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG272" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH272" t="n">
         <v>90</v>
@@ -32283,13 +32815,13 @@
         <v>1.87</v>
       </c>
       <c r="S273" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T273" t="n">
         <v>9.25</v>
       </c>
       <c r="U273" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V273" t="n">
         <v>12</v>
@@ -32301,7 +32833,7 @@
         <v>32</v>
       </c>
       <c r="Y273" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z273" t="n">
         <v>6.7</v>
@@ -32319,7 +32851,7 @@
         <v>700</v>
       </c>
       <c r="AE273" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF273" t="n">
         <v>9.25</v>
@@ -32334,7 +32866,7 @@
         <v>17.5</v>
       </c>
       <c r="AJ273" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-04.xlsx
@@ -1400,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P8" t="n">
         <v>1.25</v>
@@ -1644,10 +1644,10 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="O10" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1757,7 +1757,7 @@
         <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -1802,7 +1802,7 @@
         <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
         <v>7.5</v>
@@ -1829,7 +1829,7 @@
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
         <v>34</v>
@@ -1998,22 +1998,22 @@
         <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="O13" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="P13" t="n">
         <v>1.29</v>
@@ -2153,13 +2153,13 @@
         <v>12</v>
       </c>
       <c r="U14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V14" t="n">
         <v>15</v>
       </c>
       <c r="W14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X14" t="n">
         <v>34</v>
@@ -2367,7 +2367,7 @@
         <v>1.06</v>
       </c>
       <c r="K16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
         <v>1.3</v>
@@ -2376,10 +2376,10 @@
         <v>3.5</v>
       </c>
       <c r="N16" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="O16" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P16" t="n">
         <v>1.4</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J19" t="n">
         <v>1.03</v>
@@ -2760,16 +2760,16 @@
         <v>2.5</v>
       </c>
       <c r="T19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X19" t="n">
         <v>19</v>
@@ -2778,13 +2778,13 @@
         <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
         <v>34</v>
@@ -2799,7 +2799,7 @@
         <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH19" t="n">
         <v>23</v>
@@ -2852,16 +2852,16 @@
         <v>2.8</v>
       </c>
       <c r="J20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N20" t="n">
         <v>1.7</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>5.75</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J21" t="n">
         <v>1.01</v>
@@ -2986,28 +2986,28 @@
         <v>7</v>
       </c>
       <c r="N21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P21" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V21" t="n">
         <v>9</v>
@@ -3019,22 +3019,22 @@
         <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA21" t="n">
         <v>12</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
         <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -3043,16 +3043,16 @@
         <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI21" t="n">
         <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
@@ -3108,10 +3108,10 @@
         <v>2.63</v>
       </c>
       <c r="N22" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O22" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="P22" t="n">
         <v>1.53</v>
@@ -3210,28 +3210,28 @@
         <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N23" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3240,16 +3240,16 @@
         <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T23" t="n">
         <v>9.5</v>
       </c>
       <c r="U23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V23" t="n">
         <v>12</v>
@@ -3261,25 +3261,25 @@
         <v>29</v>
       </c>
       <c r="Y23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
         <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF23" t="n">
         <v>11</v>
@@ -3291,10 +3291,10 @@
         <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -3329,13 +3329,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
         <v>1.11</v>
@@ -3344,31 +3344,31 @@
         <v>6.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N24" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="P24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U24" t="n">
         <v>10</v>
@@ -3386,7 +3386,7 @@
         <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
@@ -3395,7 +3395,7 @@
         <v>19</v>
       </c>
       <c r="AC24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="n">
         <v>501</v>
@@ -3407,13 +3407,13 @@
         <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI24" t="n">
         <v>34</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>29</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3451,10 +3451,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H25" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I25" t="n">
         <v>3.2</v>
@@ -3475,7 +3475,7 @@
         <v>3.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
         <v>1.67</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
@@ -3597,7 +3597,7 @@
         <v>2.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
         <v>1.57</v>
@@ -3698,10 +3698,10 @@
         <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I27" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J27" t="n">
         <v>1.11</v>
@@ -3710,31 +3710,31 @@
         <v>6.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N27" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="P27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S27" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U27" t="n">
         <v>13</v>
@@ -3752,13 +3752,13 @@
         <v>41</v>
       </c>
       <c r="Z27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA27" t="n">
         <v>6</v>
       </c>
       <c r="AB27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="n">
         <v>67</v>
@@ -3779,7 +3779,7 @@
         <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
         <v>41</v>
@@ -3826,13 +3826,13 @@
         <v>6.25</v>
       </c>
       <c r="J28" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K28" t="n">
         <v>10</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
@@ -3841,7 +3841,7 @@
         <v>2.15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P28" t="n">
         <v>1.44</v>
@@ -3850,10 +3850,10 @@
         <v>2.63</v>
       </c>
       <c r="R28" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="S28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T28" t="n">
         <v>5</v>
@@ -3948,22 +3948,22 @@
         <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="K29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M29" t="n">
         <v>2.2</v>
       </c>
       <c r="N29" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="O29" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P29" t="n">
         <v>1.62</v>
@@ -3975,7 +3975,7 @@
         <v>2.5</v>
       </c>
       <c r="S29" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T29" t="n">
         <v>5</v>
@@ -4070,22 +4070,22 @@
         <v>3.4</v>
       </c>
       <c r="J30" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K30" t="n">
         <v>6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M30" t="n">
         <v>2.2</v>
       </c>
       <c r="N30" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="O30" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P30" t="n">
         <v>1.62</v>
@@ -4094,10 +4094,10 @@
         <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="S30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T30" t="n">
         <v>5.5</v>
@@ -4192,13 +4192,13 @@
         <v>2.63</v>
       </c>
       <c r="J31" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="K31" t="n">
         <v>5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
@@ -4207,19 +4207,19 @@
         <v>3.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P31" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q31" t="n">
         <v>2.05</v>
       </c>
       <c r="R31" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="S31" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T31" t="n">
         <v>6</v>
@@ -4305,31 +4305,31 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="K32" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M32" t="n">
         <v>2.2</v>
       </c>
       <c r="N32" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P32" t="n">
         <v>1.62</v>
@@ -4341,7 +4341,7 @@
         <v>2.75</v>
       </c>
       <c r="S32" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T32" t="n">
         <v>4.5</v>
@@ -4362,7 +4362,7 @@
         <v>41</v>
       </c>
       <c r="Z32" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA32" t="n">
         <v>7.5</v>
@@ -4377,7 +4377,7 @@
         <v>101</v>
       </c>
       <c r="AE32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF32" t="n">
         <v>23</v>
@@ -4386,7 +4386,7 @@
         <v>19</v>
       </c>
       <c r="AH32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI32" t="n">
         <v>51</v>
@@ -4436,13 +4436,13 @@
         <v>3.6</v>
       </c>
       <c r="J33" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K33" t="n">
         <v>5.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M33" t="n">
         <v>2.1</v>
@@ -4451,7 +4451,7 @@
         <v>3.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
         <v>1.67</v>
@@ -4460,10 +4460,10 @@
         <v>2.1</v>
       </c>
       <c r="R33" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="S33" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T33" t="n">
         <v>5</v>
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I34" t="n">
         <v>3.9</v>
@@ -4585,7 +4585,7 @@
         <v>2.5</v>
       </c>
       <c r="S34" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T34" t="n">
         <v>5</v>
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
@@ -4698,7 +4698,7 @@
         <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q35" t="n">
         <v>2.05</v>
@@ -4707,7 +4707,7 @@
         <v>2.75</v>
       </c>
       <c r="S35" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T35" t="n">
         <v>4.5</v>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
@@ -4814,10 +4814,10 @@
         <v>2.25</v>
       </c>
       <c r="N36" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P36" t="n">
         <v>1.62</v>
@@ -4829,7 +4829,7 @@
         <v>2.25</v>
       </c>
       <c r="S36" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T36" t="n">
         <v>6</v>
@@ -4936,10 +4936,10 @@
         <v>4.5</v>
       </c>
       <c r="N37" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O37" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P37" t="n">
         <v>1.29</v>
@@ -4951,13 +4951,13 @@
         <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="T37" t="n">
         <v>11</v>
       </c>
       <c r="U37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V37" t="n">
         <v>9</v>
@@ -4978,13 +4978,13 @@
         <v>7.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC37" t="n">
         <v>34</v>
       </c>
       <c r="AD37" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE37" t="n">
         <v>13</v>
@@ -5002,7 +5002,7 @@
         <v>21</v>
       </c>
       <c r="AJ37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -5037,28 +5037,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H38" t="n">
         <v>4.75</v>
       </c>
       <c r="I38" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L38" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="M38" t="n">
         <v>7</v>
       </c>
       <c r="N38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O38" t="n">
         <v>3.4</v>
@@ -5070,22 +5070,22 @@
         <v>4.5</v>
       </c>
       <c r="R38" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S38" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T38" t="n">
         <v>13</v>
       </c>
       <c r="U38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V38" t="n">
         <v>9</v>
       </c>
       <c r="W38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X38" t="n">
         <v>11</v>
@@ -5103,7 +5103,7 @@
         <v>13</v>
       </c>
       <c r="AC38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD38" t="n">
         <v>81</v>
@@ -5159,31 +5159,31 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>3.2</v>
       </c>
       <c r="I39" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J39" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K39" t="n">
         <v>10</v>
       </c>
       <c r="L39" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M39" t="n">
         <v>3.4</v>
       </c>
       <c r="N39" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="O39" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="P39" t="n">
         <v>1.4</v>
@@ -5192,7 +5192,7 @@
         <v>2.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S39" t="n">
         <v>2</v>
@@ -5287,25 +5287,25 @@
         <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J40" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K40" t="n">
         <v>13</v>
       </c>
       <c r="L40" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M40" t="n">
         <v>3.75</v>
       </c>
       <c r="N40" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="O40" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="P40" t="n">
         <v>1.36</v>
@@ -5314,7 +5314,7 @@
         <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S40" t="n">
         <v>2</v>
@@ -5403,7 +5403,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H41" t="n">
         <v>3.4</v>
@@ -5412,13 +5412,13 @@
         <v>3.4</v>
       </c>
       <c r="J41" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K41" t="n">
         <v>13</v>
       </c>
       <c r="L41" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
@@ -5436,7 +5436,7 @@
         <v>3.25</v>
       </c>
       <c r="R41" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S41" t="n">
         <v>2.2</v>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H42" t="n">
         <v>3.8</v>
@@ -5558,7 +5558,7 @@
         <v>3.4</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S42" t="n">
         <v>2.1</v>
@@ -5650,10 +5650,10 @@
         <v>1.7</v>
       </c>
       <c r="H43" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I43" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="J43" t="n">
         <v>1.04</v>
@@ -5662,31 +5662,31 @@
         <v>8.25</v>
       </c>
       <c r="L43" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M43" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="N43" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P43" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="R43" t="n">
         <v>1.72</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T43" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="U43" t="n">
         <v>8.5</v>
@@ -5695,19 +5695,19 @@
         <v>8.25</v>
       </c>
       <c r="W43" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X43" t="n">
         <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z43" t="n">
         <v>8.25</v>
       </c>
       <c r="AA43" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB43" t="n">
         <v>15</v>
@@ -5728,7 +5728,7 @@
         <v>14</v>
       </c>
       <c r="AH43" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI43" t="n">
         <v>37</v>
@@ -5879,27 +5879,27 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H45" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I45" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M45" t="n">
-        <v>2.67</v>
+        <v>2.95</v>
       </c>
       <c r="N45" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="O45" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="P45" t="n">
         <v>1.4</v>
@@ -5908,49 +5908,49 @@
         <v>2.52</v>
       </c>
       <c r="R45" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="S45" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T45" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="U45" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="V45" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W45" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X45" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z45" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB45" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC45" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AD45" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AE45" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AF45" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG45" t="n">
         <v>15</v>
@@ -5959,10 +5959,10 @@
         <v>80</v>
       </c>
       <c r="AI45" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="46">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H48" t="n">
         <v>4.75</v>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J48" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L48" t="n">
         <v>1.17</v>
@@ -6142,13 +6142,13 @@
         <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O48" t="n">
         <v>2.4</v>
       </c>
       <c r="P48" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q48" t="n">
         <v>3.75</v>
@@ -6169,7 +6169,7 @@
         <v>8.5</v>
       </c>
       <c r="W48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X48" t="n">
         <v>11</v>
@@ -6187,19 +6187,19 @@
         <v>17</v>
       </c>
       <c r="AC48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD48" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF48" t="n">
         <v>34</v>
       </c>
       <c r="AG48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH48" t="n">
         <v>67</v>
@@ -6264,16 +6264,16 @@
         <v>3.25</v>
       </c>
       <c r="N49" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="O49" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P49" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R49" t="n">
         <v>1.91</v>
@@ -6365,49 +6365,49 @@
         </is>
       </c>
       <c r="G50" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H50" t="n">
         <v>4</v>
       </c>
-      <c r="H50" t="n">
-        <v>3.9</v>
-      </c>
       <c r="I50" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J50" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L50" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N50" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="O50" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="P50" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q50" t="n">
         <v>3.75</v>
       </c>
       <c r="R50" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S50" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T50" t="n">
         <v>17</v>
       </c>
       <c r="U50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V50" t="n">
         <v>15</v>
@@ -6422,10 +6422,10 @@
         <v>29</v>
       </c>
       <c r="Z50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB50" t="n">
         <v>13</v>
@@ -6449,10 +6449,10 @@
         <v>15</v>
       </c>
       <c r="AI50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -6487,19 +6487,19 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H51" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I51" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="J51" t="n">
         <v>1.04</v>
       </c>
       <c r="K51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L51" t="n">
         <v>1.25</v>
@@ -6508,37 +6508,37 @@
         <v>3.75</v>
       </c>
       <c r="N51" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P51" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q51" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S51" t="n">
         <v>2</v>
       </c>
       <c r="T51" t="n">
+        <v>11</v>
+      </c>
+      <c r="U51" t="n">
+        <v>17</v>
+      </c>
+      <c r="V51" t="n">
         <v>12</v>
-      </c>
-      <c r="U51" t="n">
-        <v>19</v>
-      </c>
-      <c r="V51" t="n">
-        <v>13</v>
       </c>
       <c r="W51" t="n">
         <v>41</v>
       </c>
       <c r="X51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y51" t="n">
         <v>34</v>
@@ -6547,7 +6547,7 @@
         <v>12</v>
       </c>
       <c r="AA51" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB51" t="n">
         <v>15</v>
@@ -6562,19 +6562,19 @@
         <v>8</v>
       </c>
       <c r="AF51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI51" t="n">
         <v>15</v>
       </c>
       <c r="AJ51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
@@ -6642,7 +6642,7 @@
         <v>3.5</v>
       </c>
       <c r="R52" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -6995,7 +6995,7 @@
         <v>2</v>
       </c>
       <c r="S55" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T55" t="n">
         <v>6.5</v>
@@ -7102,10 +7102,10 @@
         <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P56" t="n">
         <v>1.44</v>
@@ -7117,7 +7117,7 @@
         <v>2.05</v>
       </c>
       <c r="S56" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T56" t="n">
         <v>12</v>
@@ -7209,7 +7209,7 @@
         <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="J57" t="n">
         <v>1.08</v>
@@ -7230,7 +7230,7 @@
         <v>1.62</v>
       </c>
       <c r="P57" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q57" t="n">
         <v>2.5</v>
@@ -7239,7 +7239,7 @@
         <v>2</v>
       </c>
       <c r="S57" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -7331,7 +7331,7 @@
         <v>2.77</v>
       </c>
       <c r="I58" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J58" t="n">
         <v>1.13</v>
@@ -7358,16 +7358,16 @@
         <v>2.25</v>
       </c>
       <c r="R58" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S58" t="n">
         <v>1.65</v>
       </c>
       <c r="T58" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U58" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V58" t="n">
         <v>11.75</v>
@@ -7385,7 +7385,7 @@
         <v>5.1</v>
       </c>
       <c r="AA58" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB58" t="n">
         <v>18</v>
@@ -7397,10 +7397,10 @@
         <v>101</v>
       </c>
       <c r="AE58" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AF58" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AG58" t="n">
         <v>10.25</v>
@@ -7409,10 +7409,10 @@
         <v>28</v>
       </c>
       <c r="AI58" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ58" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59">
@@ -7447,10 +7447,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="H59" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I59" t="n">
         <v>3.45</v>
@@ -7462,10 +7462,10 @@
         <v>5.5</v>
       </c>
       <c r="L59" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M59" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="N59" t="n">
         <v>2.35</v>
@@ -7474,49 +7474,49 @@
         <v>1.53</v>
       </c>
       <c r="P59" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R59" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S59" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T59" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U59" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V59" t="n">
         <v>9.25</v>
       </c>
       <c r="W59" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X59" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y59" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z59" t="n">
         <v>5.5</v>
       </c>
       <c r="AA59" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB59" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC59" t="n">
         <v>80</v>
       </c>
       <c r="AD59" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE59" t="n">
         <v>8.5</v>
@@ -7813,7 +7813,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H62" t="n">
         <v>3.1</v>
@@ -7822,22 +7822,22 @@
         <v>4.33</v>
       </c>
       <c r="J62" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L62" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M62" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N62" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O62" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="P62" t="n">
         <v>1.57</v>
@@ -7935,7 +7935,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H63" t="n">
         <v>3.7</v>
@@ -7944,10 +7944,10 @@
         <v>5.25</v>
       </c>
       <c r="J63" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L63" t="n">
         <v>1.29</v>
@@ -8785,37 +8785,37 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>3.4</v>
       </c>
       <c r="I70" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J70" t="n">
         <v>1.08</v>
       </c>
       <c r="K70" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="L70" t="n">
         <v>1.38</v>
       </c>
       <c r="M70" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="N70" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="O70" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P70" t="n">
         <v>1.44</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R70" t="n">
         <v>1.9</v>
@@ -8824,16 +8824,16 @@
         <v>1.82</v>
       </c>
       <c r="T70" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U70" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V70" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W70" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X70" t="n">
         <v>21</v>
@@ -8842,7 +8842,7 @@
         <v>37</v>
       </c>
       <c r="Z70" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA70" t="n">
         <v>6.8</v>
@@ -8854,13 +8854,13 @@
         <v>100</v>
       </c>
       <c r="AD70" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE70" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF70" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG70" t="n">
         <v>12</v>
@@ -8869,7 +8869,7 @@
         <v>40</v>
       </c>
       <c r="AI70" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ70" t="n">
         <v>45</v>
@@ -8907,27 +8907,27 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I71" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M71" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N71" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O71" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="P71" t="n">
         <v>1.38</v>
@@ -8942,31 +8942,31 @@
         <v>1.72</v>
       </c>
       <c r="T71" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U71" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="V71" t="n">
         <v>8.25</v>
       </c>
       <c r="W71" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="X71" t="n">
         <v>12.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z71" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA71" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AB71" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC71" t="n">
         <v>90</v>
@@ -8975,22 +8975,22 @@
         <v>800</v>
       </c>
       <c r="AE71" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF71" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AG71" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI71" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ71" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72">
@@ -9025,13 +9025,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="H72" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="I72" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="J72" t="n">
         <v>1.1</v>
@@ -9043,52 +9043,52 @@
         <v>1.47</v>
       </c>
       <c r="M72" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="N72" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O72" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P72" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R72" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S72" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T72" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U72" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>9</v>
+      </c>
+      <c r="W72" t="n">
+        <v>19</v>
+      </c>
+      <c r="X72" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA72" t="n">
         <v>5.8</v>
       </c>
-      <c r="U72" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="V72" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W72" t="n">
-        <v>24</v>
-      </c>
-      <c r="X72" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AB72" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC72" t="n">
         <v>110</v>
@@ -9097,22 +9097,22 @@
         <v>900</v>
       </c>
       <c r="AE72" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AF72" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AG72" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AH72" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI72" t="n">
         <v>45</v>
       </c>
-      <c r="AI72" t="n">
-        <v>35</v>
-      </c>
       <c r="AJ72" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73">
@@ -9265,90 +9265,90 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I74" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M74" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="N74" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="O74" t="n">
         <v>1.5</v>
       </c>
       <c r="P74" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R74" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S74" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T74" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U74" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V74" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W74" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X74" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y74" t="n">
         <v>45</v>
       </c>
       <c r="Z74" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA74" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB74" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC74" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD74" t="n">
         <v>101</v>
       </c>
       <c r="AE74" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AF74" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG74" t="n">
         <v>10.25</v>
       </c>
       <c r="AH74" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI74" t="n">
         <v>25</v>
       </c>
       <c r="AJ74" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75">
@@ -9505,13 +9505,13 @@
         </is>
       </c>
       <c r="G76" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H76" t="n">
         <v>2.75</v>
       </c>
-      <c r="H76" t="n">
-        <v>2.8</v>
-      </c>
       <c r="I76" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J76" t="n">
         <v>1.08</v>
@@ -9529,7 +9529,7 @@
         <v>2.15</v>
       </c>
       <c r="O76" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P76" t="n">
         <v>1.44</v>
@@ -9562,7 +9562,7 @@
         <v>34</v>
       </c>
       <c r="Z76" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA76" t="n">
         <v>5.5</v>
@@ -9627,7 +9627,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H77" t="n">
         <v>3.25</v>
@@ -9642,16 +9642,16 @@
         <v>8</v>
       </c>
       <c r="L77" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N77" t="n">
         <v>2.35</v>
       </c>
       <c r="O77" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P77" t="n">
         <v>1.5</v>
@@ -9770,10 +9770,10 @@
         <v>2.25</v>
       </c>
       <c r="N78" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="O78" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P78" t="n">
         <v>1.62</v>
@@ -10002,10 +10002,10 @@
         <v>1.48</v>
       </c>
       <c r="J80" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L80" t="n">
         <v>1.29</v>
@@ -10068,7 +10068,7 @@
         <v>6.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG80" t="n">
         <v>8.5</v>
@@ -10359,19 +10359,19 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H83" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I83" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J83" t="n">
         <v>1.08</v>
       </c>
       <c r="K83" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L83" t="n">
         <v>1.4</v>
@@ -10392,22 +10392,22 @@
         <v>2.5</v>
       </c>
       <c r="R83" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S83" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T83" t="n">
         <v>5</v>
       </c>
       <c r="U83" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V83" t="n">
         <v>9.5</v>
       </c>
       <c r="W83" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X83" t="n">
         <v>15</v>
@@ -10440,13 +10440,13 @@
         <v>23</v>
       </c>
       <c r="AH83" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI83" t="n">
         <v>67</v>
       </c>
       <c r="AJ83" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84">
@@ -10490,13 +10490,13 @@
         <v>2.05</v>
       </c>
       <c r="J84" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K84" t="n">
         <v>8.5</v>
       </c>
       <c r="L84" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
@@ -10606,7 +10606,7 @@
         <v>2.1</v>
       </c>
       <c r="H85" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
         <v>3.3</v>
@@ -10615,19 +10615,19 @@
         <v>1.08</v>
       </c>
       <c r="K85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L85" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M85" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N85" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="O85" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P85" t="n">
         <v>1.53</v>
@@ -10642,7 +10642,7 @@
         <v>1.67</v>
       </c>
       <c r="T85" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U85" t="n">
         <v>9.5</v>
@@ -10651,7 +10651,7 @@
         <v>10</v>
       </c>
       <c r="W85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X85" t="n">
         <v>21</v>
@@ -10660,35 +10660,35 @@
         <v>41</v>
       </c>
       <c r="Z85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA85" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC85" t="n">
         <v>67</v>
       </c>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AF85" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH85" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ85" t="n">
         <v>41</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="86">
@@ -11098,13 +11098,13 @@
         <v>2.4</v>
       </c>
       <c r="J89" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L89" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M89" t="n">
         <v>3.4</v>
@@ -11232,7 +11232,7 @@
         <v>3.75</v>
       </c>
       <c r="N90" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O90" t="n">
         <v>2.05</v>
@@ -11345,7 +11345,7 @@
         <v>1.04</v>
       </c>
       <c r="K91" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L91" t="n">
         <v>1.22</v>
@@ -11354,10 +11354,10 @@
         <v>4</v>
       </c>
       <c r="N91" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="O91" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="P91" t="n">
         <v>1.33</v>
@@ -11464,10 +11464,10 @@
         <v>5.75</v>
       </c>
       <c r="J92" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K92" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L92" t="n">
         <v>1.25</v>
@@ -11476,10 +11476,10 @@
         <v>3.75</v>
       </c>
       <c r="N92" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O92" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="P92" t="n">
         <v>1.36</v>
@@ -11494,7 +11494,7 @@
         <v>1.8</v>
       </c>
       <c r="T92" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U92" t="n">
         <v>7</v>
@@ -11524,7 +11524,7 @@
         <v>51</v>
       </c>
       <c r="AD92" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE92" t="n">
         <v>15</v>
@@ -11601,7 +11601,7 @@
         <v>2.15</v>
       </c>
       <c r="O93" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P93" t="n">
         <v>1.44</v>
@@ -11619,7 +11619,7 @@
         <v>7.5</v>
       </c>
       <c r="U93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V93" t="n">
         <v>10</v>
@@ -11640,7 +11640,7 @@
         <v>6.5</v>
       </c>
       <c r="AB93" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC93" t="n">
         <v>51</v>
@@ -11821,37 +11821,37 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H95" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I95" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J95" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K95" t="n">
         <v>11</v>
       </c>
       <c r="L95" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M95" t="n">
         <v>3.75</v>
       </c>
       <c r="N95" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O95" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P95" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q95" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R95" t="n">
         <v>1.73</v>
@@ -11863,7 +11863,7 @@
         <v>8</v>
       </c>
       <c r="U95" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V95" t="n">
         <v>8.5</v>
@@ -11872,7 +11872,7 @@
         <v>15</v>
       </c>
       <c r="X95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y95" t="n">
         <v>23</v>
@@ -11881,7 +11881,7 @@
         <v>11</v>
       </c>
       <c r="AA95" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB95" t="n">
         <v>13</v>
@@ -11896,13 +11896,13 @@
         <v>13</v>
       </c>
       <c r="AF95" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG95" t="n">
         <v>15</v>
       </c>
       <c r="AH95" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI95" t="n">
         <v>34</v>
@@ -11964,13 +11964,13 @@
         <v>3.75</v>
       </c>
       <c r="N96" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O96" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P96" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q96" t="n">
         <v>3</v>
@@ -12092,7 +12092,7 @@
         <v>2.3</v>
       </c>
       <c r="P97" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q97" t="n">
         <v>3.5</v>
@@ -12214,7 +12214,7 @@
         <v>2</v>
       </c>
       <c r="P98" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q98" t="n">
         <v>3</v>
@@ -12336,7 +12336,7 @@
         <v>2.3</v>
       </c>
       <c r="P99" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q99" t="n">
         <v>3.5</v>
@@ -12458,7 +12458,7 @@
         <v>2.15</v>
       </c>
       <c r="P100" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q100" t="n">
         <v>3.4</v>
@@ -12476,7 +12476,7 @@
         <v>12</v>
       </c>
       <c r="V100" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W100" t="n">
         <v>21</v>
@@ -12485,10 +12485,10 @@
         <v>17</v>
       </c>
       <c r="Y100" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA100" t="n">
         <v>7</v>
@@ -12500,7 +12500,7 @@
         <v>41</v>
       </c>
       <c r="AD100" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE100" t="n">
         <v>12</v>
@@ -12512,7 +12512,7 @@
         <v>11</v>
       </c>
       <c r="AH100" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI100" t="n">
         <v>21</v>
@@ -12553,13 +12553,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H101" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I101" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J101" t="n">
         <v>1.08</v>
@@ -12586,16 +12586,16 @@
         <v>2.5</v>
       </c>
       <c r="R101" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S101" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T101" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V101" t="n">
         <v>10</v>
@@ -12613,13 +12613,13 @@
         <v>8</v>
       </c>
       <c r="AA101" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB101" t="n">
         <v>17</v>
       </c>
       <c r="AC101" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD101" t="n">
         <v>900</v>
@@ -12628,7 +12628,7 @@
         <v>7.5</v>
       </c>
       <c r="AF101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG101" t="n">
         <v>11</v>
@@ -12640,7 +12640,7 @@
         <v>23</v>
       </c>
       <c r="AJ101" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102">
@@ -12818,10 +12818,10 @@
         <v>3.4</v>
       </c>
       <c r="N103" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O103" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="P103" t="n">
         <v>1.36</v>
@@ -12919,13 +12919,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="H104" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I104" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J104" t="n">
         <v>1.08</v>
@@ -12934,7 +12934,7 @@
         <v>6.3</v>
       </c>
       <c r="L104" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M104" t="n">
         <v>2.8</v>
@@ -12949,40 +12949,40 @@
         <v>1.44</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R104" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S104" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T104" t="n">
         <v>13.5</v>
       </c>
       <c r="U104" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V104" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="W104" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="X104" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Y104" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Z104" t="n">
         <v>6.3</v>
       </c>
       <c r="AA104" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB104" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC104" t="n">
         <v>120</v>
@@ -12991,19 +12991,19 @@
         <v>101</v>
       </c>
       <c r="AE104" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AF104" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AG104" t="n">
         <v>8.25</v>
       </c>
       <c r="AH104" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AI104" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ104" t="n">
         <v>35</v>
@@ -13390,10 +13390,10 @@
         <v>3.9</v>
       </c>
       <c r="H108" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I108" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -13407,7 +13407,7 @@
         <v>1.65</v>
       </c>
       <c r="O108" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
@@ -13415,10 +13415,10 @@
         <v>1.6</v>
       </c>
       <c r="S108" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T108" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U108" t="n">
         <v>24</v>
@@ -13436,31 +13436,31 @@
         <v>32</v>
       </c>
       <c r="Z108" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA108" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AB108" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC108" t="n">
         <v>50</v>
       </c>
       <c r="AD108" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE108" t="n">
         <v>8.25</v>
       </c>
       <c r="AF108" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG108" t="n">
         <v>8.25</v>
       </c>
       <c r="AH108" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI108" t="n">
         <v>13.5</v>
@@ -13501,7 +13501,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>3.9</v>
@@ -13528,13 +13528,13 @@
         <v>2.3</v>
       </c>
       <c r="P109" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q109" t="n">
         <v>3.5</v>
       </c>
       <c r="R109" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S109" t="n">
         <v>2.25</v>
@@ -13650,16 +13650,16 @@
         <v>2.5</v>
       </c>
       <c r="P110" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q110" t="n">
         <v>3.75</v>
       </c>
       <c r="R110" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S110" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T110" t="n">
         <v>13</v>
@@ -13751,7 +13751,7 @@
         <v>3.7</v>
       </c>
       <c r="I111" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="J111" t="n">
         <v>1.03</v>
@@ -13778,10 +13778,10 @@
         <v>3.5</v>
       </c>
       <c r="R111" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S111" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
@@ -13867,7 +13867,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H112" t="n">
         <v>3.4</v>
@@ -13888,10 +13888,10 @@
         <v>4.33</v>
       </c>
       <c r="N112" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="O112" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P112" t="n">
         <v>1.3</v>
@@ -13900,7 +13900,7 @@
         <v>3.4</v>
       </c>
       <c r="R112" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S112" t="n">
         <v>2.25</v>
@@ -14010,7 +14010,7 @@
         <v>4.33</v>
       </c>
       <c r="N113" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="O113" t="n">
         <v>2.15</v>
@@ -14132,7 +14132,7 @@
         <v>5.5</v>
       </c>
       <c r="N114" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O114" t="n">
         <v>2.4</v>
@@ -14257,7 +14257,7 @@
         <v>2.05</v>
       </c>
       <c r="O115" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P115" t="n">
         <v>1.44</v>
@@ -14379,7 +14379,7 @@
         <v>2.05</v>
       </c>
       <c r="O116" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P116" t="n">
         <v>1.4</v>
@@ -14924,13 +14924,13 @@
         <v>2.3</v>
       </c>
       <c r="J121" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K121" t="n">
         <v>13</v>
       </c>
       <c r="L121" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M121" t="n">
         <v>4</v>
@@ -14948,7 +14948,7 @@
         <v>3.25</v>
       </c>
       <c r="R121" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S121" t="n">
         <v>2.2</v>
@@ -14969,16 +14969,16 @@
         <v>21</v>
       </c>
       <c r="Y121" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z121" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA121" t="n">
         <v>6.5</v>
       </c>
       <c r="AB121" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC121" t="n">
         <v>41</v>
@@ -14987,10 +14987,10 @@
         <v>151</v>
       </c>
       <c r="AE121" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF121" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG121" t="n">
         <v>9.5</v>
@@ -15002,7 +15002,7 @@
         <v>17</v>
       </c>
       <c r="AJ121" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122">
@@ -15037,7 +15037,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H122" t="n">
         <v>3.4</v>
@@ -15046,22 +15046,22 @@
         <v>3.5</v>
       </c>
       <c r="J122" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K122" t="n">
         <v>11</v>
       </c>
       <c r="L122" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M122" t="n">
         <v>3.5</v>
       </c>
       <c r="N122" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O122" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P122" t="n">
         <v>1.36</v>
@@ -15070,7 +15070,7 @@
         <v>3</v>
       </c>
       <c r="R122" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S122" t="n">
         <v>2</v>
@@ -15100,7 +15100,7 @@
         <v>6.5</v>
       </c>
       <c r="AB122" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC122" t="n">
         <v>41</v>
@@ -15168,13 +15168,13 @@
         <v>2.25</v>
       </c>
       <c r="J123" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K123" t="n">
         <v>17</v>
       </c>
       <c r="L123" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M123" t="n">
         <v>5</v>
@@ -15192,7 +15192,7 @@
         <v>3.5</v>
       </c>
       <c r="R123" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S123" t="n">
         <v>2.5</v>
@@ -15281,13 +15281,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="H124" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I124" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="J124" t="n">
         <v>1.04</v>
@@ -15314,25 +15314,25 @@
         <v>3.05</v>
       </c>
       <c r="R124" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S124" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="T124" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="U124" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="V124" t="n">
         <v>8.5</v>
       </c>
       <c r="W124" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="X124" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y124" t="n">
         <v>21</v>
@@ -15341,34 +15341,34 @@
         <v>8.5</v>
       </c>
       <c r="AA124" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AB124" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AC124" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD124" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE124" t="n">
         <v>13</v>
       </c>
       <c r="AF124" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG124" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AH124" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI124" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AJ124" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
@@ -15525,91 +15525,91 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="H126" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I126" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J126" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K126" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="L126" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M126" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O126" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="P126" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q126" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R126" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S126" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="T126" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U126" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="V126" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="W126" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X126" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y126" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z126" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA126" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB126" t="n">
         <v>11</v>
       </c>
       <c r="AC126" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD126" t="n">
         <v>150</v>
       </c>
       <c r="AE126" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AF126" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG126" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH126" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI126" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ126" t="n">
         <v>17</v>
@@ -15647,13 +15647,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="H127" t="n">
         <v>3.15</v>
       </c>
       <c r="I127" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
         <v>1.8</v>
       </c>
       <c r="O127" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P127" t="n">
         <v>1.39</v>
@@ -15682,16 +15682,16 @@
         <v>2.05</v>
       </c>
       <c r="T127" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U127" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V127" t="n">
         <v>9.25</v>
       </c>
       <c r="W127" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X127" t="n">
         <v>20</v>
@@ -15700,7 +15700,7 @@
         <v>27</v>
       </c>
       <c r="Z127" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA127" t="n">
         <v>6.2</v>
@@ -15715,10 +15715,10 @@
         <v>350</v>
       </c>
       <c r="AE127" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF127" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG127" t="n">
         <v>9.75</v>
@@ -15730,7 +15730,7 @@
         <v>21</v>
       </c>
       <c r="AJ127" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128">
@@ -15765,13 +15765,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="H128" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I128" t="n">
-        <v>3.7</v>
+        <v>4.05</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -15790,61 +15790,61 @@
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S128" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T128" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="U128" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="V128" t="n">
         <v>8.25</v>
       </c>
       <c r="W128" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="X128" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB128" t="n">
         <v>14</v>
       </c>
-      <c r="Y128" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z128" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AA128" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AB128" t="n">
+      <c r="AC128" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE128" t="n">
         <v>13</v>
       </c>
-      <c r="AC128" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AF128" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG128" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH128" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI128" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ128" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129">
@@ -15903,7 +15903,7 @@
         <v>1.5</v>
       </c>
       <c r="O129" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P129" t="n">
         <v>1.25</v>
@@ -15912,7 +15912,7 @@
         <v>3.75</v>
       </c>
       <c r="R129" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S129" t="n">
         <v>2.2</v>
@@ -16025,7 +16025,7 @@
         <v>2.3</v>
       </c>
       <c r="O130" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P130" t="n">
         <v>1.5</v>
@@ -16034,10 +16034,10 @@
         <v>2.5</v>
       </c>
       <c r="R130" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S130" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T130" t="n">
         <v>8.5</v>
@@ -16147,7 +16147,7 @@
         <v>2.4</v>
       </c>
       <c r="O131" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P131" t="n">
         <v>1.5</v>
@@ -16159,7 +16159,7 @@
         <v>2</v>
       </c>
       <c r="S131" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T131" t="n">
         <v>7.5</v>
@@ -16257,7 +16257,7 @@
         <v>1.07</v>
       </c>
       <c r="K132" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L132" t="n">
         <v>1.33</v>
@@ -16266,10 +16266,10 @@
         <v>3.25</v>
       </c>
       <c r="N132" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="O132" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P132" t="n">
         <v>1.44</v>
@@ -16278,10 +16278,10 @@
         <v>2.63</v>
       </c>
       <c r="R132" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S132" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T132" t="n">
         <v>7.5</v>
@@ -16388,10 +16388,10 @@
         <v>4</v>
       </c>
       <c r="N133" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="O133" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P133" t="n">
         <v>1.33</v>
@@ -16400,7 +16400,7 @@
         <v>3.25</v>
       </c>
       <c r="R133" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S133" t="n">
         <v>2.2</v>
@@ -16489,13 +16489,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H134" t="n">
         <v>3.1</v>
       </c>
       <c r="I134" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J134" t="n">
         <v>1.07</v>
@@ -16504,22 +16504,22 @@
         <v>9</v>
       </c>
       <c r="L134" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M134" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N134" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O134" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P134" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R134" t="n">
         <v>1.91</v>
@@ -16528,16 +16528,16 @@
         <v>1.91</v>
       </c>
       <c r="T134" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U134" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V134" t="n">
         <v>9.5</v>
       </c>
       <c r="W134" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X134" t="n">
         <v>21</v>
@@ -16546,7 +16546,7 @@
         <v>34</v>
       </c>
       <c r="Z134" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA134" t="n">
         <v>6</v>
@@ -16573,10 +16573,10 @@
         <v>34</v>
       </c>
       <c r="AI134" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ134" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
@@ -16611,19 +16611,19 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="H135" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="I135" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J135" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K135" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L135" t="n">
         <v>1.4</v>
@@ -16638,7 +16638,7 @@
         <v>1.6</v>
       </c>
       <c r="P135" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q135" t="n">
         <v>2.5</v>
@@ -16653,13 +16653,13 @@
         <v>6.5</v>
       </c>
       <c r="U135" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V135" t="n">
         <v>9.5</v>
       </c>
       <c r="W135" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X135" t="n">
         <v>19</v>
@@ -16683,10 +16683,10 @@
         <v>401</v>
       </c>
       <c r="AE135" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF135" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG135" t="n">
         <v>15</v>
@@ -16695,7 +16695,7 @@
         <v>41</v>
       </c>
       <c r="AI135" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ135" t="n">
         <v>41</v>
@@ -16733,13 +16733,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H136" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I136" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J136" t="n">
         <v>1.1</v>
@@ -16760,7 +16760,7 @@
         <v>1.57</v>
       </c>
       <c r="P136" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q136" t="n">
         <v>2.5</v>
@@ -16805,19 +16805,19 @@
         <v>351</v>
       </c>
       <c r="AE136" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF136" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG136" t="n">
         <v>11</v>
       </c>
-      <c r="AG136" t="n">
-        <v>10</v>
-      </c>
       <c r="AH136" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI136" t="n">
         <v>23</v>
-      </c>
-      <c r="AI136" t="n">
-        <v>21</v>
       </c>
       <c r="AJ136" t="n">
         <v>34</v>
@@ -16855,7 +16855,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H137" t="n">
         <v>3.1</v>
@@ -16876,13 +16876,13 @@
         <v>3.75</v>
       </c>
       <c r="N137" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O137" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P137" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q137" t="n">
         <v>3</v>
@@ -16977,7 +16977,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H138" t="n">
         <v>3.4</v>
@@ -17004,10 +17004,10 @@
         <v>1.65</v>
       </c>
       <c r="P138" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q138" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R138" t="n">
         <v>2</v>
@@ -17099,13 +17099,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H139" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="I139" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J139" t="n">
         <v>1.05</v>
@@ -17120,22 +17120,22 @@
         <v>4</v>
       </c>
       <c r="N139" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O139" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P139" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q139" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R139" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S139" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T139" t="n">
         <v>11</v>
@@ -17147,28 +17147,28 @@
         <v>11</v>
       </c>
       <c r="W139" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X139" t="n">
         <v>21</v>
       </c>
       <c r="Y139" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z139" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA139" t="n">
         <v>5.5</v>
       </c>
       <c r="AB139" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC139" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD139" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE139" t="n">
         <v>11</v>
@@ -17180,13 +17180,13 @@
         <v>11</v>
       </c>
       <c r="AH139" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI139" t="n">
         <v>21</v>
       </c>
       <c r="AJ139" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140">
@@ -17242,7 +17242,7 @@
         <v>2.57</v>
       </c>
       <c r="N140" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="O140" t="n">
         <v>1.55</v>
@@ -17260,7 +17260,7 @@
         <v>1.7</v>
       </c>
       <c r="T140" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U140" t="n">
         <v>9.25</v>
@@ -17272,10 +17272,10 @@
         <v>20</v>
       </c>
       <c r="X140" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y140" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z140" t="n">
         <v>6</v>
@@ -17293,7 +17293,7 @@
         <v>1000</v>
       </c>
       <c r="AE140" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF140" t="n">
         <v>15.5</v>
@@ -17382,7 +17382,7 @@
         <v>1.65</v>
       </c>
       <c r="T141" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="U141" t="n">
         <v>10.5</v>
@@ -17394,7 +17394,7 @@
         <v>26</v>
       </c>
       <c r="X141" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y141" t="n">
         <v>45</v>
@@ -17409,19 +17409,19 @@
         <v>18</v>
       </c>
       <c r="AC141" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD141" t="n">
         <v>900</v>
       </c>
       <c r="AE141" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AF141" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG141" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH141" t="n">
         <v>37</v>
@@ -17430,7 +17430,7 @@
         <v>32</v>
       </c>
       <c r="AJ141" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142">
@@ -17593,13 +17593,13 @@
         <v>3.55</v>
       </c>
       <c r="I143" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="J143" t="n">
         <v>1.06</v>
       </c>
       <c r="K143" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="L143" t="n">
         <v>1.31</v>
@@ -17608,10 +17608,10 @@
         <v>3.15</v>
       </c>
       <c r="N143" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O143" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P143" t="n">
         <v>1.42</v>
@@ -17626,13 +17626,13 @@
         <v>1.82</v>
       </c>
       <c r="T143" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U143" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="V143" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W143" t="n">
         <v>12.5</v>
@@ -17644,7 +17644,7 @@
         <v>28</v>
       </c>
       <c r="Z143" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA143" t="n">
         <v>7</v>
@@ -17653,16 +17653,16 @@
         <v>17</v>
       </c>
       <c r="AC143" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD143" t="n">
         <v>700</v>
       </c>
       <c r="AE143" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF143" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG143" t="n">
         <v>16</v>
@@ -17671,7 +17671,7 @@
         <v>90</v>
       </c>
       <c r="AI143" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ143" t="n">
         <v>55</v>
@@ -17736,7 +17736,7 @@
         <v>1.72</v>
       </c>
       <c r="P144" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q144" t="n">
         <v>2.57</v>
@@ -17775,7 +17775,7 @@
         <v>16.5</v>
       </c>
       <c r="AC144" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD144" t="n">
         <v>700</v>
@@ -17831,94 +17831,94 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I145" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="J145" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K145" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="L145" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M145" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="N145" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O145" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P145" t="n">
         <v>1.47</v>
       </c>
       <c r="Q145" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R145" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S145" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T145" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="U145" t="n">
         <v>10.5</v>
       </c>
       <c r="V145" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W145" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X145" t="n">
         <v>20</v>
       </c>
       <c r="Y145" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z145" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA145" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB145" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC145" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD145" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE145" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF145" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG145" t="n">
         <v>10.75</v>
       </c>
       <c r="AH145" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI145" t="n">
         <v>26</v>
       </c>
       <c r="AJ145" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146">
@@ -17953,82 +17953,82 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I146" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J146" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K146" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L146" t="n">
         <v>1.39</v>
       </c>
       <c r="M146" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="N146" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O146" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P146" t="n">
         <v>1.5</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R146" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S146" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T146" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="U146" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="V146" t="n">
         <v>9</v>
       </c>
       <c r="W146" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="X146" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y146" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z146" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA146" t="n">
         <v>6.2</v>
       </c>
-      <c r="AA146" t="n">
-        <v>5.9</v>
-      </c>
       <c r="AB146" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC146" t="n">
         <v>80</v>
       </c>
       <c r="AD146" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE146" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF146" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG146" t="n">
         <v>11.5</v>
@@ -18037,10 +18037,10 @@
         <v>40</v>
       </c>
       <c r="AI146" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ146" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147">
@@ -18075,67 +18075,67 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I147" t="n">
         <v>2.52</v>
       </c>
       <c r="J147" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K147" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="L147" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M147" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="N147" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O147" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P147" t="n">
         <v>1.47</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R147" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S147" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T147" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U147" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V147" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W147" t="n">
         <v>32</v>
       </c>
       <c r="X147" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y147" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z147" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA147" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB147" t="n">
         <v>13.5</v>
@@ -18147,7 +18147,7 @@
         <v>500</v>
       </c>
       <c r="AE147" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF147" t="n">
         <v>12.5</v>
@@ -18156,13 +18156,13 @@
         <v>9.5</v>
       </c>
       <c r="AH147" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI147" t="n">
         <v>22</v>
       </c>
       <c r="AJ147" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148">
@@ -18209,37 +18209,37 @@
         <v>1.09</v>
       </c>
       <c r="K148" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="L148" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M148" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="N148" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O148" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P148" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R148" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S148" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T148" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U148" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V148" t="n">
         <v>9.25</v>
@@ -18251,28 +18251,28 @@
         <v>20</v>
       </c>
       <c r="Y148" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z148" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AA148" t="n">
         <v>6</v>
       </c>
-      <c r="AA148" t="n">
-        <v>6.1</v>
-      </c>
       <c r="AB148" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC148" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD148" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE148" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AF148" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG148" t="n">
         <v>11.75</v>
@@ -18284,7 +18284,7 @@
         <v>32</v>
       </c>
       <c r="AJ148" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149">
@@ -18319,13 +18319,13 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="H149" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I149" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -18333,57 +18333,57 @@
         <v>1.26</v>
       </c>
       <c r="M149" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N149" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O149" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S149" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T149" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="U149" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="V149" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W149" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X149" t="n">
         <v>19</v>
       </c>
       <c r="Y149" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z149" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA149" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB149" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC149" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD149" t="n">
         <v>250</v>
       </c>
       <c r="AE149" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF149" t="n">
         <v>9.25</v>
@@ -18392,13 +18392,13 @@
         <v>7.5</v>
       </c>
       <c r="AH149" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI149" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ149" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150">
@@ -18551,90 +18551,90 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H151" t="n">
         <v>3.6</v>
       </c>
       <c r="I151" t="n">
-        <v>4.85</v>
+        <v>5.3</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M151" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N151" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O151" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P151" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S151" t="n">
         <v>1.75</v>
       </c>
-      <c r="P151" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q151" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="R151" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S151" t="n">
-        <v>1.85</v>
-      </c>
       <c r="T151" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="U151" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="V151" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="W151" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="X151" t="n">
         <v>10.75</v>
       </c>
       <c r="Y151" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z151" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA151" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB151" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC151" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD151" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AE151" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF151" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG151" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH151" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI151" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ151" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152">
@@ -18672,16 +18672,16 @@
         <v>1.8</v>
       </c>
       <c r="H152" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I152" t="n">
         <v>4.5</v>
       </c>
       <c r="J152" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K152" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L152" t="n">
         <v>1.33</v>
@@ -18714,7 +18714,7 @@
         <v>8</v>
       </c>
       <c r="V152" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W152" t="n">
         <v>15</v>
@@ -18738,13 +18738,13 @@
         <v>51</v>
       </c>
       <c r="AD152" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE152" t="n">
         <v>11</v>
       </c>
       <c r="AF152" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG152" t="n">
         <v>15</v>
@@ -18791,13 +18791,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="H153" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I153" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -18820,34 +18820,34 @@
         <v>2.52</v>
       </c>
       <c r="R153" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S153" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T153" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="U153" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="V153" t="n">
         <v>9</v>
       </c>
       <c r="W153" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X153" t="n">
         <v>18</v>
       </c>
       <c r="Y153" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z153" t="n">
         <v>9.75</v>
       </c>
       <c r="AA153" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB153" t="n">
         <v>13.5</v>
@@ -18859,22 +18859,22 @@
         <v>450</v>
       </c>
       <c r="AE153" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AF153" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG153" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH153" t="n">
         <v>37</v>
       </c>
       <c r="AI153" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ153" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154">
@@ -18908,36 +18908,88 @@
           <t>IR Tanger</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>16</v>
+      </c>
+      <c r="H154" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.19</v>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M154" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O154" t="n">
+        <v>2.07</v>
+      </c>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr"/>
-      <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
-      <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
-      <c r="Z154" t="inlineStr"/>
-      <c r="AA154" t="inlineStr"/>
-      <c r="AB154" t="inlineStr"/>
-      <c r="AC154" t="inlineStr"/>
-      <c r="AD154" t="inlineStr"/>
-      <c r="AE154" t="inlineStr"/>
-      <c r="AF154" t="inlineStr"/>
-      <c r="AG154" t="inlineStr"/>
-      <c r="AH154" t="inlineStr"/>
-      <c r="AI154" t="inlineStr"/>
-      <c r="AJ154" t="inlineStr"/>
+      <c r="R154" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S154" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T154" t="n">
+        <v>40</v>
+      </c>
+      <c r="U154" t="n">
+        <v>175</v>
+      </c>
+      <c r="V154" t="n">
+        <v>50</v>
+      </c>
+      <c r="W154" t="n">
+        <v>900</v>
+      </c>
+      <c r="X154" t="n">
+        <v>300</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -18971,19 +19023,19 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H155" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I155" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="J155" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K155" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L155" t="n">
         <v>1.44</v>
@@ -19004,34 +19056,34 @@
         <v>2.38</v>
       </c>
       <c r="R155" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S155" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T155" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U155" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="V155" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W155" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X155" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y155" t="n">
         <v>51</v>
       </c>
       <c r="Z155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA155" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AA155" t="n">
-        <v>7</v>
       </c>
       <c r="AB155" t="n">
         <v>21</v>
@@ -19043,19 +19095,19 @@
         <v>101</v>
       </c>
       <c r="AE155" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF155" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG155" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH155" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI155" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ155" t="n">
         <v>41</v>
@@ -19215,13 +19267,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H157" t="n">
         <v>3.1</v>
       </c>
       <c r="I157" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J157" t="n">
         <v>1.1</v>
@@ -19236,10 +19288,10 @@
         <v>2.63</v>
       </c>
       <c r="N157" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O157" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P157" t="n">
         <v>1.53</v>
@@ -19257,7 +19309,7 @@
         <v>5.5</v>
       </c>
       <c r="U157" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V157" t="n">
         <v>9.5</v>
@@ -19337,94 +19389,94 @@
         </is>
       </c>
       <c r="G158" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I158" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>7</v>
+      </c>
+      <c r="L158" t="n">
         <v>1.44</v>
       </c>
-      <c r="H158" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I158" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J158" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K158" t="n">
-        <v>8</v>
-      </c>
-      <c r="L158" t="n">
-        <v>1.4</v>
-      </c>
       <c r="M158" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N158" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O158" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P158" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R158" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S158" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T158" t="n">
         <v>5</v>
       </c>
       <c r="U158" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V158" t="n">
         <v>9</v>
       </c>
       <c r="W158" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="X158" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y158" t="n">
         <v>41</v>
       </c>
       <c r="Z158" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA158" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB158" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC158" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD158" t="n">
         <v>101</v>
       </c>
       <c r="AE158" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF158" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG158" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH158" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI158" t="n">
         <v>51</v>
       </c>
       <c r="AJ158" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159">
@@ -19459,19 +19511,19 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I159" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="J159" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K159" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L159" t="n">
         <v>1.5</v>
@@ -19480,10 +19532,10 @@
         <v>2.5</v>
       </c>
       <c r="N159" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O159" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P159" t="n">
         <v>1.57</v>
@@ -19501,22 +19553,22 @@
         <v>6</v>
       </c>
       <c r="U159" t="n">
+        <v>9</v>
+      </c>
+      <c r="V159" t="n">
         <v>10</v>
       </c>
-      <c r="V159" t="n">
-        <v>11</v>
-      </c>
       <c r="W159" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X159" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y159" t="n">
         <v>41</v>
       </c>
       <c r="Z159" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA159" t="n">
         <v>6.5</v>
@@ -19531,19 +19583,19 @@
         <v>101</v>
       </c>
       <c r="AE159" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF159" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG159" t="n">
         <v>13</v>
       </c>
-      <c r="AG159" t="n">
-        <v>12</v>
-      </c>
       <c r="AH159" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI159" t="n">
         <v>34</v>
-      </c>
-      <c r="AI159" t="n">
-        <v>29</v>
       </c>
       <c r="AJ159" t="n">
         <v>41</v>
@@ -19581,25 +19633,25 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H160" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I160" t="n">
         <v>2.2</v>
       </c>
       <c r="J160" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K160" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L160" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M160" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N160" t="n">
         <v>2.7</v>
@@ -19608,19 +19660,19 @@
         <v>1.44</v>
       </c>
       <c r="P160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S160" t="n">
         <v>1.62</v>
       </c>
-      <c r="Q160" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R160" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S160" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T160" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U160" t="n">
         <v>15</v>
@@ -19635,13 +19687,13 @@
         <v>34</v>
       </c>
       <c r="Y160" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z160" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA160" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB160" t="n">
         <v>21</v>
@@ -19653,10 +19705,10 @@
         <v>101</v>
       </c>
       <c r="AE160" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF160" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG160" t="n">
         <v>10</v>
@@ -19715,13 +19767,13 @@
         <v>1.03</v>
       </c>
       <c r="K161" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L161" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M161" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N161" t="n">
         <v>1.53</v>
@@ -19846,10 +19898,10 @@
         <v>5</v>
       </c>
       <c r="N162" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O162" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P162" t="n">
         <v>1.25</v>
@@ -20069,13 +20121,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I164" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J164" t="n">
         <v>1.02</v>
@@ -20108,7 +20160,7 @@
         <v>2.63</v>
       </c>
       <c r="T164" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U164" t="n">
         <v>12</v>
@@ -20120,7 +20172,7 @@
         <v>17</v>
       </c>
       <c r="X164" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y164" t="n">
         <v>17</v>
@@ -20129,7 +20181,7 @@
         <v>21</v>
       </c>
       <c r="AA164" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB164" t="n">
         <v>11</v>
@@ -20141,10 +20193,10 @@
         <v>81</v>
       </c>
       <c r="AE164" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF164" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG164" t="n">
         <v>15</v>
@@ -20153,10 +20205,10 @@
         <v>41</v>
       </c>
       <c r="AI164" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ164" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165">
@@ -20206,10 +20258,10 @@
         <v>17</v>
       </c>
       <c r="L165" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M165" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N165" t="n">
         <v>1.53</v>
@@ -20456,10 +20508,10 @@
         <v>4</v>
       </c>
       <c r="N167" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O167" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P167" t="n">
         <v>1.3</v>
@@ -20566,10 +20618,10 @@
         <v>4.33</v>
       </c>
       <c r="J168" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K168" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L168" t="n">
         <v>1.5</v>
@@ -21035,31 +21087,31 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H172" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I172" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J172" t="n">
         <v>1.04</v>
       </c>
       <c r="K172" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L172" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M172" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N172" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="O172" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="P172" t="n">
         <v>1.33</v>
@@ -21068,16 +21120,16 @@
         <v>3.25</v>
       </c>
       <c r="R172" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S172" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T172" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U172" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V172" t="n">
         <v>8.5</v>
@@ -21092,22 +21144,22 @@
         <v>23</v>
       </c>
       <c r="Z172" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA172" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB172" t="n">
         <v>15</v>
       </c>
       <c r="AC172" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD172" t="n">
         <v>201</v>
       </c>
       <c r="AE172" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF172" t="n">
         <v>23</v>
@@ -21119,7 +21171,7 @@
         <v>51</v>
       </c>
       <c r="AI172" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ172" t="n">
         <v>41</v>
@@ -21178,10 +21230,10 @@
         <v>3.5</v>
       </c>
       <c r="N173" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O173" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P173" t="n">
         <v>1.4</v>
@@ -21422,10 +21474,10 @@
         <v>2.63</v>
       </c>
       <c r="N175" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O175" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="P175" t="n">
         <v>1.53</v>
@@ -21544,7 +21596,7 @@
         <v>4.33</v>
       </c>
       <c r="N176" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="O176" t="n">
         <v>2.15</v>
@@ -21666,10 +21718,10 @@
         <v>4.5</v>
       </c>
       <c r="N177" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="O177" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P177" t="n">
         <v>1.3</v>
@@ -21800,10 +21852,10 @@
         <v>3</v>
       </c>
       <c r="R178" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S178" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T178" t="n">
         <v>7</v>
@@ -21922,10 +21974,10 @@
         <v>3</v>
       </c>
       <c r="R179" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S179" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T179" t="n">
         <v>7.5</v>
@@ -22032,10 +22084,10 @@
         <v>4</v>
       </c>
       <c r="N180" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O180" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="P180" t="n">
         <v>1.33</v>
@@ -22044,13 +22096,13 @@
         <v>3.25</v>
       </c>
       <c r="R180" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="S180" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T180" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U180" t="n">
         <v>10</v>
@@ -22068,7 +22120,7 @@
         <v>23</v>
       </c>
       <c r="Z180" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA180" t="n">
         <v>7</v>
@@ -22083,7 +22135,7 @@
         <v>151</v>
       </c>
       <c r="AE180" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF180" t="n">
         <v>21</v>
@@ -22133,13 +22185,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H181" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I181" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J181" t="n">
         <v>1.05</v>
@@ -22166,19 +22218,19 @@
         <v>2.75</v>
       </c>
       <c r="R181" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S181" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T181" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U181" t="n">
         <v>12</v>
       </c>
       <c r="V181" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W181" t="n">
         <v>23</v>
@@ -22190,19 +22242,19 @@
         <v>29</v>
       </c>
       <c r="Z181" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA181" t="n">
         <v>6.5</v>
       </c>
       <c r="AB181" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC181" t="n">
         <v>51</v>
       </c>
       <c r="AD181" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE181" t="n">
         <v>9</v>
@@ -22211,16 +22263,16 @@
         <v>13</v>
       </c>
       <c r="AG181" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH181" t="n">
         <v>29</v>
       </c>
       <c r="AI181" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ181" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182">
@@ -22276,10 +22328,10 @@
         <v>3.25</v>
       </c>
       <c r="N182" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="O182" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P182" t="n">
         <v>1.44</v>
@@ -22288,10 +22340,10 @@
         <v>2.63</v>
       </c>
       <c r="R182" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S182" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T182" t="n">
         <v>7</v>
@@ -22377,52 +22429,52 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="H183" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I183" t="n">
         <v>21</v>
       </c>
       <c r="J183" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K183" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L183" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M183" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N183" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="O183" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P183" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q183" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R183" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="S183" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T183" t="n">
         <v>8</v>
       </c>
       <c r="U183" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V183" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W183" t="n">
         <v>6</v>
@@ -22440,29 +22492,29 @@
         <v>15</v>
       </c>
       <c r="AB183" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC183" t="n">
         <v>126</v>
       </c>
       <c r="AD183" t="inlineStr"/>
       <c r="AE183" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF183" t="n">
         <v>81</v>
       </c>
       <c r="AG183" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH183" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AI183" t="n">
         <v>151</v>
       </c>
       <c r="AJ183" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="184">
@@ -22497,7 +22549,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H184" t="n">
         <v>3.4</v>
@@ -22518,10 +22570,10 @@
         <v>3.5</v>
       </c>
       <c r="N184" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O184" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P184" t="n">
         <v>1.4</v>
@@ -22741,19 +22793,19 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H186" t="n">
         <v>3.2</v>
       </c>
       <c r="I186" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J186" t="n">
         <v>1.07</v>
       </c>
       <c r="K186" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L186" t="n">
         <v>1.36</v>
@@ -22774,13 +22826,13 @@
         <v>2.63</v>
       </c>
       <c r="R186" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S186" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T186" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U186" t="n">
         <v>11</v>
@@ -22804,13 +22856,13 @@
         <v>6.5</v>
       </c>
       <c r="AB186" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC186" t="n">
         <v>51</v>
       </c>
       <c r="AD186" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE186" t="n">
         <v>8</v>
@@ -22825,7 +22877,7 @@
         <v>29</v>
       </c>
       <c r="AI186" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ186" t="n">
         <v>34</v>
@@ -25279,91 +25331,91 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="H211" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="I211" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="J211" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K211" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L211" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="M211" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N211" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O211" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="P211" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="Q211" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="R211" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="S211" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="T211" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="U211" t="n">
         <v>7.4</v>
       </c>
       <c r="V211" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="W211" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="X211" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y211" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF211" t="n">
         <v>32</v>
       </c>
-      <c r="Z211" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA211" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB211" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC211" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD211" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE211" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF211" t="n">
-        <v>24</v>
-      </c>
       <c r="AG211" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH211" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AI211" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ211" t="n">
         <v>55</v>
@@ -26032,10 +26084,10 @@
         <v>3.25</v>
       </c>
       <c r="N217" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O217" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P217" t="n">
         <v>1.4</v>
@@ -26133,13 +26185,13 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H218" t="n">
         <v>3.5</v>
       </c>
       <c r="I218" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J218" t="n">
         <v>1.05</v>
@@ -26148,16 +26200,16 @@
         <v>11</v>
       </c>
       <c r="L218" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M218" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N218" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O218" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P218" t="n">
         <v>1.36</v>
@@ -26187,7 +26239,7 @@
         <v>29</v>
       </c>
       <c r="Y218" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z218" t="n">
         <v>10</v>
@@ -26208,16 +26260,16 @@
         <v>7.5</v>
       </c>
       <c r="AF218" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG218" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH218" t="n">
         <v>17</v>
       </c>
       <c r="AI218" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ218" t="n">
         <v>26</v>
@@ -26752,10 +26804,10 @@
         <v>3.3</v>
       </c>
       <c r="J223" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K223" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L223" t="n">
         <v>1.29</v>
@@ -26987,13 +27039,13 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H225" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I225" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J225" t="n">
         <v>1.08</v>
@@ -27029,7 +27081,7 @@
         <v>8</v>
       </c>
       <c r="U225" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V225" t="n">
         <v>13</v>
@@ -27062,7 +27114,7 @@
         <v>6</v>
       </c>
       <c r="AF225" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG225" t="n">
         <v>9.5</v>
@@ -27071,7 +27123,7 @@
         <v>19</v>
       </c>
       <c r="AI225" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ225" t="n">
         <v>34</v>
@@ -28213,7 +28265,7 @@
         <v>3.25</v>
       </c>
       <c r="I235" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J235" t="n">
         <v>1.07</v>
@@ -28329,7 +28381,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H236" t="n">
         <v>3.4</v>
@@ -28451,7 +28503,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H237" t="n">
         <v>3.1</v>
@@ -28576,16 +28628,16 @@
         <v>2.75</v>
       </c>
       <c r="H238" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I238" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J238" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K238" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L238" t="n">
         <v>1.44</v>
@@ -28594,22 +28646,22 @@
         <v>2.63</v>
       </c>
       <c r="N238" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O238" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P238" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q238" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R238" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S238" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T238" t="n">
         <v>7</v>
@@ -28636,13 +28688,13 @@
         <v>6</v>
       </c>
       <c r="AB238" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC238" t="n">
         <v>67</v>
       </c>
       <c r="AD238" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE238" t="n">
         <v>7</v>
@@ -28654,10 +28706,10 @@
         <v>11</v>
       </c>
       <c r="AH238" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI238" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ238" t="n">
         <v>41</v>
@@ -28838,10 +28890,10 @@
         <v>3.5</v>
       </c>
       <c r="N240" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O240" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P240" t="n">
         <v>1.36</v>
@@ -28942,7 +28994,7 @@
         <v>5.5</v>
       </c>
       <c r="H241" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I241" t="n">
         <v>1.6</v>
@@ -28966,10 +29018,10 @@
         <v>2.15</v>
       </c>
       <c r="P241" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q241" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R241" t="n">
         <v>1.75</v>
@@ -29014,16 +29066,16 @@
         <v>8</v>
       </c>
       <c r="AF241" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG241" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH241" t="n">
         <v>12</v>
       </c>
       <c r="AI241" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ241" t="n">
         <v>23</v>
@@ -29061,7 +29113,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H242" t="n">
         <v>3.7</v>
@@ -29076,16 +29128,16 @@
         <v>13</v>
       </c>
       <c r="L242" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M242" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N242" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O242" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P242" t="n">
         <v>1.33</v>
@@ -29139,13 +29191,13 @@
         <v>17</v>
       </c>
       <c r="AG242" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH242" t="n">
         <v>34</v>
       </c>
       <c r="AI242" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ242" t="n">
         <v>29</v>
@@ -29671,13 +29723,13 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H247" t="n">
         <v>3.75</v>
       </c>
       <c r="I247" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J247" t="n">
         <v>1.04</v>
@@ -29713,16 +29765,16 @@
         <v>8.25</v>
       </c>
       <c r="U247" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V247" t="n">
         <v>8.5</v>
       </c>
       <c r="W247" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X247" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y247" t="n">
         <v>24</v>
@@ -29731,7 +29783,7 @@
         <v>8.25</v>
       </c>
       <c r="AA247" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB247" t="n">
         <v>14</v>
@@ -29746,7 +29798,7 @@
         <v>11.75</v>
       </c>
       <c r="AF247" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG247" t="n">
         <v>12</v>
@@ -29755,10 +29807,10 @@
         <v>45</v>
       </c>
       <c r="AI247" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ247" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="248">
@@ -29921,7 +29973,7 @@
         <v>6</v>
       </c>
       <c r="I249" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="J249" t="n">
         <v>1.02</v>
@@ -29936,10 +29988,10 @@
         <v>5.5</v>
       </c>
       <c r="N249" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O249" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P249" t="n">
         <v>1.25</v>
@@ -29948,25 +30000,25 @@
         <v>3.75</v>
       </c>
       <c r="R249" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S249" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T249" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U249" t="n">
         <v>51</v>
       </c>
       <c r="V249" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W249" t="n">
         <v>151</v>
       </c>
       <c r="X249" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Y249" t="n">
         <v>67</v>
@@ -29978,7 +30030,7 @@
         <v>12</v>
       </c>
       <c r="AB249" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC249" t="n">
         <v>67</v>
@@ -30343,13 +30395,13 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H253" t="n">
         <v>3.6</v>
       </c>
       <c r="I253" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J253" t="n">
         <v>1.03</v>
@@ -30370,10 +30422,10 @@
         <v>2.1</v>
       </c>
       <c r="P253" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q253" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R253" t="n">
         <v>1.62</v>
@@ -30385,7 +30437,7 @@
         <v>10</v>
       </c>
       <c r="U253" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V253" t="n">
         <v>10</v>
@@ -30421,10 +30473,10 @@
         <v>13</v>
       </c>
       <c r="AG253" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH253" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI253" t="n">
         <v>19</v>
@@ -30712,7 +30764,7 @@
         <v>1.33</v>
       </c>
       <c r="H256" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I256" t="n">
         <v>7</v>
@@ -30721,13 +30773,13 @@
         <v>1.03</v>
       </c>
       <c r="K256" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L256" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M256" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N256" t="n">
         <v>1.62</v>
@@ -30748,13 +30800,13 @@
         <v>1.8</v>
       </c>
       <c r="T256" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U256" t="n">
         <v>7</v>
       </c>
       <c r="V256" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W256" t="n">
         <v>9</v>
@@ -30837,7 +30889,7 @@
         <v>4.2</v>
       </c>
       <c r="I257" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J257" t="n">
         <v>1.03</v>
@@ -31096,10 +31148,10 @@
         <v>4</v>
       </c>
       <c r="N259" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O259" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P259" t="n">
         <v>1.33</v>
@@ -31212,16 +31264,16 @@
         <v>13</v>
       </c>
       <c r="L260" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M260" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N260" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O260" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P260" t="n">
         <v>1.33</v>
@@ -31446,7 +31498,7 @@
         <v>3.35</v>
       </c>
       <c r="J262" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K262" t="n">
         <v>5.8</v>
@@ -31803,94 +31855,94 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H265" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I265" t="n">
-        <v>4.05</v>
+        <v>4.7</v>
       </c>
       <c r="J265" t="n">
         <v>1.03</v>
       </c>
       <c r="K265" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="L265" t="n">
         <v>1.14</v>
       </c>
       <c r="M265" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="N265" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="O265" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="P265" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q265" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R265" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S265" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="T265" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="U265" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="V265" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W265" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="X265" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="Y265" t="n">
         <v>17.5</v>
       </c>
       <c r="Z265" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA265" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB265" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC265" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD265" t="n">
         <v>200</v>
       </c>
       <c r="AE265" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF265" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AG265" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH265" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AI265" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AJ265" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="266">
@@ -32428,16 +32480,16 @@
         <v>13</v>
       </c>
       <c r="L270" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M270" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N270" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O270" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P270" t="n">
         <v>1.33</v>
@@ -32779,13 +32831,13 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H273" t="n">
         <v>3.25</v>
       </c>
       <c r="I273" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="J273" t="n">
         <v>1.07</v>
@@ -32818,22 +32870,22 @@
         <v>1.83</v>
       </c>
       <c r="T273" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="U273" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="V273" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W273" t="n">
+        <v>55</v>
+      </c>
+      <c r="X273" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y273" t="n">
         <v>45</v>
-      </c>
-      <c r="X273" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y273" t="n">
-        <v>40</v>
       </c>
       <c r="Z273" t="n">
         <v>6.7</v>
@@ -32851,22 +32903,22 @@
         <v>700</v>
       </c>
       <c r="AE273" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF273" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG273" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH273" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI273" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ273" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-04.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
         <v>4.75</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
         <v>3.7</v>
@@ -784,16 +784,16 @@
         <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
@@ -823,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
         <v>19</v>
@@ -841,19 +841,19 @@
         <v>101</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>1.03</v>
@@ -1034,10 +1034,10 @@
         <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P5" t="n">
         <v>1.25</v>
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="W5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X5" t="n">
         <v>17</v>
@@ -1097,10 +1097,10 @@
         <v>41</v>
       </c>
       <c r="AI5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.33</v>
@@ -1162,16 +1162,16 @@
         <v>1.73</v>
       </c>
       <c r="P6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T6" t="n">
         <v>6.5</v>
@@ -1207,7 +1207,7 @@
         <v>301</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>21</v>
@@ -1216,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="n">
         <v>41</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
         <v>5.25</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>1.05</v>
@@ -1644,22 +1644,22 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="O10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="P10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
         <v>9</v>
@@ -1668,7 +1668,7 @@
         <v>12</v>
       </c>
       <c r="V10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W10" t="n">
         <v>21</v>
@@ -1680,7 +1680,7 @@
         <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
         <v>6.5</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -1766,10 +1766,10 @@
         <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O11" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="P11" t="n">
         <v>1.33</v>
@@ -1805,19 +1805,19 @@
         <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="n">
         <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD11" t="n">
         <v>201</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>21</v>
@@ -2153,13 +2153,13 @@
         <v>12</v>
       </c>
       <c r="U14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V14" t="n">
         <v>15</v>
       </c>
       <c r="W14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X14" t="n">
         <v>34</v>
@@ -2236,7 +2236,7 @@
         <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I15" t="n">
         <v>1.22</v>
@@ -2260,10 +2260,10 @@
         <v>2.63</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
         <v>2</v>
@@ -2278,13 +2278,13 @@
         <v>51</v>
       </c>
       <c r="V15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W15" t="n">
         <v>151</v>
       </c>
       <c r="X15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="n">
         <v>67</v>
@@ -2293,7 +2293,7 @@
         <v>17</v>
       </c>
       <c r="AA15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
         <v>23</v>
@@ -2320,7 +2320,7 @@
         <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -2376,10 +2376,10 @@
         <v>3.5</v>
       </c>
       <c r="N16" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="O16" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P16" t="n">
         <v>1.4</v>
@@ -2480,10 +2480,10 @@
         <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
@@ -2504,10 +2504,10 @@
         <v>1.62</v>
       </c>
       <c r="P17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R17" t="n">
         <v>1.95</v>
@@ -2534,7 +2534,7 @@
         <v>34</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA17" t="n">
         <v>6</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J19" t="n">
         <v>1.03</v>
@@ -2772,7 +2772,7 @@
         <v>29</v>
       </c>
       <c r="X19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
         <v>23</v>
@@ -2793,10 +2793,10 @@
         <v>101</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
         <v>9.5</v>
@@ -2968,7 +2968,7 @@
         <v>1.4</v>
       </c>
       <c r="H21" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I21" t="n">
         <v>6.25</v>
@@ -2998,10 +2998,10 @@
         <v>4.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
         <v>13</v>
@@ -3013,7 +3013,7 @@
         <v>9</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X21" t="n">
         <v>10</v>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
@@ -3096,22 +3096,22 @@
         <v>4.75</v>
       </c>
       <c r="J22" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N22" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="O22" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="P22" t="n">
         <v>1.53</v>
@@ -3219,7 +3219,7 @@
         <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>
@@ -3228,10 +3228,10 @@
         <v>3.4</v>
       </c>
       <c r="N23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
@@ -3350,10 +3350,10 @@
         <v>2.5</v>
       </c>
       <c r="N24" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O24" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
         <v>1.57</v>
@@ -3451,10 +3451,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
         <v>3.2</v>
@@ -3475,7 +3475,7 @@
         <v>3.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
         <v>1.67</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
@@ -3582,10 +3582,10 @@
         <v>3.4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
         <v>1.53</v>
@@ -3597,7 +3597,7 @@
         <v>2.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
         <v>1.57</v>
@@ -3615,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="U26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V26" t="n">
         <v>10</v>
@@ -3660,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
@@ -3695,46 +3695,46 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="I27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J27" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K27" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T27" t="n">
         <v>6.5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T27" t="n">
-        <v>7</v>
       </c>
       <c r="U27" t="n">
         <v>13</v>
@@ -3746,28 +3746,28 @@
         <v>34</v>
       </c>
       <c r="X27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y27" t="n">
         <v>41</v>
       </c>
       <c r="Z27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB27" t="n">
         <v>19</v>
       </c>
       <c r="AC27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="n">
         <v>501</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF27" t="n">
         <v>11</v>
@@ -3779,7 +3779,7 @@
         <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ27" t="n">
         <v>41</v>
@@ -3826,13 +3826,13 @@
         <v>6.25</v>
       </c>
       <c r="J28" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K28" t="n">
         <v>10</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
@@ -3841,7 +3841,7 @@
         <v>2.15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P28" t="n">
         <v>1.44</v>
@@ -3850,10 +3850,10 @@
         <v>2.63</v>
       </c>
       <c r="R28" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T28" t="n">
         <v>5</v>
@@ -3948,22 +3948,22 @@
         <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K29" t="n">
         <v>6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M29" t="n">
         <v>2.2</v>
       </c>
       <c r="N29" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="O29" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P29" t="n">
         <v>1.62</v>
@@ -3975,7 +3975,7 @@
         <v>2.5</v>
       </c>
       <c r="S29" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T29" t="n">
         <v>5</v>
@@ -4070,22 +4070,22 @@
         <v>3.4</v>
       </c>
       <c r="J30" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K30" t="n">
         <v>6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M30" t="n">
         <v>2.2</v>
       </c>
       <c r="N30" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="O30" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P30" t="n">
         <v>1.62</v>
@@ -4094,10 +4094,10 @@
         <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S30" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T30" t="n">
         <v>5.5</v>
@@ -4192,13 +4192,13 @@
         <v>2.63</v>
       </c>
       <c r="J31" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K31" t="n">
         <v>5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
@@ -4207,19 +4207,19 @@
         <v>3.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q31" t="n">
         <v>2.05</v>
       </c>
       <c r="R31" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S31" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T31" t="n">
         <v>6</v>
@@ -4314,22 +4314,22 @@
         <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K32" t="n">
         <v>6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M32" t="n">
         <v>2.2</v>
       </c>
       <c r="N32" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="O32" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
         <v>1.62</v>
@@ -4341,7 +4341,7 @@
         <v>2.75</v>
       </c>
       <c r="S32" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T32" t="n">
         <v>4.5</v>
@@ -4436,13 +4436,13 @@
         <v>3.6</v>
       </c>
       <c r="J33" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K33" t="n">
         <v>5.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M33" t="n">
         <v>2.1</v>
@@ -4451,7 +4451,7 @@
         <v>3.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P33" t="n">
         <v>1.67</v>
@@ -4460,10 +4460,10 @@
         <v>2.1</v>
       </c>
       <c r="R33" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S33" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T33" t="n">
         <v>5</v>
@@ -4552,10 +4552,10 @@
         <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
         <v>1.14</v>
@@ -4585,13 +4585,13 @@
         <v>2.5</v>
       </c>
       <c r="S34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T34" t="n">
         <v>5</v>
       </c>
       <c r="U34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V34" t="n">
         <v>11</v>
@@ -4600,7 +4600,7 @@
         <v>21</v>
       </c>
       <c r="X34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y34" t="n">
         <v>41</v>
@@ -4627,7 +4627,7 @@
         <v>17</v>
       </c>
       <c r="AG34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
@@ -4671,19 +4671,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J35" t="n">
         <v>1.17</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L35" t="n">
         <v>1.73</v>
@@ -4698,22 +4698,22 @@
         <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R35" t="n">
         <v>2.75</v>
       </c>
       <c r="S35" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="U35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V35" t="n">
         <v>11</v>
@@ -4728,13 +4728,13 @@
         <v>51</v>
       </c>
       <c r="Z35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA35" t="n">
         <v>6.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC35" t="n">
         <v>126</v>
@@ -4743,7 +4743,7 @@
         <v>101</v>
       </c>
       <c r="AE35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF35" t="n">
         <v>19</v>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
@@ -4814,10 +4814,10 @@
         <v>2.25</v>
       </c>
       <c r="N36" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P36" t="n">
         <v>1.62</v>
@@ -4829,7 +4829,7 @@
         <v>2.25</v>
       </c>
       <c r="S36" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T36" t="n">
         <v>6</v>
@@ -4930,16 +4930,16 @@
         <v>15</v>
       </c>
       <c r="L37" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M37" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N37" t="n">
         <v>1.57</v>
       </c>
       <c r="O37" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="P37" t="n">
         <v>1.29</v>
@@ -4948,10 +4948,10 @@
         <v>3.5</v>
       </c>
       <c r="R37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S37" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T37" t="n">
         <v>11</v>
@@ -5058,7 +5058,7 @@
         <v>7</v>
       </c>
       <c r="N38" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="O38" t="n">
         <v>3.4</v>
@@ -5070,10 +5070,10 @@
         <v>4.5</v>
       </c>
       <c r="R38" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S38" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T38" t="n">
         <v>13</v>
@@ -5159,13 +5159,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H39" t="n">
         <v>3.2</v>
       </c>
       <c r="I39" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J39" t="n">
         <v>1.06</v>
@@ -5192,7 +5192,7 @@
         <v>2.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S39" t="n">
         <v>2</v>
@@ -5287,7 +5287,7 @@
         <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J40" t="n">
         <v>1.04</v>
@@ -5314,7 +5314,7 @@
         <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S40" t="n">
         <v>2</v>
@@ -5403,7 +5403,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>3.4</v>
@@ -5436,7 +5436,7 @@
         <v>3.25</v>
       </c>
       <c r="R41" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S41" t="n">
         <v>2.2</v>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H42" t="n">
         <v>3.8</v>
@@ -5558,7 +5558,7 @@
         <v>3.4</v>
       </c>
       <c r="R42" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
         <v>2.1</v>
@@ -5671,7 +5671,7 @@
         <v>1.7</v>
       </c>
       <c r="O43" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P43" t="n">
         <v>1.35</v>
@@ -5686,7 +5686,7 @@
         <v>2.02</v>
       </c>
       <c r="T43" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U43" t="n">
         <v>8.5</v>
@@ -5698,7 +5698,7 @@
         <v>13.5</v>
       </c>
       <c r="X43" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y43" t="n">
         <v>23</v>
@@ -5879,90 +5879,90 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="H45" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I45" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M45" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O45" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P45" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="R45" t="n">
         <v>1.82</v>
       </c>
       <c r="S45" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T45" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U45" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="V45" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X45" t="n">
         <v>13.5</v>
       </c>
-      <c r="X45" t="n">
-        <v>14.5</v>
-      </c>
       <c r="Y45" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z45" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AB45" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC45" t="n">
         <v>80</v>
       </c>
       <c r="AD45" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AG45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH45" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AI45" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ45" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H48" t="n">
         <v>4.75</v>
       </c>
       <c r="I48" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J48" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L48" t="n">
         <v>1.17</v>
@@ -6142,13 +6142,13 @@
         <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O48" t="n">
         <v>2.4</v>
       </c>
       <c r="P48" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q48" t="n">
         <v>3.75</v>
@@ -6169,7 +6169,7 @@
         <v>8.5</v>
       </c>
       <c r="W48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X48" t="n">
         <v>11</v>
@@ -6187,19 +6187,19 @@
         <v>17</v>
       </c>
       <c r="AC48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD48" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF48" t="n">
         <v>34</v>
       </c>
       <c r="AG48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH48" t="n">
         <v>67</v>
@@ -6264,16 +6264,16 @@
         <v>3.25</v>
       </c>
       <c r="N49" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O49" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P49" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R49" t="n">
         <v>1.91</v>
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
         <v>4</v>
@@ -6386,22 +6386,22 @@
         <v>5.5</v>
       </c>
       <c r="N50" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="O50" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P50" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q50" t="n">
         <v>3.75</v>
       </c>
       <c r="R50" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S50" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T50" t="n">
         <v>17</v>
@@ -6431,16 +6431,16 @@
         <v>13</v>
       </c>
       <c r="AC50" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD50" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG50" t="n">
         <v>8.5</v>
@@ -6508,10 +6508,10 @@
         <v>3.75</v>
       </c>
       <c r="N51" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O51" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P51" t="n">
         <v>1.36</v>
@@ -6520,7 +6520,7 @@
         <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S51" t="n">
         <v>2</v>
@@ -6642,7 +6642,7 @@
         <v>3.5</v>
       </c>
       <c r="R52" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -6731,13 +6731,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="H53" t="n">
         <v>6.8</v>
       </c>
       <c r="I53" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -6748,69 +6748,69 @@
         <v>3.65</v>
       </c>
       <c r="N53" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="O53" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="S53" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="T53" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="U53" t="n">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="V53" t="n">
+        <v>12</v>
+      </c>
+      <c r="W53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X53" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z53" t="n">
         <v>13.5</v>
       </c>
-      <c r="W53" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="X53" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AA53" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AC53" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AD53" t="n">
         <v>101</v>
       </c>
       <c r="AE53" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF53" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AG53" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AH53" t="n">
         <v>101</v>
       </c>
       <c r="AI53" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="AJ53" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54">
@@ -6980,10 +6980,10 @@
         <v>2.75</v>
       </c>
       <c r="N55" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O55" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -6995,7 +6995,7 @@
         <v>2</v>
       </c>
       <c r="S55" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T55" t="n">
         <v>6.5</v>
@@ -7010,7 +7010,7 @@
         <v>19</v>
       </c>
       <c r="X55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y55" t="n">
         <v>34</v>
@@ -7117,7 +7117,7 @@
         <v>2.05</v>
       </c>
       <c r="S56" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T56" t="n">
         <v>12</v>
@@ -7203,13 +7203,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H57" t="n">
         <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J57" t="n">
         <v>1.08</v>
@@ -7230,16 +7230,16 @@
         <v>1.62</v>
       </c>
       <c r="P57" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R57" t="n">
         <v>2</v>
       </c>
       <c r="S57" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -7251,7 +7251,7 @@
         <v>15</v>
       </c>
       <c r="W57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X57" t="n">
         <v>41</v>
@@ -7260,7 +7260,7 @@
         <v>41</v>
       </c>
       <c r="Z57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA57" t="n">
         <v>6.5</v>
@@ -7358,34 +7358,34 @@
         <v>2.25</v>
       </c>
       <c r="R58" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S58" t="n">
         <v>1.65</v>
       </c>
       <c r="T58" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="U58" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V58" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="W58" t="n">
         <v>40</v>
       </c>
       <c r="X58" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y58" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z58" t="n">
         <v>5.1</v>
       </c>
       <c r="AA58" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB58" t="n">
         <v>18</v>
@@ -7397,10 +7397,10 @@
         <v>101</v>
       </c>
       <c r="AE58" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AF58" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AG58" t="n">
         <v>10.25</v>
@@ -7409,10 +7409,10 @@
         <v>28</v>
       </c>
       <c r="AI58" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ58" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
@@ -7569,94 +7569,94 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="I60" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="J60" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K60" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L60" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="M60" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="N60" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="O60" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P60" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R60" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S60" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T60" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="U60" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V60" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W60" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X60" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB60" t="n">
         <v>19</v>
       </c>
-      <c r="Y60" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>18</v>
-      </c>
       <c r="AC60" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD60" t="n">
         <v>800</v>
       </c>
       <c r="AE60" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AF60" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG60" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH60" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>75</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="61">
@@ -7813,7 +7813,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H62" t="n">
         <v>3.1</v>
@@ -7837,7 +7837,7 @@
         <v>2.7</v>
       </c>
       <c r="O62" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P62" t="n">
         <v>1.57</v>
@@ -7935,7 +7935,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H63" t="n">
         <v>3.7</v>
@@ -8541,13 +8541,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="H68" t="n">
         <v>2.95</v>
       </c>
       <c r="I68" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J68" t="n">
         <v>1.11</v>
@@ -8562,7 +8562,7 @@
         <v>2.57</v>
       </c>
       <c r="N68" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="O68" t="n">
         <v>1.55</v>
@@ -8580,10 +8580,10 @@
         <v>1.78</v>
       </c>
       <c r="T68" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="U68" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V68" t="n">
         <v>11.25</v>
@@ -8613,16 +8613,16 @@
         <v>1000</v>
       </c>
       <c r="AE68" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AF68" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG68" t="n">
         <v>10.75</v>
       </c>
       <c r="AH68" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI68" t="n">
         <v>28</v>
@@ -8669,31 +8669,31 @@
         <v>3.8</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J69" t="n">
         <v>1.06</v>
       </c>
       <c r="K69" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="L69" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M69" t="n">
         <v>3.25</v>
       </c>
       <c r="N69" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="O69" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P69" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="R69" t="n">
         <v>1.91</v>
@@ -8705,7 +8705,7 @@
         <v>6.3</v>
       </c>
       <c r="U69" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="V69" t="n">
         <v>8.75</v>
@@ -8714,16 +8714,16 @@
         <v>13</v>
       </c>
       <c r="X69" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y69" t="n">
         <v>32</v>
       </c>
       <c r="Z69" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AA69" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AB69" t="n">
         <v>19</v>
@@ -8735,16 +8735,16 @@
         <v>900</v>
       </c>
       <c r="AE69" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG69" t="n">
         <v>17</v>
       </c>
       <c r="AH69" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="n">
         <v>55</v>
@@ -8785,13 +8785,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H70" t="n">
         <v>3.4</v>
       </c>
       <c r="I70" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J70" t="n">
         <v>1.08</v>
@@ -8806,37 +8806,37 @@
         <v>2.9</v>
       </c>
       <c r="N70" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="O70" t="n">
         <v>1.7</v>
       </c>
       <c r="P70" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R70" t="n">
         <v>1.9</v>
       </c>
       <c r="S70" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T70" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="U70" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="V70" t="n">
         <v>9.75</v>
       </c>
       <c r="W70" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X70" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y70" t="n">
         <v>37</v>
@@ -8854,25 +8854,25 @@
         <v>100</v>
       </c>
       <c r="AD70" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE70" t="n">
         <v>8.5</v>
       </c>
       <c r="AF70" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG70" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI70" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ70" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71">
@@ -9383,19 +9383,19 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>3.2</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J75" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K75" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L75" t="n">
         <v>1.5</v>
@@ -9425,13 +9425,13 @@
         <v>5.5</v>
       </c>
       <c r="U75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X75" t="n">
         <v>21</v>
@@ -9440,13 +9440,13 @@
         <v>41</v>
       </c>
       <c r="Z75" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA75" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC75" t="n">
         <v>81</v>
@@ -9455,10 +9455,10 @@
         <v>101</v>
       </c>
       <c r="AE75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG75" t="n">
         <v>15</v>
@@ -9529,7 +9529,7 @@
         <v>2.15</v>
       </c>
       <c r="O76" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P76" t="n">
         <v>1.44</v>
@@ -9651,7 +9651,7 @@
         <v>2.35</v>
       </c>
       <c r="O77" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P77" t="n">
         <v>1.5</v>
@@ -9770,10 +9770,10 @@
         <v>2.25</v>
       </c>
       <c r="N78" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="O78" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P78" t="n">
         <v>1.62</v>
@@ -10359,13 +10359,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H83" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I83" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J83" t="n">
         <v>1.08</v>
@@ -10392,22 +10392,22 @@
         <v>2.5</v>
       </c>
       <c r="R83" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S83" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T83" t="n">
         <v>5</v>
       </c>
       <c r="U83" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V83" t="n">
         <v>9.5</v>
       </c>
       <c r="W83" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X83" t="n">
         <v>15</v>
@@ -10440,13 +10440,13 @@
         <v>23</v>
       </c>
       <c r="AH83" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="n">
         <v>67</v>
       </c>
       <c r="AJ83" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84">
@@ -10481,13 +10481,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H84" t="n">
         <v>3.1</v>
       </c>
       <c r="I84" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J84" t="n">
         <v>1.05</v>
@@ -10514,10 +10514,10 @@
         <v>2.63</v>
       </c>
       <c r="R84" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S84" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T84" t="n">
         <v>9.5</v>
@@ -10544,7 +10544,7 @@
         <v>6.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC84" t="n">
         <v>51</v>
@@ -10556,7 +10556,7 @@
         <v>7</v>
       </c>
       <c r="AF84" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG84" t="n">
         <v>9.5</v>
@@ -10857,7 +10857,7 @@
         <v>1.06</v>
       </c>
       <c r="K87" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="L87" t="n">
         <v>1.3</v>
@@ -10866,7 +10866,7 @@
         <v>3.35</v>
       </c>
       <c r="N87" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O87" t="n">
         <v>1.87</v>
@@ -10875,16 +10875,16 @@
         <v>1.42</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R87" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S87" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T87" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U87" t="n">
         <v>8.25</v>
@@ -10893,16 +10893,16 @@
         <v>8.5</v>
       </c>
       <c r="W87" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X87" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y87" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z87" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA87" t="n">
         <v>7.4</v>
@@ -10911,7 +10911,7 @@
         <v>17</v>
       </c>
       <c r="AC87" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD87" t="n">
         <v>700</v>
@@ -10923,7 +10923,7 @@
         <v>32</v>
       </c>
       <c r="AG87" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH87" t="n">
         <v>100</v>
@@ -10932,7 +10932,7 @@
         <v>55</v>
       </c>
       <c r="AJ87" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88">
@@ -10967,73 +10967,73 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="H88" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I88" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J88" t="n">
         <v>1.07</v>
       </c>
       <c r="K88" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="L88" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M88" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N88" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O88" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P88" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="R88" t="n">
         <v>1.75</v>
       </c>
       <c r="S88" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T88" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U88" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="V88" t="n">
         <v>9.5</v>
       </c>
       <c r="W88" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X88" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y88" t="n">
         <v>30</v>
       </c>
       <c r="Z88" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AA88" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AB88" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC88" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD88" t="n">
         <v>600</v>
@@ -11042,7 +11042,7 @@
         <v>9</v>
       </c>
       <c r="AF88" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG88" t="n">
         <v>11.75</v>
@@ -11051,7 +11051,7 @@
         <v>45</v>
       </c>
       <c r="AI88" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ88" t="n">
         <v>40</v>
@@ -11232,7 +11232,7 @@
         <v>3.75</v>
       </c>
       <c r="N90" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O90" t="n">
         <v>2.05</v>
@@ -11354,10 +11354,10 @@
         <v>4</v>
       </c>
       <c r="N91" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O91" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P91" t="n">
         <v>1.33</v>
@@ -11577,19 +11577,19 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H93" t="n">
         <v>3.2</v>
       </c>
       <c r="I93" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J93" t="n">
         <v>1.07</v>
       </c>
       <c r="K93" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L93" t="n">
         <v>1.36</v>
@@ -11601,7 +11601,7 @@
         <v>2.15</v>
       </c>
       <c r="O93" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P93" t="n">
         <v>1.44</v>
@@ -11640,7 +11640,7 @@
         <v>6.5</v>
       </c>
       <c r="AB93" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC93" t="n">
         <v>51</v>
@@ -11714,16 +11714,16 @@
         <v>11</v>
       </c>
       <c r="L94" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M94" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N94" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O94" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P94" t="n">
         <v>1.36</v>
@@ -11830,13 +11830,13 @@
         <v>4.33</v>
       </c>
       <c r="J95" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K95" t="n">
         <v>11</v>
       </c>
       <c r="L95" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M95" t="n">
         <v>3.75</v>
@@ -11943,13 +11943,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H96" t="n">
         <v>3.5</v>
       </c>
       <c r="I96" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J96" t="n">
         <v>1.04</v>
@@ -11970,16 +11970,16 @@
         <v>2</v>
       </c>
       <c r="P96" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q96" t="n">
         <v>3</v>
       </c>
       <c r="R96" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S96" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T96" t="n">
         <v>9.5</v>
@@ -11997,10 +11997,10 @@
         <v>21</v>
       </c>
       <c r="Y96" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA96" t="n">
         <v>6.5</v>
@@ -12012,7 +12012,7 @@
         <v>41</v>
       </c>
       <c r="AD96" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE96" t="n">
         <v>9.5</v>
@@ -12086,13 +12086,13 @@
         <v>5</v>
       </c>
       <c r="N97" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O97" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P97" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q97" t="n">
         <v>3.5</v>
@@ -12187,19 +12187,19 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>3.4</v>
       </c>
       <c r="I98" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J98" t="n">
         <v>1.04</v>
       </c>
       <c r="K98" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L98" t="n">
         <v>1.25</v>
@@ -12214,7 +12214,7 @@
         <v>2</v>
       </c>
       <c r="P98" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q98" t="n">
         <v>3</v>
@@ -12271,7 +12271,7 @@
         <v>26</v>
       </c>
       <c r="AI98" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ98" t="n">
         <v>26</v>
@@ -12336,7 +12336,7 @@
         <v>2.3</v>
       </c>
       <c r="P99" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q99" t="n">
         <v>3.5</v>
@@ -12431,13 +12431,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J100" t="n">
         <v>1.03</v>
@@ -12458,7 +12458,7 @@
         <v>2.15</v>
       </c>
       <c r="P100" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q100" t="n">
         <v>3.4</v>
@@ -12470,25 +12470,25 @@
         <v>2.25</v>
       </c>
       <c r="T100" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U100" t="n">
         <v>12</v>
       </c>
       <c r="V100" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W100" t="n">
         <v>21</v>
       </c>
       <c r="X100" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y100" t="n">
         <v>21</v>
       </c>
       <c r="Z100" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA100" t="n">
         <v>7</v>
@@ -12509,16 +12509,16 @@
         <v>17</v>
       </c>
       <c r="AG100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH100" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ100" t="n">
         <v>29</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="101">
@@ -13163,13 +13163,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="H106" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I106" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -13180,10 +13180,10 @@
         <v>4.2</v>
       </c>
       <c r="N106" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O106" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
@@ -13194,55 +13194,55 @@
         <v>2.17</v>
       </c>
       <c r="T106" t="n">
+        <v>12</v>
+      </c>
+      <c r="U106" t="n">
+        <v>21</v>
+      </c>
+      <c r="V106" t="n">
         <v>11.75</v>
       </c>
-      <c r="U106" t="n">
-        <v>20</v>
-      </c>
-      <c r="V106" t="n">
-        <v>11.25</v>
-      </c>
       <c r="W106" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X106" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y106" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z106" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA106" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB106" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AC106" t="n">
         <v>40</v>
       </c>
       <c r="AD106" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE106" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AF106" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AG106" t="n">
         <v>6.9</v>
       </c>
       <c r="AH106" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AI106" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AJ106" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107">
@@ -13290,18 +13290,18 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O107" t="n">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="S107" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -13387,13 +13387,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H108" t="n">
         <v>3.55</v>
       </c>
       <c r="I108" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -13418,28 +13418,28 @@
         <v>2.07</v>
       </c>
       <c r="T108" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="U108" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V108" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W108" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X108" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y108" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z108" t="n">
         <v>12</v>
       </c>
       <c r="AA108" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB108" t="n">
         <v>13</v>
@@ -13451,16 +13451,16 @@
         <v>300</v>
       </c>
       <c r="AE108" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF108" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG108" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH108" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI108" t="n">
         <v>13.5</v>
@@ -13501,34 +13501,34 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H109" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I109" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J109" t="n">
         <v>1.03</v>
       </c>
       <c r="K109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L109" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M109" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N109" t="n">
         <v>1.57</v>
       </c>
       <c r="O109" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P109" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q109" t="n">
         <v>3.5</v>
@@ -13558,10 +13558,10 @@
         <v>21</v>
       </c>
       <c r="Z109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA109" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB109" t="n">
         <v>13</v>
@@ -13644,13 +13644,13 @@
         <v>5.5</v>
       </c>
       <c r="N110" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O110" t="n">
         <v>2.5</v>
       </c>
       <c r="P110" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q110" t="n">
         <v>3.75</v>
@@ -13745,13 +13745,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H111" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I111" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J111" t="n">
         <v>1.03</v>
@@ -13766,7 +13766,7 @@
         <v>5</v>
       </c>
       <c r="N111" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="O111" t="n">
         <v>2.35</v>
@@ -13784,7 +13784,7 @@
         <v>2.38</v>
       </c>
       <c r="T111" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U111" t="n">
         <v>23</v>
@@ -13888,7 +13888,7 @@
         <v>4.33</v>
       </c>
       <c r="N112" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O112" t="n">
         <v>2.15</v>
@@ -14010,7 +14010,7 @@
         <v>4.33</v>
       </c>
       <c r="N113" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O113" t="n">
         <v>2.15</v>
@@ -14132,7 +14132,7 @@
         <v>5.5</v>
       </c>
       <c r="N114" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O114" t="n">
         <v>2.4</v>
@@ -14233,13 +14233,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H115" t="n">
         <v>3.4</v>
       </c>
       <c r="I115" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J115" t="n">
         <v>1.06</v>
@@ -14248,31 +14248,31 @@
         <v>10</v>
       </c>
       <c r="L115" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M115" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N115" t="n">
         <v>2.05</v>
       </c>
       <c r="O115" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P115" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R115" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S115" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T115" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U115" t="n">
         <v>9</v>
@@ -14290,22 +14290,22 @@
         <v>29</v>
       </c>
       <c r="Z115" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA115" t="n">
         <v>6.5</v>
       </c>
       <c r="AB115" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC115" t="n">
         <v>51</v>
       </c>
       <c r="AD115" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF115" t="n">
         <v>19</v>
@@ -14379,7 +14379,7 @@
         <v>2.05</v>
       </c>
       <c r="O116" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P116" t="n">
         <v>1.4</v>
@@ -14924,13 +14924,13 @@
         <v>2.3</v>
       </c>
       <c r="J121" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K121" t="n">
         <v>13</v>
       </c>
       <c r="L121" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M121" t="n">
         <v>4</v>
@@ -14948,7 +14948,7 @@
         <v>3.25</v>
       </c>
       <c r="R121" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S121" t="n">
         <v>2.2</v>
@@ -15046,13 +15046,13 @@
         <v>3.5</v>
       </c>
       <c r="J122" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K122" t="n">
         <v>11</v>
       </c>
       <c r="L122" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M122" t="n">
         <v>3.5</v>
@@ -15070,7 +15070,7 @@
         <v>3</v>
       </c>
       <c r="R122" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S122" t="n">
         <v>2</v>
@@ -15168,13 +15168,13 @@
         <v>2.25</v>
       </c>
       <c r="J123" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K123" t="n">
         <v>17</v>
       </c>
       <c r="L123" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M123" t="n">
         <v>5</v>
@@ -15192,7 +15192,7 @@
         <v>3.5</v>
       </c>
       <c r="R123" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S123" t="n">
         <v>2.5</v>
@@ -15768,10 +15768,10 @@
         <v>1.75</v>
       </c>
       <c r="H128" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I128" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>1.98</v>
       </c>
       <c r="T128" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="U128" t="n">
         <v>8.75</v>
@@ -15808,7 +15808,7 @@
         <v>14</v>
       </c>
       <c r="X128" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y128" t="n">
         <v>23</v>
@@ -15817,22 +15817,22 @@
         <v>12</v>
       </c>
       <c r="AA128" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB128" t="n">
         <v>14</v>
       </c>
       <c r="AC128" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD128" t="n">
         <v>400</v>
       </c>
       <c r="AE128" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF128" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG128" t="n">
         <v>13.5</v>
@@ -15900,7 +15900,7 @@
         <v>5.5</v>
       </c>
       <c r="N129" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O129" t="n">
         <v>2.4</v>
@@ -15912,7 +15912,7 @@
         <v>3.75</v>
       </c>
       <c r="R129" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S129" t="n">
         <v>2.2</v>
@@ -16001,19 +16001,19 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I130" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J130" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K130" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L130" t="n">
         <v>1.4</v>
@@ -16022,7 +16022,7 @@
         <v>2.75</v>
       </c>
       <c r="N130" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O130" t="n">
         <v>1.57</v>
@@ -16034,19 +16034,19 @@
         <v>2.5</v>
       </c>
       <c r="R130" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S130" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T130" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W130" t="n">
         <v>34</v>
@@ -16058,10 +16058,10 @@
         <v>41</v>
       </c>
       <c r="Z130" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA130" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB130" t="n">
         <v>15</v>
@@ -16070,19 +16070,19 @@
         <v>51</v>
       </c>
       <c r="AD130" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE130" t="n">
         <v>7</v>
       </c>
       <c r="AF130" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG130" t="n">
         <v>10</v>
       </c>
-      <c r="AG130" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH130" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI130" t="n">
         <v>21</v>
@@ -16129,13 +16129,13 @@
         <v>3</v>
       </c>
       <c r="I131" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J131" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K131" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L131" t="n">
         <v>1.44</v>
@@ -16147,7 +16147,7 @@
         <v>2.4</v>
       </c>
       <c r="O131" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P131" t="n">
         <v>1.5</v>
@@ -16159,7 +16159,7 @@
         <v>2</v>
       </c>
       <c r="S131" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T131" t="n">
         <v>7.5</v>
@@ -16183,19 +16183,19 @@
         <v>7</v>
       </c>
       <c r="AA131" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB131" t="n">
         <v>17</v>
       </c>
       <c r="AC131" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD131" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE131" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF131" t="n">
         <v>12</v>
@@ -16245,31 +16245,31 @@
         </is>
       </c>
       <c r="G132" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K132" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M132" t="n">
+        <v>3</v>
+      </c>
+      <c r="N132" t="n">
         <v>2.25</v>
       </c>
-      <c r="H132" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K132" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L132" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M132" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N132" t="n">
-        <v>2.07</v>
-      </c>
       <c r="O132" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="P132" t="n">
         <v>1.44</v>
@@ -16278,58 +16278,58 @@
         <v>2.63</v>
       </c>
       <c r="R132" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="S132" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T132" t="n">
         <v>7.5</v>
       </c>
       <c r="U132" t="n">
+        <v>12</v>
+      </c>
+      <c r="V132" t="n">
         <v>10</v>
       </c>
-      <c r="V132" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W132" t="n">
+        <v>26</v>
+      </c>
+      <c r="X132" t="n">
         <v>21</v>
       </c>
-      <c r="X132" t="n">
-        <v>19</v>
-      </c>
       <c r="Y132" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z132" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA132" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB132" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC132" t="n">
         <v>51</v>
       </c>
       <c r="AD132" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE132" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AF132" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG132" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH132" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI132" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ132" t="n">
         <v>41</v>
@@ -16367,19 +16367,19 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="H133" t="n">
         <v>3.4</v>
       </c>
       <c r="I133" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="J133" t="n">
         <v>1.04</v>
       </c>
       <c r="K133" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L133" t="n">
         <v>1.22</v>
@@ -16388,7 +16388,7 @@
         <v>4</v>
       </c>
       <c r="N133" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O133" t="n">
         <v>2.05</v>
@@ -16400,31 +16400,31 @@
         <v>3.25</v>
       </c>
       <c r="R133" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S133" t="n">
         <v>2.2</v>
       </c>
       <c r="T133" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U133" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V133" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W133" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X133" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y133" t="n">
         <v>23</v>
       </c>
       <c r="Z133" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA133" t="n">
         <v>6.5</v>
@@ -16439,19 +16439,19 @@
         <v>151</v>
       </c>
       <c r="AE133" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF133" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG133" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH133" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI133" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ133" t="n">
         <v>29</v>
@@ -16489,25 +16489,25 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="H134" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="I134" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J134" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K134" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L134" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M134" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N134" t="n">
         <v>2.15</v>
@@ -16516,28 +16516,28 @@
         <v>1.67</v>
       </c>
       <c r="P134" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R134" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S134" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T134" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U134" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V134" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W134" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X134" t="n">
         <v>21</v>
@@ -16546,19 +16546,19 @@
         <v>34</v>
       </c>
       <c r="Z134" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA134" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB134" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC134" t="n">
         <v>51</v>
       </c>
       <c r="AD134" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE134" t="n">
         <v>9</v>
@@ -16567,10 +16567,10 @@
         <v>15</v>
       </c>
       <c r="AG134" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH134" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI134" t="n">
         <v>26</v>
@@ -16611,10 +16611,10 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H135" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I135" t="n">
         <v>4.33</v>
@@ -16638,7 +16638,7 @@
         <v>1.6</v>
       </c>
       <c r="P135" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q135" t="n">
         <v>2.5</v>
@@ -16733,13 +16733,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H136" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I136" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J136" t="n">
         <v>1.1</v>
@@ -16748,19 +16748,19 @@
         <v>7</v>
       </c>
       <c r="L136" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M136" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N136" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O136" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P136" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q136" t="n">
         <v>2.5</v>
@@ -16790,7 +16790,7 @@
         <v>41</v>
       </c>
       <c r="Z136" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA136" t="n">
         <v>5.5</v>
@@ -16805,16 +16805,16 @@
         <v>351</v>
       </c>
       <c r="AE136" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF136" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG136" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH136" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI136" t="n">
         <v>23</v>
@@ -16855,10 +16855,10 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I137" t="n">
         <v>3.7</v>
@@ -16876,13 +16876,13 @@
         <v>3.75</v>
       </c>
       <c r="N137" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O137" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P137" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q137" t="n">
         <v>3</v>
@@ -16909,10 +16909,10 @@
         <v>17</v>
       </c>
       <c r="Y137" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z137" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA137" t="n">
         <v>6</v>
@@ -16977,7 +16977,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H138" t="n">
         <v>3.4</v>
@@ -16986,28 +16986,28 @@
         <v>4.75</v>
       </c>
       <c r="J138" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K138" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L138" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M138" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N138" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O138" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P138" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q138" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R138" t="n">
         <v>2</v>
@@ -17025,7 +17025,7 @@
         <v>9</v>
       </c>
       <c r="W138" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X138" t="n">
         <v>17</v>
@@ -17099,13 +17099,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H139" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="I139" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="J139" t="n">
         <v>1.05</v>
@@ -17120,13 +17120,13 @@
         <v>4</v>
       </c>
       <c r="N139" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O139" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P139" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q139" t="n">
         <v>3.25</v>
@@ -17138,31 +17138,31 @@
         <v>2.25</v>
       </c>
       <c r="T139" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U139" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V139" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="W139" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X139" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y139" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z139" t="n">
         <v>11</v>
       </c>
       <c r="AA139" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB139" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC139" t="n">
         <v>34</v>
@@ -17171,22 +17171,22 @@
         <v>126</v>
       </c>
       <c r="AE139" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF139" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG139" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH139" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ139" t="n">
         <v>29</v>
-      </c>
-      <c r="AI139" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ139" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="140">
@@ -17343,25 +17343,25 @@
         </is>
       </c>
       <c r="G141" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K141" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M141" t="n">
         <v>2.4</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J141" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K141" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L141" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M141" t="n">
-        <v>2.37</v>
       </c>
       <c r="N141" t="n">
         <v>2.5</v>
@@ -17373,13 +17373,13 @@
         <v>1.6</v>
       </c>
       <c r="Q141" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R141" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S141" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T141" t="n">
         <v>6.2</v>
@@ -17388,7 +17388,7 @@
         <v>10.5</v>
       </c>
       <c r="V141" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W141" t="n">
         <v>26</v>
@@ -17397,40 +17397,40 @@
         <v>24</v>
       </c>
       <c r="Y141" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z141" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AA141" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB141" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC141" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD141" t="n">
         <v>900</v>
       </c>
       <c r="AE141" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AF141" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG141" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH141" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI141" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ141" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142">
@@ -17507,13 +17507,13 @@
         <v>5.5</v>
       </c>
       <c r="U142" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="V142" t="n">
         <v>9.25</v>
       </c>
       <c r="W142" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X142" t="n">
         <v>19</v>
@@ -17531,7 +17531,7 @@
         <v>20</v>
       </c>
       <c r="AC142" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD142" t="n">
         <v>1000</v>
@@ -17540,13 +17540,13 @@
         <v>8.25</v>
       </c>
       <c r="AF142" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG142" t="n">
         <v>14</v>
       </c>
       <c r="AH142" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI142" t="n">
         <v>45</v>
@@ -17608,10 +17608,10 @@
         <v>3.15</v>
       </c>
       <c r="N143" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="O143" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P143" t="n">
         <v>1.42</v>
@@ -17623,19 +17623,19 @@
         <v>1.9</v>
       </c>
       <c r="S143" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T143" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U143" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="V143" t="n">
         <v>8.25</v>
       </c>
       <c r="W143" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X143" t="n">
         <v>13.5</v>
@@ -17650,7 +17650,7 @@
         <v>7</v>
       </c>
       <c r="AB143" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC143" t="n">
         <v>80</v>
@@ -17659,10 +17659,10 @@
         <v>700</v>
       </c>
       <c r="AE143" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF143" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG143" t="n">
         <v>16</v>
@@ -17748,10 +17748,10 @@
         <v>1.8</v>
       </c>
       <c r="T144" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U144" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="V144" t="n">
         <v>8.25</v>
@@ -17760,7 +17760,7 @@
         <v>14</v>
       </c>
       <c r="X144" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y144" t="n">
         <v>30</v>
@@ -17778,10 +17778,10 @@
         <v>90</v>
       </c>
       <c r="AD144" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE144" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF144" t="n">
         <v>24</v>
@@ -18197,13 +18197,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H148" t="n">
         <v>3.05</v>
       </c>
       <c r="I148" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J148" t="n">
         <v>1.09</v>
@@ -18230,25 +18230,25 @@
         <v>2.37</v>
       </c>
       <c r="R148" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S148" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T148" t="n">
         <v>6.5</v>
       </c>
       <c r="U148" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V148" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W148" t="n">
         <v>21</v>
       </c>
       <c r="X148" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y148" t="n">
         <v>35</v>
@@ -18269,22 +18269,22 @@
         <v>900</v>
       </c>
       <c r="AE148" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF148" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG148" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH148" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI148" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ148" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149">
@@ -18696,10 +18696,10 @@
         <v>1.7</v>
       </c>
       <c r="P152" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R152" t="n">
         <v>1.95</v>
@@ -19023,13 +19023,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H155" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I155" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J155" t="n">
         <v>1.1</v>
@@ -19038,22 +19038,22 @@
         <v>7</v>
       </c>
       <c r="L155" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M155" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N155" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O155" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P155" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R155" t="n">
         <v>2.2</v>
@@ -19062,16 +19062,16 @@
         <v>1.62</v>
       </c>
       <c r="T155" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U155" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V155" t="n">
         <v>15</v>
       </c>
       <c r="W155" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X155" t="n">
         <v>41</v>
@@ -19080,7 +19080,7 @@
         <v>51</v>
       </c>
       <c r="Z155" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA155" t="n">
         <v>6.5</v>
@@ -19098,16 +19098,16 @@
         <v>5.5</v>
       </c>
       <c r="AF155" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG155" t="n">
         <v>9.5</v>
       </c>
       <c r="AH155" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI155" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ155" t="n">
         <v>41</v>
@@ -19145,31 +19145,31 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H156" t="n">
         <v>2.9</v>
       </c>
       <c r="I156" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J156" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K156" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L156" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M156" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N156" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O156" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P156" t="n">
         <v>1.53</v>
@@ -19178,37 +19178,37 @@
         <v>2.38</v>
       </c>
       <c r="R156" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S156" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T156" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U156" t="n">
+        <v>13</v>
+      </c>
+      <c r="V156" t="n">
         <v>12</v>
       </c>
-      <c r="V156" t="n">
-        <v>11</v>
-      </c>
       <c r="W156" t="n">
+        <v>34</v>
+      </c>
+      <c r="X156" t="n">
         <v>29</v>
-      </c>
-      <c r="X156" t="n">
-        <v>26</v>
       </c>
       <c r="Y156" t="n">
         <v>41</v>
       </c>
       <c r="Z156" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA156" t="n">
         <v>6</v>
       </c>
       <c r="AB156" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC156" t="n">
         <v>67</v>
@@ -19217,19 +19217,19 @@
         <v>101</v>
       </c>
       <c r="AE156" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF156" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG156" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH156" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI156" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ156" t="n">
         <v>41</v>
@@ -19511,31 +19511,31 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H159" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I159" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J159" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K159" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L159" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M159" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N159" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O159" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P159" t="n">
         <v>1.57</v>
@@ -19544,13 +19544,13 @@
         <v>2.25</v>
       </c>
       <c r="R159" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S159" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T159" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U159" t="n">
         <v>9</v>
@@ -19562,13 +19562,13 @@
         <v>21</v>
       </c>
       <c r="X159" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y159" t="n">
         <v>41</v>
       </c>
       <c r="Z159" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA159" t="n">
         <v>6.5</v>
@@ -19598,7 +19598,7 @@
         <v>34</v>
       </c>
       <c r="AJ159" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H162" t="n">
         <v>4.33</v>
@@ -19898,10 +19898,10 @@
         <v>5</v>
       </c>
       <c r="N162" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O162" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P162" t="n">
         <v>1.25</v>
@@ -19999,7 +19999,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>3.9</v>
@@ -20020,10 +20020,10 @@
         <v>4</v>
       </c>
       <c r="N163" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O163" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P163" t="n">
         <v>1.33</v>
@@ -20038,7 +20038,7 @@
         <v>2.05</v>
       </c>
       <c r="T163" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U163" t="n">
         <v>9.5</v>
@@ -20050,7 +20050,7 @@
         <v>15</v>
       </c>
       <c r="X163" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y163" t="n">
         <v>23</v>
@@ -20071,7 +20071,7 @@
         <v>201</v>
       </c>
       <c r="AE163" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF163" t="n">
         <v>21</v>
@@ -20490,7 +20490,7 @@
         <v>1.65</v>
       </c>
       <c r="H167" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I167" t="n">
         <v>4.75</v>
@@ -20499,7 +20499,7 @@
         <v>1.04</v>
       </c>
       <c r="K167" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L167" t="n">
         <v>1.22</v>
@@ -20508,28 +20508,28 @@
         <v>4</v>
       </c>
       <c r="N167" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O167" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P167" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q167" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R167" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S167" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T167" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U167" t="n">
         <v>8</v>
-      </c>
-      <c r="U167" t="n">
-        <v>8.5</v>
       </c>
       <c r="V167" t="n">
         <v>8.5</v>
@@ -20544,7 +20544,7 @@
         <v>23</v>
       </c>
       <c r="Z167" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA167" t="n">
         <v>7.5</v>
@@ -20553,10 +20553,10 @@
         <v>15</v>
       </c>
       <c r="AC167" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD167" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE167" t="n">
         <v>15</v>
@@ -20571,7 +20571,7 @@
         <v>51</v>
       </c>
       <c r="AI167" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ167" t="n">
         <v>41</v>
@@ -20618,10 +20618,10 @@
         <v>4.33</v>
       </c>
       <c r="J168" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K168" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L168" t="n">
         <v>1.5</v>
@@ -20630,10 +20630,10 @@
         <v>2.5</v>
       </c>
       <c r="N168" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O168" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P168" t="n">
         <v>1.53</v>
@@ -21099,7 +21099,7 @@
         <v>1.04</v>
       </c>
       <c r="K172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L172" t="n">
         <v>1.25</v>
@@ -21352,10 +21352,10 @@
         <v>3.75</v>
       </c>
       <c r="N174" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O174" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P174" t="n">
         <v>1.36</v>
@@ -21474,10 +21474,10 @@
         <v>2.63</v>
       </c>
       <c r="N175" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O175" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="P175" t="n">
         <v>1.53</v>
@@ -21596,7 +21596,7 @@
         <v>4.33</v>
       </c>
       <c r="N176" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O176" t="n">
         <v>2.15</v>
@@ -21718,7 +21718,7 @@
         <v>4.5</v>
       </c>
       <c r="N177" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O177" t="n">
         <v>2.25</v>
@@ -21819,13 +21819,13 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H178" t="n">
         <v>3.75</v>
       </c>
       <c r="I178" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J178" t="n">
         <v>1.05</v>
@@ -21852,10 +21852,10 @@
         <v>3</v>
       </c>
       <c r="R178" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S178" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T178" t="n">
         <v>7</v>
@@ -21891,10 +21891,10 @@
         <v>301</v>
       </c>
       <c r="AE178" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF178" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG178" t="n">
         <v>17</v>
@@ -21962,10 +21962,10 @@
         <v>3.5</v>
       </c>
       <c r="N179" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O179" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P179" t="n">
         <v>1.36</v>
@@ -21974,10 +21974,10 @@
         <v>3</v>
       </c>
       <c r="R179" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S179" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T179" t="n">
         <v>7.5</v>
@@ -22084,10 +22084,10 @@
         <v>4</v>
       </c>
       <c r="N180" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O180" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P180" t="n">
         <v>1.33</v>
@@ -22096,7 +22096,7 @@
         <v>3.25</v>
       </c>
       <c r="R180" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S180" t="n">
         <v>2.2</v>
@@ -22194,10 +22194,10 @@
         <v>2.75</v>
       </c>
       <c r="J181" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K181" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L181" t="n">
         <v>1.3</v>
@@ -22206,10 +22206,10 @@
         <v>3.4</v>
       </c>
       <c r="N181" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O181" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P181" t="n">
         <v>1.4</v>
@@ -22218,7 +22218,7 @@
         <v>2.75</v>
       </c>
       <c r="R181" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S181" t="n">
         <v>2</v>
@@ -22328,10 +22328,10 @@
         <v>3.25</v>
       </c>
       <c r="N182" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O182" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P182" t="n">
         <v>1.44</v>
@@ -22340,10 +22340,10 @@
         <v>2.63</v>
       </c>
       <c r="R182" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S182" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T182" t="n">
         <v>7</v>
@@ -22438,10 +22438,10 @@
         <v>21</v>
       </c>
       <c r="J183" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K183" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L183" t="n">
         <v>1.14</v>
@@ -22450,7 +22450,7 @@
         <v>5.5</v>
       </c>
       <c r="N183" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O183" t="n">
         <v>2.5</v>
@@ -22462,10 +22462,10 @@
         <v>3.75</v>
       </c>
       <c r="R183" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S183" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T183" t="n">
         <v>8</v>
@@ -22549,7 +22549,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H184" t="n">
         <v>3.4</v>
@@ -22570,10 +22570,10 @@
         <v>3.5</v>
       </c>
       <c r="N184" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O184" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P184" t="n">
         <v>1.4</v>
@@ -22793,13 +22793,13 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H186" t="n">
         <v>3.2</v>
       </c>
       <c r="I186" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J186" t="n">
         <v>1.07</v>
@@ -24103,7 +24103,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H197" t="n">
         <v>3</v>
@@ -24112,16 +24112,16 @@
         <v>3.5</v>
       </c>
       <c r="J197" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K197" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L197" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M197" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N197" t="n">
         <v>2.5</v>
@@ -24154,7 +24154,7 @@
         <v>21</v>
       </c>
       <c r="X197" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y197" t="n">
         <v>41</v>
@@ -24166,7 +24166,7 @@
         <v>6</v>
       </c>
       <c r="AB197" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC197" t="n">
         <v>67</v>
@@ -24175,10 +24175,10 @@
         <v>101</v>
       </c>
       <c r="AE197" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF197" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG197" t="n">
         <v>13</v>
@@ -24225,7 +24225,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="H198" t="n">
         <v>2.95</v>
@@ -24258,34 +24258,34 @@
         <v>2.42</v>
       </c>
       <c r="R198" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S198" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T198" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="U198" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="V198" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W198" t="n">
         <v>25</v>
       </c>
       <c r="X198" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y198" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z198" t="n">
         <v>5.9</v>
       </c>
       <c r="AA198" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB198" t="n">
         <v>18</v>
@@ -24297,10 +24297,10 @@
         <v>900</v>
       </c>
       <c r="AE198" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AF198" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG198" t="n">
         <v>13</v>
@@ -24309,10 +24309,10 @@
         <v>55</v>
       </c>
       <c r="AI198" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ198" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199">
@@ -24843,13 +24843,13 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H207" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I207" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J207" t="n">
         <v>1.03</v>
@@ -24888,7 +24888,7 @@
         <v>21</v>
       </c>
       <c r="V207" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W207" t="n">
         <v>41</v>
@@ -24897,7 +24897,7 @@
         <v>23</v>
       </c>
       <c r="Y207" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z207" t="n">
         <v>19</v>
@@ -25459,7 +25459,7 @@
         <v>6</v>
       </c>
       <c r="I212" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J212" t="n">
         <v>1.01</v>
@@ -25468,34 +25468,34 @@
         <v>34</v>
       </c>
       <c r="L212" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="M212" t="n">
+        <v>11</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O212" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P212" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>6</v>
+      </c>
+      <c r="R212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T212" t="n">
+        <v>19</v>
+      </c>
+      <c r="U212" t="n">
         <v>13</v>
-      </c>
-      <c r="N212" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="O212" t="n">
-        <v>5</v>
-      </c>
-      <c r="P212" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Q212" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="R212" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S212" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T212" t="n">
-        <v>21</v>
-      </c>
-      <c r="U212" t="n">
-        <v>15</v>
       </c>
       <c r="V212" t="n">
         <v>11</v>
@@ -25504,7 +25504,7 @@
         <v>13</v>
       </c>
       <c r="X212" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y212" t="n">
         <v>15</v>
@@ -25519,7 +25519,7 @@
         <v>17</v>
       </c>
       <c r="AC212" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD212" t="n">
         <v>67</v>
@@ -25540,7 +25540,7 @@
         <v>41</v>
       </c>
       <c r="AJ212" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="213">
@@ -26084,10 +26084,10 @@
         <v>3.25</v>
       </c>
       <c r="N217" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O217" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P217" t="n">
         <v>1.4</v>
@@ -26200,16 +26200,16 @@
         <v>11</v>
       </c>
       <c r="L218" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M218" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N218" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O218" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P218" t="n">
         <v>1.36</v>
@@ -26685,7 +26685,7 @@
         <v>1.07</v>
       </c>
       <c r="K222" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L222" t="n">
         <v>1.36</v>
@@ -26917,13 +26917,13 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H224" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I224" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J224" t="n">
         <v>1.05</v>
@@ -26944,10 +26944,10 @@
         <v>1.88</v>
       </c>
       <c r="P224" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q224" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R224" t="n">
         <v>1.83</v>
@@ -26959,7 +26959,7 @@
         <v>7</v>
       </c>
       <c r="U224" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V224" t="n">
         <v>8.5</v>
@@ -26968,13 +26968,13 @@
         <v>13</v>
       </c>
       <c r="X224" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y224" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z224" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA224" t="n">
         <v>7</v>
@@ -27051,7 +27051,7 @@
         <v>1.08</v>
       </c>
       <c r="K225" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L225" t="n">
         <v>1.44</v>
@@ -27536,10 +27536,10 @@
         <v>3.1</v>
       </c>
       <c r="J229" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K229" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L229" t="n">
         <v>1.3</v>
@@ -27658,10 +27658,10 @@
         <v>3.7</v>
       </c>
       <c r="J230" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K230" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L230" t="n">
         <v>1.4</v>
@@ -27670,10 +27670,10 @@
         <v>2.75</v>
       </c>
       <c r="N230" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O230" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P230" t="n">
         <v>1.5</v>
@@ -27780,22 +27780,22 @@
         <v>4.1</v>
       </c>
       <c r="J231" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K231" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L231" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M231" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N231" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O231" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P231" t="n">
         <v>1.44</v>
@@ -27840,7 +27840,7 @@
         <v>67</v>
       </c>
       <c r="AD231" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE231" t="n">
         <v>11</v>
@@ -27893,13 +27893,13 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H232" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I232" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J232" t="n">
         <v>1.04</v>
@@ -27908,10 +27908,10 @@
         <v>9</v>
       </c>
       <c r="L232" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M232" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N232" t="n">
         <v>1.7</v>
@@ -27920,22 +27920,22 @@
         <v>2.1</v>
       </c>
       <c r="P232" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q232" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R232" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S232" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T232" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U232" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V232" t="n">
         <v>8.5</v>
@@ -27950,16 +27950,16 @@
         <v>23</v>
       </c>
       <c r="Z232" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA232" t="n">
         <v>8</v>
       </c>
       <c r="AB232" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC232" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD232" t="n">
         <v>450</v>
@@ -28024,22 +28024,22 @@
         <v>5.25</v>
       </c>
       <c r="J233" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K233" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L233" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M233" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N233" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O233" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P233" t="n">
         <v>1.44</v>
@@ -28048,16 +28048,16 @@
         <v>2.63</v>
       </c>
       <c r="R233" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S233" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T233" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U233" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V233" t="n">
         <v>9</v>
@@ -28072,7 +28072,7 @@
         <v>34</v>
       </c>
       <c r="Z233" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA233" t="n">
         <v>7.5</v>
@@ -28087,10 +28087,10 @@
         <v>101</v>
       </c>
       <c r="AE233" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF233" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG233" t="n">
         <v>19</v>
@@ -28099,7 +28099,7 @@
         <v>51</v>
       </c>
       <c r="AI233" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ233" t="n">
         <v>51</v>
@@ -28268,10 +28268,10 @@
         <v>1.83</v>
       </c>
       <c r="J235" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K235" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L235" t="n">
         <v>1.4</v>
@@ -28298,7 +28298,7 @@
         <v>1.67</v>
       </c>
       <c r="T235" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U235" t="n">
         <v>19</v>
@@ -28310,7 +28310,7 @@
         <v>41</v>
       </c>
       <c r="X235" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y235" t="n">
         <v>41</v>
@@ -28512,10 +28512,10 @@
         <v>3.5</v>
       </c>
       <c r="J237" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K237" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L237" t="n">
         <v>1.36</v>
@@ -28536,10 +28536,10 @@
         <v>2.63</v>
       </c>
       <c r="R237" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S237" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T237" t="n">
         <v>6.5</v>
@@ -28575,10 +28575,10 @@
         <v>800</v>
       </c>
       <c r="AE237" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF237" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG237" t="n">
         <v>13</v>
@@ -28625,13 +28625,13 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H238" t="n">
         <v>3.2</v>
       </c>
       <c r="I238" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J238" t="n">
         <v>1.08</v>
@@ -28667,22 +28667,22 @@
         <v>7</v>
       </c>
       <c r="U238" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V238" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W238" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X238" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y238" t="n">
         <v>41</v>
       </c>
       <c r="Z238" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA238" t="n">
         <v>6</v>
@@ -28697,19 +28697,19 @@
         <v>451</v>
       </c>
       <c r="AE238" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF238" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG238" t="n">
         <v>11</v>
       </c>
       <c r="AH238" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI238" t="n">
         <v>26</v>
-      </c>
-      <c r="AI238" t="n">
-        <v>23</v>
       </c>
       <c r="AJ238" t="n">
         <v>41</v>
@@ -28747,19 +28747,19 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H239" t="n">
         <v>4</v>
       </c>
       <c r="I239" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J239" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K239" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L239" t="n">
         <v>1.17</v>
@@ -28774,10 +28774,10 @@
         <v>2.4</v>
       </c>
       <c r="P239" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q239" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R239" t="n">
         <v>1.5</v>
@@ -28792,7 +28792,7 @@
         <v>15</v>
       </c>
       <c r="V239" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W239" t="n">
         <v>26</v>
@@ -28819,7 +28819,7 @@
         <v>101</v>
       </c>
       <c r="AE239" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF239" t="n">
         <v>15</v>
@@ -28869,13 +28869,13 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H240" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I240" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J240" t="n">
         <v>1.05</v>
@@ -28911,13 +28911,13 @@
         <v>7.5</v>
       </c>
       <c r="U240" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V240" t="n">
         <v>8.5</v>
       </c>
       <c r="W240" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X240" t="n">
         <v>15</v>
@@ -28953,10 +28953,10 @@
         <v>41</v>
       </c>
       <c r="AI240" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ240" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241">
@@ -29113,19 +29113,19 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="H242" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I242" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="J242" t="n">
         <v>1.04</v>
       </c>
       <c r="K242" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L242" t="n">
         <v>1.25</v>
@@ -29134,10 +29134,10 @@
         <v>3.75</v>
       </c>
       <c r="N242" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O242" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P242" t="n">
         <v>1.33</v>
@@ -29152,25 +29152,25 @@
         <v>2.1</v>
       </c>
       <c r="T242" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U242" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V242" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W242" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X242" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y242" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z242" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA242" t="n">
         <v>7</v>
@@ -29185,19 +29185,19 @@
         <v>151</v>
       </c>
       <c r="AE242" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF242" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG242" t="n">
         <v>11</v>
       </c>
       <c r="AH242" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI242" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ242" t="n">
         <v>29</v>
@@ -29250,16 +29250,16 @@
         <v>15</v>
       </c>
       <c r="L243" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M243" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N243" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O243" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P243" t="n">
         <v>1.33</v>
@@ -30220,10 +30220,10 @@
         <v>29</v>
       </c>
       <c r="J251" t="n">
-        <v>1.01</v>
+        <v>41</v>
       </c>
       <c r="K251" t="n">
-        <v>34</v>
+        <v>1.02</v>
       </c>
       <c r="L251" t="n">
         <v>1.05</v>
@@ -30232,10 +30232,10 @@
         <v>11</v>
       </c>
       <c r="N251" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="O251" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="P251" t="n">
         <v>1.14</v>
@@ -30250,10 +30250,10 @@
         <v>1.4</v>
       </c>
       <c r="T251" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U251" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V251" t="n">
         <v>17</v>
@@ -30277,7 +30277,7 @@
         <v>51</v>
       </c>
       <c r="AC251" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AD251" t="n">
         <v>900</v>
@@ -30517,19 +30517,19 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H254" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I254" t="n">
         <v>2.05</v>
       </c>
       <c r="J254" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K254" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L254" t="n">
         <v>1.2</v>
@@ -30544,19 +30544,19 @@
         <v>2.15</v>
       </c>
       <c r="P254" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q254" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R254" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S254" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T254" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U254" t="n">
         <v>19</v>
@@ -30571,10 +30571,10 @@
         <v>23</v>
       </c>
       <c r="Y254" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z254" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA254" t="n">
         <v>7</v>
@@ -30586,13 +30586,13 @@
         <v>41</v>
       </c>
       <c r="AD254" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE254" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF254" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG254" t="n">
         <v>9</v>
@@ -30604,7 +30604,7 @@
         <v>15</v>
       </c>
       <c r="AJ254" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="255">
@@ -30690,13 +30690,13 @@
         <v>13</v>
       </c>
       <c r="X255" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y255" t="n">
         <v>26</v>
       </c>
       <c r="Z255" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA255" t="n">
         <v>7.5</v>
@@ -30761,10 +30761,10 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H256" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I256" t="n">
         <v>7</v>
@@ -30773,13 +30773,13 @@
         <v>1.03</v>
       </c>
       <c r="K256" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L256" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M256" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N256" t="n">
         <v>1.62</v>
@@ -30794,19 +30794,19 @@
         <v>3.5</v>
       </c>
       <c r="R256" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S256" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T256" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U256" t="n">
         <v>7</v>
       </c>
       <c r="V256" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W256" t="n">
         <v>9</v>
@@ -30821,10 +30821,10 @@
         <v>15</v>
       </c>
       <c r="AA256" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB256" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC256" t="n">
         <v>51</v>
@@ -30883,13 +30883,13 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H257" t="n">
         <v>4.2</v>
       </c>
       <c r="I257" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J257" t="n">
         <v>1.03</v>
@@ -30904,10 +30904,10 @@
         <v>4.5</v>
       </c>
       <c r="N257" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O257" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P257" t="n">
         <v>1.29</v>
@@ -30952,7 +30952,7 @@
         <v>51</v>
       </c>
       <c r="AD257" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE257" t="n">
         <v>19</v>
@@ -31011,7 +31011,7 @@
         <v>4.33</v>
       </c>
       <c r="I258" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="J258" t="n">
         <v>1.03</v>
@@ -31038,10 +31038,10 @@
         <v>3.75</v>
       </c>
       <c r="R258" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S258" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T258" t="n">
         <v>21</v>
@@ -31056,7 +31056,7 @@
         <v>81</v>
       </c>
       <c r="X258" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y258" t="n">
         <v>41</v>
@@ -31077,16 +31077,16 @@
         <v>201</v>
       </c>
       <c r="AE258" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF258" t="n">
         <v>7.5</v>
       </c>
       <c r="AG258" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH258" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI258" t="n">
         <v>11</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="H259" t="n">
         <v>3.6</v>
@@ -31142,10 +31142,10 @@
         <v>13</v>
       </c>
       <c r="L259" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M259" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N259" t="n">
         <v>1.7</v>
@@ -31154,10 +31154,10 @@
         <v>2.1</v>
       </c>
       <c r="P259" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q259" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R259" t="n">
         <v>1.62</v>
@@ -31166,7 +31166,7 @@
         <v>2.2</v>
       </c>
       <c r="T259" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U259" t="n">
         <v>17</v>
@@ -31178,7 +31178,7 @@
         <v>34</v>
       </c>
       <c r="X259" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y259" t="n">
         <v>26</v>
@@ -31288,7 +31288,7 @@
         <v>2.2</v>
       </c>
       <c r="T260" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U260" t="n">
         <v>17</v>
@@ -31306,13 +31306,13 @@
         <v>29</v>
       </c>
       <c r="Z260" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA260" t="n">
         <v>7</v>
       </c>
       <c r="AB260" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC260" t="n">
         <v>41</v>
@@ -31321,7 +31321,7 @@
         <v>151</v>
       </c>
       <c r="AE260" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF260" t="n">
         <v>12</v>
@@ -32587,13 +32587,13 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H271" t="n">
         <v>3.6</v>
       </c>
       <c r="I271" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J271" t="n">
         <v>1.03</v>
@@ -32635,7 +32635,7 @@
         <v>9</v>
       </c>
       <c r="W271" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X271" t="n">
         <v>15</v>
@@ -32653,7 +32653,7 @@
         <v>12</v>
       </c>
       <c r="AC271" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD271" t="n">
         <v>126</v>
@@ -32674,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="AJ271" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="272">
@@ -32712,82 +32712,82 @@
         <v>1.72</v>
       </c>
       <c r="H272" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I272" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="J272" t="n">
         <v>1.07</v>
       </c>
       <c r="K272" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="L272" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="M272" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N272" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="O272" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="P272" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q272" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="R272" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="S272" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T272" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="U272" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V272" t="n">
         <v>7.9</v>
-      </c>
-      <c r="V272" t="n">
-        <v>8</v>
       </c>
       <c r="W272" t="n">
         <v>14</v>
       </c>
       <c r="X272" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y272" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z272" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AA272" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB272" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC272" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD272" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE272" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF272" t="n">
         <v>27</v>
       </c>
       <c r="AG272" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH272" t="n">
         <v>90</v>
@@ -32831,7 +32831,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H273" t="n">
         <v>3.25</v>
@@ -32870,19 +32870,19 @@
         <v>1.83</v>
       </c>
       <c r="T273" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="U273" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="V273" t="n">
         <v>12.5</v>
       </c>
       <c r="W273" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X273" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y273" t="n">
         <v>45</v>
@@ -32894,7 +32894,7 @@
         <v>6.4</v>
       </c>
       <c r="AB273" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC273" t="n">
         <v>80</v>
@@ -32903,7 +32903,7 @@
         <v>700</v>
       </c>
       <c r="AE273" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AF273" t="n">
         <v>9</v>
